--- a/Big_DF/source_data/Energy/bp_stats_collect.xlsx
+++ b/Big_DF/source_data/Energy/bp_stats_collect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\letzten_Vorlesungen\Prog_R-Python_DataScience\data_collection\DataCollection_repo\Energy_Data\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\letzten_Vorlesungen\Prog_R-Python_DataScience\data_analysis\DataAnalysis_Repo\Big_DF\source_data\Energy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA11FA4B-4B14-481A-AD75-088244B9C190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25525422-DB39-4E48-85EA-E49C645C321C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{94DF62BA-EE3E-4DD5-B054-B89525411A29}"/>
   </bookViews>
@@ -21,6 +21,9 @@
     <sheet name="Elect_gener" sheetId="6" r:id="rId6"/>
     <sheet name="Elect_gener_other" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Elect_gener_other!$A$1:$AM$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="124">
   <si>
     <t>2008-2018</t>
   </si>
@@ -409,6 +412,9 @@
   <si>
     <t xml:space="preserve">                 European Union </t>
   </si>
+  <si>
+    <t>United States</t>
+  </si>
 </sst>
 </file>
 
@@ -63154,11 +63160,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D29BBAC-7933-4C58-B164-72F3C828B12A}">
-  <dimension ref="A1:AM56"/>
+  <dimension ref="A1:AM48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -63281,2151 +63285,2627 @@
         <v>2019</v>
       </c>
     </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.14240019999995468</v>
+      </c>
+      <c r="C2">
+        <v>0.13703300000008767</v>
+      </c>
+      <c r="D2">
+        <v>0.15969979999995587</v>
+      </c>
+      <c r="E2">
+        <v>0.19576460000000395</v>
+      </c>
+      <c r="F2">
+        <v>0.10199999999724696</v>
+      </c>
+      <c r="G2">
+        <v>0.15199999999710201</v>
+      </c>
+      <c r="H2">
+        <v>0.1519999999970878</v>
+      </c>
+      <c r="I2">
+        <v>0.15799999999715908</v>
+      </c>
+      <c r="J2">
+        <v>0.16499999999675197</v>
+      </c>
+      <c r="K2">
+        <v>0.16499999999673776</v>
+      </c>
+      <c r="L2">
+        <v>1.5611370833492657</v>
+      </c>
+      <c r="M2">
+        <v>1.6460655265861277</v>
+      </c>
+      <c r="N2">
+        <v>1.692926296403499</v>
+      </c>
+      <c r="O2">
+        <v>1.7939128638523982</v>
+      </c>
+      <c r="P2">
+        <v>1.7938056309687909</v>
+      </c>
+      <c r="Q2">
+        <v>1.8524084014606785</v>
+      </c>
+      <c r="R2">
+        <v>1.8432131817546065</v>
+      </c>
+      <c r="S2">
+        <v>1.9244420905320681</v>
+      </c>
+      <c r="T2">
+        <v>1.7501082311970606</v>
+      </c>
+      <c r="U2">
+        <v>1.915086021501736</v>
+      </c>
+      <c r="V2">
+        <v>1.9150860215018213</v>
+      </c>
+      <c r="W2">
+        <v>2.3790645161254815</v>
+      </c>
+      <c r="X2">
+        <v>2.8727204301035272</v>
+      </c>
+      <c r="Y2">
+        <v>3.7841182795700377</v>
+      </c>
+      <c r="Z2">
+        <v>3.791345161290451</v>
+      </c>
+      <c r="AA2">
+        <v>4.0601870967740012</v>
+      </c>
+      <c r="AB2">
+        <v>4.2404322580644873</v>
+      </c>
+      <c r="AC2">
+        <v>3.7174516129033748</v>
+      </c>
+      <c r="AD2">
+        <v>3.7939956989247889</v>
+      </c>
+      <c r="AE2">
+        <v>0.40904946236554451</v>
+      </c>
+      <c r="AF2">
+        <v>0.45723655913985795</v>
+      </c>
+      <c r="AG2">
+        <v>0.57229032258035772</v>
+      </c>
+      <c r="AH2">
+        <v>0.52067741935468348</v>
+      </c>
+      <c r="AI2">
+        <v>0.7378817204299537</v>
+      </c>
+      <c r="AJ2">
+        <v>0.67008599061819041</v>
+      </c>
+      <c r="AK2">
+        <v>-9.187885799943607E-2</v>
+      </c>
+      <c r="AL2">
+        <v>-0.15081521367504402</v>
+      </c>
+      <c r="AM2">
+        <v>2.8680732941908389E-3</v>
+      </c>
+    </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>0.14240019999995468</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.13703300000008767</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.15969979999995587</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.19576460000000395</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.10199999999724696</v>
+        <v>-7.7039999999328757E-4</v>
       </c>
       <c r="G3">
-        <v>0.15199999999710201</v>
+        <v>1.901000000032127E-3</v>
       </c>
       <c r="H3">
-        <v>0.1519999999970878</v>
+        <v>6.2400000003037803E-4</v>
       </c>
       <c r="I3">
-        <v>0.15799999999715908</v>
+        <v>1.007800000039083E-3</v>
       </c>
       <c r="J3">
-        <v>0.16499999999675197</v>
+        <v>1.05040000002532E-3</v>
       </c>
       <c r="K3">
-        <v>0.16499999999673776</v>
+        <v>3.6240000000731243E-3</v>
       </c>
       <c r="L3">
-        <v>1.5611370833492657</v>
+        <v>2.4734000000563583E-3</v>
       </c>
       <c r="M3">
-        <v>1.6460655265861277</v>
+        <v>1.7902000000020735E-3</v>
       </c>
       <c r="N3">
-        <v>1.692926296403499</v>
+        <v>4.719800000046348E-3</v>
       </c>
       <c r="O3">
-        <v>1.7939128638523982</v>
+        <v>-1.9375999999340365E-3</v>
       </c>
       <c r="P3">
-        <v>1.7938056309687909</v>
+        <v>3.5215999999991254E-3</v>
       </c>
       <c r="Q3">
-        <v>1.8524084014606785</v>
+        <v>3.5033999999996013E-3</v>
       </c>
       <c r="R3">
-        <v>1.8432131817546065</v>
+        <v>2.315000000010059E-3</v>
       </c>
       <c r="S3">
-        <v>1.9244420905320681</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>1.7501082311970606</v>
+        <v>5.2876582045544467</v>
       </c>
       <c r="U3">
-        <v>1.915086021501736</v>
+        <v>3.6313927185933608</v>
       </c>
       <c r="V3">
-        <v>1.9150860215018213</v>
+        <v>9.3148802961551951</v>
       </c>
       <c r="W3">
-        <v>2.3790645161254815</v>
+        <v>5.736857820536386</v>
       </c>
       <c r="X3">
-        <v>2.8727204301035272</v>
+        <v>5.0892240162671385</v>
       </c>
       <c r="Y3">
-        <v>3.7841182795700377</v>
+        <v>6.6097044505520728</v>
       </c>
       <c r="Z3">
-        <v>3.791345161290451</v>
+        <v>5.9850764956480589</v>
       </c>
       <c r="AA3">
-        <v>4.0601870967740012</v>
+        <v>3.9130104840105275</v>
       </c>
       <c r="AB3">
-        <v>4.2404322580644873</v>
+        <v>2.4019218578267498</v>
       </c>
       <c r="AC3">
-        <v>3.7174516129033748</v>
+        <v>1.5864613581650246</v>
       </c>
       <c r="AD3">
-        <v>3.7939956989247889</v>
+        <v>0.76718259743626049</v>
       </c>
       <c r="AE3">
-        <v>0.40904946236554451</v>
+        <v>0.65548478308838298</v>
       </c>
       <c r="AF3">
-        <v>0.45723655913985795</v>
+        <v>0.28407672572760134</v>
       </c>
       <c r="AG3">
-        <v>0.57229032258035772</v>
+        <v>0.87616433821000328</v>
       </c>
       <c r="AH3">
-        <v>0.52067741935468348</v>
+        <v>3.5065693439910888</v>
       </c>
       <c r="AI3">
-        <v>0.7378817204299537</v>
+        <v>20.555160654110693</v>
       </c>
       <c r="AJ3">
-        <v>0.67008599061819041</v>
+        <v>21.550522263220842</v>
       </c>
       <c r="AK3">
-        <v>-9.187885799943607E-2</v>
+        <v>4.8423927492441843E-2</v>
       </c>
       <c r="AL3">
-        <v>-0.15081521367504402</v>
+        <v>0.12014406844476611</v>
       </c>
       <c r="AM3">
-        <v>2.8680732941908389E-3</v>
+        <v>9.2239620353780499E-2</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.3438591397853088</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.36840537634361681</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.37308655914034716</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.39691290322616624</v>
       </c>
       <c r="F4">
-        <v>-7.7039999999328757E-4</v>
+        <v>4.926283333333231</v>
       </c>
       <c r="G4">
-        <v>1.901000000032127E-3</v>
+        <v>10.672408748777343</v>
       </c>
       <c r="H4">
-        <v>6.2400000003037803E-4</v>
+        <v>13.009214532420629</v>
       </c>
       <c r="I4">
-        <v>1.007800000039083E-3</v>
+        <v>13.797283137830163</v>
       </c>
       <c r="J4">
-        <v>1.05040000002532E-3</v>
+        <v>13.932803633104868</v>
       </c>
       <c r="K4">
-        <v>3.6240000000731243E-3</v>
+        <v>13.696135304659038</v>
       </c>
       <c r="L4">
-        <v>2.4734000000563583E-3</v>
+        <v>13.723072091886479</v>
       </c>
       <c r="M4">
-        <v>1.7902000000020735E-3</v>
+        <v>14.361924470511894</v>
       </c>
       <c r="N4">
-        <v>4.719800000046348E-3</v>
+        <v>15.752256744868646</v>
       </c>
       <c r="O4">
-        <v>-1.9375999999340365E-3</v>
+        <v>16.581186298467856</v>
       </c>
       <c r="P4">
-        <v>3.5215999999991254E-3</v>
+        <v>18.294061795373182</v>
       </c>
       <c r="Q4">
-        <v>3.5033999999996013E-3</v>
+        <v>18.030998403388367</v>
       </c>
       <c r="R4">
-        <v>2.315000000010059E-3</v>
+        <v>12.227130922125525</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>13.975488791137195</v>
       </c>
       <c r="T4">
-        <v>5.2876582045544467</v>
+        <v>14.545181003583821</v>
       </c>
       <c r="U4">
-        <v>3.6313927185933608</v>
+        <v>14.750847344411795</v>
       </c>
       <c r="V4">
-        <v>9.3148802961551951</v>
+        <v>13.359156239818731</v>
       </c>
       <c r="W4">
-        <v>5.736857820536386</v>
+        <v>13.524135516455317</v>
       </c>
       <c r="X4">
-        <v>5.0892240162671385</v>
+        <v>12.70203040078195</v>
       </c>
       <c r="Y4">
-        <v>6.6097044505520728</v>
+        <v>12.281998207884044</v>
       </c>
       <c r="Z4">
-        <v>5.9850764956480589</v>
+        <v>12.524094573922412</v>
       </c>
       <c r="AA4">
-        <v>3.9130104840105275</v>
+        <v>13.464263506027237</v>
       </c>
       <c r="AB4">
-        <v>2.4019218578267498</v>
+        <v>14.801048191593509</v>
       </c>
       <c r="AC4">
-        <v>1.5864613581650246</v>
+        <v>14.502507461714231</v>
       </c>
       <c r="AD4">
-        <v>0.76718259743626049</v>
+        <v>14.305665623980985</v>
       </c>
       <c r="AE4">
-        <v>0.65548478308838298</v>
+        <v>14.071837178233636</v>
       </c>
       <c r="AF4">
-        <v>0.28407672572760134</v>
+        <v>14.751862333007466</v>
       </c>
       <c r="AG4">
-        <v>0.87616433821000328</v>
+        <v>14.353594819159753</v>
       </c>
       <c r="AH4">
-        <v>3.5065693439910888</v>
+        <v>13.688821537959939</v>
       </c>
       <c r="AI4">
-        <v>20.555160654110693</v>
+        <v>13.619731345713717</v>
       </c>
       <c r="AJ4">
-        <v>21.550522263220842</v>
+        <v>13.960466699249082</v>
       </c>
       <c r="AK4">
-        <v>4.8423927492441843E-2</v>
+        <v>2.5017773470443538E-2</v>
       </c>
       <c r="AL4">
-        <v>0.12014406844476611</v>
+        <v>1.0392121437514223E-2</v>
       </c>
       <c r="AM4">
-        <v>9.2239620353780499E-2</v>
+        <v>5.9752990325343307E-2</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.3438591397853088</v>
+        <v>0.48625933978526348</v>
       </c>
       <c r="C5">
-        <v>0.36840537634361681</v>
+        <v>0.50543837634370448</v>
       </c>
       <c r="D5">
-        <v>0.37308655914034716</v>
+        <v>0.53278635914030303</v>
       </c>
       <c r="E5">
-        <v>0.39691290322616624</v>
+        <v>0.59267750322617019</v>
       </c>
       <c r="F5">
-        <v>4.926283333333231</v>
+        <v>5.0275129333304847</v>
       </c>
       <c r="G5">
-        <v>10.672408748777343</v>
+        <v>10.826309748774477</v>
       </c>
       <c r="H5">
-        <v>13.009214532420629</v>
+        <v>13.161838532417747</v>
       </c>
       <c r="I5">
-        <v>13.797283137830163</v>
+        <v>13.956290937827362</v>
       </c>
       <c r="J5">
-        <v>13.932803633104868</v>
+        <v>14.098854033101645</v>
       </c>
       <c r="K5">
-        <v>13.696135304659038</v>
+        <v>13.864759304655848</v>
       </c>
       <c r="L5">
-        <v>13.723072091886479</v>
+        <v>15.286682575235801</v>
       </c>
       <c r="M5">
-        <v>14.361924470511894</v>
+        <v>16.009780197098024</v>
       </c>
       <c r="N5">
-        <v>15.752256744868646</v>
+        <v>17.449902841272191</v>
       </c>
       <c r="O5">
-        <v>16.581186298467856</v>
+        <v>18.37316156232032</v>
       </c>
       <c r="P5">
-        <v>18.294061795373182</v>
+        <v>20.091389026341972</v>
       </c>
       <c r="Q5">
-        <v>18.030998403388367</v>
+        <v>19.886910204849045</v>
       </c>
       <c r="R5">
-        <v>12.227130922125525</v>
+        <v>14.072659103880142</v>
       </c>
       <c r="S5">
-        <v>13.975488791137195</v>
+        <v>15.899930881669263</v>
       </c>
       <c r="T5">
-        <v>14.545181003583821</v>
+        <v>21.582947439335328</v>
       </c>
       <c r="U5">
-        <v>14.750847344411795</v>
+        <v>20.297326084506892</v>
       </c>
       <c r="V5">
-        <v>13.359156239818731</v>
+        <v>24.589122557475747</v>
       </c>
       <c r="W5">
-        <v>13.524135516455317</v>
+        <v>21.640057853117185</v>
       </c>
       <c r="X5">
-        <v>12.70203040078195</v>
+        <v>20.663974847152616</v>
       </c>
       <c r="Y5">
-        <v>12.281998207884044</v>
+        <v>22.675820938006154</v>
       </c>
       <c r="Z5">
-        <v>12.524094573922412</v>
+        <v>22.300516230860921</v>
       </c>
       <c r="AA5">
-        <v>13.464263506027237</v>
+        <v>21.437461086811766</v>
       </c>
       <c r="AB5">
-        <v>14.801048191593509</v>
+        <v>21.443402307484746</v>
       </c>
       <c r="AC5">
-        <v>14.502507461714231</v>
+        <v>19.80642043278263</v>
       </c>
       <c r="AD5">
-        <v>14.305665623980985</v>
+        <v>18.866843920342035</v>
       </c>
       <c r="AE5">
-        <v>14.071837178233636</v>
+        <v>15.136371423687564</v>
       </c>
       <c r="AF5">
-        <v>14.751862333007466</v>
+        <v>15.493175617874925</v>
       </c>
       <c r="AG5">
-        <v>14.353594819159753</v>
+        <v>15.802049479950114</v>
       </c>
       <c r="AH5">
-        <v>13.688821537959939</v>
+        <v>17.716068301305711</v>
       </c>
       <c r="AI5">
-        <v>13.619731345713717</v>
+        <v>34.912773720254364</v>
       </c>
       <c r="AJ5">
-        <v>13.960466699249082</v>
+        <v>36.181074953088114</v>
       </c>
       <c r="AK5">
-        <v>2.5017773470443538E-2</v>
+        <v>3.6327713260374761E-2</v>
       </c>
       <c r="AL5">
-        <v>1.0392121437514223E-2</v>
+        <v>4.4100090668800052E-2</v>
       </c>
       <c r="AM5">
-        <v>5.9752990325343307E-2</v>
+        <v>0.15486068397331465</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.48625933978526348</v>
+        <v>1.1592600000000175E-2</v>
       </c>
       <c r="C6">
-        <v>0.50543837634370448</v>
+        <v>1.7369999999999663E-2</v>
       </c>
       <c r="D6">
-        <v>0.53278635914030303</v>
+        <v>4.8870399999994873E-2</v>
       </c>
       <c r="E6">
-        <v>0.59267750322617019</v>
+        <v>0.77102720000000602</v>
       </c>
       <c r="F6">
-        <v>5.0275129333304847</v>
+        <v>0.36302640000000252</v>
       </c>
       <c r="G6">
-        <v>10.826309748774477</v>
+        <v>0.2899051999999962</v>
       </c>
       <c r="H6">
-        <v>13.161838532417747</v>
+        <v>0.21037620000000601</v>
       </c>
       <c r="I6">
-        <v>13.956290937827362</v>
+        <v>0.22929819999978918</v>
       </c>
       <c r="J6">
-        <v>14.098854033101645</v>
+        <v>0.29362759999975196</v>
       </c>
       <c r="K6">
-        <v>13.864759304655848</v>
+        <v>0.30876159999962738</v>
       </c>
       <c r="L6">
-        <v>15.286682575235801</v>
+        <v>0.15462059999967437</v>
       </c>
       <c r="M6">
-        <v>16.009780197098024</v>
+        <v>7.3947199999665258E-2</v>
       </c>
       <c r="N6">
-        <v>17.449902841272191</v>
+        <v>0.1687587999996083</v>
       </c>
       <c r="O6">
-        <v>18.37316156232032</v>
+        <v>0.15952779999962274</v>
       </c>
       <c r="P6">
-        <v>20.091389026341972</v>
+        <v>0.27739519999970241</v>
       </c>
       <c r="Q6">
-        <v>19.886910204849045</v>
+        <v>6.8321199999594739E-2</v>
       </c>
       <c r="R6">
-        <v>14.072659103880142</v>
+        <v>2.17817999994665E-2</v>
       </c>
       <c r="S6">
-        <v>15.899930881669263</v>
+        <v>3.7349799999482514E-2</v>
       </c>
       <c r="T6">
-        <v>21.582947439335328</v>
+        <v>2.8012799999494575E-2</v>
       </c>
       <c r="U6">
-        <v>20.297326084506892</v>
+        <v>9.5790199999605363E-2</v>
       </c>
       <c r="V6">
-        <v>24.589122557475747</v>
+        <v>0.25374759999958485</v>
       </c>
       <c r="W6">
-        <v>21.640057853117185</v>
+        <v>0.20700000000000784</v>
       </c>
       <c r="X6">
-        <v>20.663974847152616</v>
+        <v>0.34000009999999747</v>
       </c>
       <c r="Y6">
-        <v>22.675820938006154</v>
+        <v>0.3229999879999923</v>
       </c>
       <c r="Z6">
-        <v>22.300516230860921</v>
+        <v>0.42899999999998784</v>
       </c>
       <c r="AA6">
-        <v>21.437461086811766</v>
+        <v>0.33099999999998886</v>
       </c>
       <c r="AB6">
-        <v>21.443402307484746</v>
+        <v>0.3370000000000033</v>
       </c>
       <c r="AC6">
-        <v>19.80642043278263</v>
+        <v>0.61299999999999955</v>
       </c>
       <c r="AD6">
-        <v>18.866843920342035</v>
+        <v>0.59700000000002262</v>
       </c>
       <c r="AE6">
-        <v>15.136371423687564</v>
+        <v>0.83100000000000307</v>
       </c>
       <c r="AF6">
-        <v>15.493175617874925</v>
+        <v>0.85100000000004172</v>
       </c>
       <c r="AG6">
-        <v>15.802049479950114</v>
+        <v>0.71106849315070519</v>
       </c>
       <c r="AH6">
-        <v>17.716068301305711</v>
+        <v>0.5429247202712304</v>
       </c>
       <c r="AI6">
-        <v>34.912773720254364</v>
+        <v>0.5378217673648038</v>
       </c>
       <c r="AJ6">
-        <v>36.181074953088114</v>
+        <v>0.47866365515110942</v>
       </c>
       <c r="AK6">
-        <v>3.6327713260374761E-2</v>
+        <v>-0.10999575659340599</v>
       </c>
       <c r="AL6">
-        <v>4.4100090668800052E-2</v>
+        <v>5.2309732150081611E-2</v>
       </c>
       <c r="AM6">
-        <v>0.15486068397331465</v>
+        <v>2.0487556305604135E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>2.0400000000364571E-5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1.0000000000864873E-4</v>
+      </c>
+      <c r="L7">
+        <v>1.0000000001753051E-4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>5.0639593911938618E-4</v>
+      </c>
+      <c r="O7">
+        <v>1.7999999999673832E-4</v>
+      </c>
+      <c r="P7">
+        <v>3.0600000012981354E-5</v>
+      </c>
+      <c r="Q7">
+        <v>2.7598399999817502E-4</v>
+      </c>
+      <c r="R7">
+        <v>9.9999999982003374E-5</v>
+      </c>
+      <c r="S7">
+        <v>1.9999999998532303E-4</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>9.907548697896118E-5</v>
+      </c>
+      <c r="W7">
+        <v>-6.5837209302479494E-2</v>
+      </c>
+      <c r="X7">
+        <v>-1.1147417197321374E-4</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>4.4200000002092565E-4</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>1.6614900663398657E-3</v>
+      </c>
+      <c r="AD7">
+        <v>2.5471101600800239E-3</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>1.1592600000000175E-2</v>
+        <v>1.2000000000000843E-2</v>
       </c>
       <c r="C8">
-        <v>1.7369999999999663E-2</v>
+        <v>1.7999999999999794E-2</v>
       </c>
       <c r="D8">
-        <v>4.8870399999994873E-2</v>
+        <v>1.0999999999994861E-2</v>
       </c>
       <c r="E8">
-        <v>0.77102720000000602</v>
+        <v>8.3999999999997896E-2</v>
       </c>
       <c r="F8">
-        <v>0.36302640000000252</v>
+        <v>6.8999999999998507E-2</v>
       </c>
       <c r="G8">
-        <v>0.2899051999999962</v>
+        <v>2.4052631578950774E-2</v>
       </c>
       <c r="H8">
-        <v>0.21037620000000601</v>
+        <v>3.7501052631576229E-2</v>
       </c>
       <c r="I8">
-        <v>0.22929819999978918</v>
+        <v>3.5274736842105373E-2</v>
       </c>
       <c r="J8">
-        <v>0.29362759999975196</v>
+        <v>3.597503455608643E-2</v>
       </c>
       <c r="K8">
-        <v>0.30876159999962738</v>
+        <v>5.0735560871879359E-2</v>
       </c>
       <c r="L8">
-        <v>0.15462059999967437</v>
+        <v>5.8069245082406198E-2</v>
       </c>
       <c r="M8">
-        <v>7.3947199999665258E-2</v>
+        <v>0.13476263157894741</v>
       </c>
       <c r="N8">
-        <v>0.1687587999996083</v>
+        <v>0.20135052631579439</v>
       </c>
       <c r="O8">
-        <v>0.15952779999962274</v>
+        <v>0.20364215705292377</v>
       </c>
       <c r="P8">
-        <v>0.27739519999970241</v>
+        <v>8.6340379822588548E-2</v>
       </c>
       <c r="Q8">
-        <v>6.8321199999594739E-2</v>
+        <v>5.2947368421318863E-4</v>
       </c>
       <c r="R8">
-        <v>2.17817999994665E-2</v>
+        <v>-5.0000000000238742E-4</v>
       </c>
       <c r="S8">
-        <v>3.7349799999482514E-2</v>
+        <v>1.8999999999969042E-4</v>
       </c>
       <c r="T8">
-        <v>2.8012799999494575E-2</v>
+        <v>2.4869999999998171E-2</v>
       </c>
       <c r="U8">
-        <v>9.5790199999605363E-2</v>
+        <v>2.4680000000001812E-2</v>
       </c>
       <c r="V8">
-        <v>0.25374759999958485</v>
+        <v>2.2180000000000977E-2</v>
       </c>
       <c r="W8">
-        <v>0.20700000000000784</v>
+        <v>2.2571000000000563E-2</v>
       </c>
       <c r="X8">
-        <v>0.34000009999999747</v>
+        <v>3.2879999999994691E-2</v>
       </c>
       <c r="Y8">
-        <v>0.3229999879999923</v>
+        <v>2.6106000000050145E-3</v>
       </c>
       <c r="Z8">
-        <v>0.42899999999998784</v>
+        <v>8.7954009999999805E-2</v>
       </c>
       <c r="AA8">
-        <v>0.33099999999998886</v>
+        <v>8.3120465356901541</v>
       </c>
       <c r="AB8">
-        <v>0.3370000000000033</v>
+        <v>2.4192786413398171E-2</v>
       </c>
       <c r="AC8">
-        <v>0.61299999999999955</v>
+        <v>0.3717742500000083</v>
       </c>
       <c r="AD8">
-        <v>0.59700000000002262</v>
+        <v>5.5583630000003104E-2</v>
       </c>
       <c r="AE8">
-        <v>0.83100000000000307</v>
+        <v>8.5249236522999947</v>
       </c>
       <c r="AF8">
-        <v>0.85100000000004172</v>
+        <v>1.40445010695854</v>
       </c>
       <c r="AG8">
-        <v>0.71106849315070519</v>
+        <v>0.11227754561822739</v>
       </c>
       <c r="AH8">
-        <v>0.5429247202712304</v>
+        <v>-0.3441027942957241</v>
       </c>
       <c r="AI8">
-        <v>0.5378217673648038</v>
+        <v>-7.4073752897579642E-2</v>
       </c>
       <c r="AJ8">
-        <v>0.47866365515110942</v>
+        <v>-0.11779237958839626</v>
       </c>
       <c r="AK8">
-        <v>-0.10999575659340599</v>
+        <v>0.59020401938140665</v>
       </c>
       <c r="AL8">
-        <v>5.2309732150081611E-2</v>
+        <v>0</v>
       </c>
       <c r="AM8">
-        <v>2.0487556305604135E-3</v>
+        <v>-5.0416988697972388E-4</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>2.3592600000001018E-2</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>3.5369999999999457E-2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>5.9870399999989735E-2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.85502720000000387</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.43202640000000103</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.31395783157894697</v>
       </c>
       <c r="H9">
-        <v>2.0400000000364571E-5</v>
+        <v>0.24789765263158259</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.26457293684189453</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.32960263455583838</v>
       </c>
       <c r="K9">
-        <v>1.0000000000864873E-4</v>
+        <v>0.35959716087151539</v>
       </c>
       <c r="L9">
-        <v>1.0000000001753051E-4</v>
+        <v>0.21278984508209808</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.20870983157861267</v>
       </c>
       <c r="N9">
-        <v>5.0639593911938618E-4</v>
+        <v>0.37061572225452211</v>
       </c>
       <c r="O9">
-        <v>1.7999999999673832E-4</v>
+        <v>0.36334995705254325</v>
       </c>
       <c r="P9">
-        <v>3.0600000012981354E-5</v>
+        <v>0.36376617982230397</v>
       </c>
       <c r="Q9">
-        <v>2.7598399999817502E-4</v>
+        <v>6.9126657683806103E-2</v>
       </c>
       <c r="R9">
-        <v>9.9999999982003374E-5</v>
+        <v>2.1381799999446116E-2</v>
       </c>
       <c r="S9">
-        <v>1.9999999998532303E-4</v>
+        <v>3.7739799999467527E-2</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>5.2882799999492747E-2</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.12047019999960717</v>
       </c>
       <c r="V9">
-        <v>9.907548697896118E-5</v>
+        <v>0.27602667548656479</v>
       </c>
       <c r="W9">
-        <v>-6.5837209302479494E-2</v>
+        <v>0.16373379069752891</v>
       </c>
       <c r="X9">
-        <v>-1.1147417197321374E-4</v>
+        <v>0.37276862582801895</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.32561058799999731</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.51695400999998764</v>
       </c>
       <c r="AA9">
-        <v>4.4200000002092565E-4</v>
+        <v>8.6434885356901638</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.36119278641340147</v>
       </c>
       <c r="AC9">
-        <v>1.6614900663398657E-3</v>
+        <v>0.98643574006634771</v>
       </c>
       <c r="AD9">
-        <v>2.5471101600800239E-3</v>
+        <v>0.65513074016010575</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>9.3559236522999978</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>2.2554501069585817</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>0.82334603876893264</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>0.19882192597550627</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>0.46374801446722413</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>0.36087127556271315</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>-0.22183758354782546</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>3.5996658080743593E-2</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.5445857435806894E-3</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>1.2000000000000843E-2</v>
+        <v>14.388320662000012</v>
       </c>
       <c r="C10">
-        <v>1.7999999999999794E-2</v>
+        <v>14.133448643999998</v>
       </c>
       <c r="D10">
-        <v>1.0999999999994861E-2</v>
+        <v>13.680180705999987</v>
       </c>
       <c r="E10">
-        <v>8.3999999999997896E-2</v>
+        <v>15.626727395999978</v>
       </c>
       <c r="F10">
-        <v>6.8999999999998507E-2</v>
+        <v>16.067004306999991</v>
       </c>
       <c r="G10">
-        <v>2.4052631578950774E-2</v>
+        <v>20.157999999999959</v>
       </c>
       <c r="H10">
-        <v>3.7501052631576229E-2</v>
+        <v>16.200000000000102</v>
       </c>
       <c r="I10">
-        <v>3.5274736842105373E-2</v>
+        <v>16.293700000000172</v>
       </c>
       <c r="J10">
-        <v>3.597503455608643E-2</v>
+        <v>15.819999999999993</v>
       </c>
       <c r="K10">
-        <v>5.0735560871879359E-2</v>
+        <v>17.383199999999988</v>
       </c>
       <c r="L10">
-        <v>5.8069245082406198E-2</v>
+        <v>17.748000000000047</v>
       </c>
       <c r="M10">
-        <v>0.13476263157894741</v>
+        <v>17.399000000000001</v>
       </c>
       <c r="N10">
-        <v>0.20135052631579439</v>
+        <v>17.463999999999942</v>
       </c>
       <c r="O10">
-        <v>0.20364215705292377</v>
+        <v>18.590000000000089</v>
       </c>
       <c r="P10">
-        <v>8.6340379822588548E-2</v>
+        <v>19.300000000000182</v>
       </c>
       <c r="Q10">
-        <v>5.2947368421318863E-4</v>
+        <v>21.274250000000052</v>
       </c>
       <c r="R10">
-        <v>-5.0000000000238742E-4</v>
+        <v>21.279499999999928</v>
       </c>
       <c r="S10">
-        <v>1.8999999999969042E-4</v>
+        <v>18.6262499999998</v>
       </c>
       <c r="T10">
-        <v>2.4869999999998171E-2</v>
+        <v>20.305999999999926</v>
       </c>
       <c r="U10">
-        <v>2.4680000000001812E-2</v>
+        <v>21.226799999999912</v>
       </c>
       <c r="V10">
-        <v>2.2180000000000977E-2</v>
+        <v>24.146799999999985</v>
       </c>
       <c r="W10">
-        <v>2.2571000000000563E-2</v>
+        <v>25.400600000000111</v>
       </c>
       <c r="X10">
-        <v>3.2879999999994691E-2</v>
+        <v>26.558599999999899</v>
       </c>
       <c r="Y10">
-        <v>2.6106000000050145E-3</v>
+        <v>24.712400000000002</v>
       </c>
       <c r="Z10">
-        <v>8.7954009999999805E-2</v>
+        <v>21.125199999999893</v>
       </c>
       <c r="AA10">
-        <v>8.3120465356901541</v>
+        <v>26.429300000000012</v>
       </c>
       <c r="AB10">
-        <v>2.4192786413398171E-2</v>
+        <v>25.306199999999876</v>
       </c>
       <c r="AC10">
-        <v>0.3717742500000083</v>
+        <v>26.109599999999887</v>
       </c>
       <c r="AD10">
-        <v>5.5583630000003104E-2</v>
+        <v>26.180000000000064</v>
       </c>
       <c r="AE10">
-        <v>8.5249236522999947</v>
+        <v>26.912999999999954</v>
       </c>
       <c r="AF10">
-        <v>1.40445010695854</v>
+        <v>27.135208690000013</v>
       </c>
       <c r="AG10">
-        <v>0.11227754561822739</v>
+        <v>27.543000000000006</v>
       </c>
       <c r="AH10">
-        <v>-0.3441027942957241</v>
+        <v>26.743799999999965</v>
       </c>
       <c r="AI10">
-        <v>-7.4073752897579642E-2</v>
+        <v>26.848000003000038</v>
       </c>
       <c r="AJ10">
-        <v>-0.11779237958839626</v>
+        <v>25.731343394999953</v>
       </c>
       <c r="AK10">
-        <v>0.59020401938140665</v>
+        <v>-4.1591798565081439E-2</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>8.3230645488212573E-3</v>
       </c>
       <c r="AM10">
-        <v>-5.0416988697972388E-4</v>
+        <v>0.11013419150394309</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>2.3592600000001018E-2</v>
+        <v>3.5029999999999859</v>
       </c>
       <c r="C11">
-        <v>3.5369999999999457E-2</v>
+        <v>3.6169999999999902</v>
       </c>
       <c r="D11">
-        <v>5.9870399999989735E-2</v>
+        <v>3.29200000000003</v>
       </c>
       <c r="E11">
-        <v>0.85502720000000387</v>
+        <v>3.0790000000000077</v>
       </c>
       <c r="F11">
-        <v>0.43202640000000103</v>
+        <v>5.4329797979797831</v>
       </c>
       <c r="G11">
-        <v>0.31395783157894697</v>
+        <v>4.5930808080807992</v>
       </c>
       <c r="H11">
-        <v>0.24789765263158259</v>
+        <v>4.3341212121212038</v>
       </c>
       <c r="I11">
-        <v>0.26457293684189453</v>
+        <v>4.4740808080807994</v>
       </c>
       <c r="J11">
-        <v>0.32960263455583838</v>
+        <v>5.6771616161616123</v>
       </c>
       <c r="K11">
-        <v>0.35959716087151539</v>
+        <v>3.9642828282827907</v>
       </c>
       <c r="L11">
-        <v>0.21278984508209808</v>
+        <v>5.2153636363636338</v>
       </c>
       <c r="M11">
-        <v>0.20870983157861267</v>
+        <v>6.1333333333333258</v>
       </c>
       <c r="N11">
-        <v>0.37061572225452211</v>
+        <v>6.5260000000000389</v>
       </c>
       <c r="O11">
-        <v>0.36334995705254325</v>
+        <v>7.9389999999999645</v>
       </c>
       <c r="P11">
-        <v>0.36376617982230397</v>
+        <v>8.5209999999999582</v>
       </c>
       <c r="Q11">
-        <v>6.9126657683806103E-2</v>
+        <v>7.9870000000000232</v>
       </c>
       <c r="R11">
-        <v>2.1381799999446116E-2</v>
+        <v>8.6770000000000209</v>
       </c>
       <c r="S11">
-        <v>3.7739799999467527E-2</v>
+        <v>8.4389999999999645</v>
       </c>
       <c r="T11">
-        <v>5.2882799999492747E-2</v>
+        <v>9.5940000000000225</v>
       </c>
       <c r="U11">
-        <v>0.12047019999960717</v>
+        <v>9.8870000000000005</v>
       </c>
       <c r="V11">
-        <v>0.27602667548656479</v>
+        <v>9.4070000000000391</v>
       </c>
       <c r="W11">
-        <v>0.16373379069752891</v>
+        <v>9.0432999999999595</v>
       </c>
       <c r="X11">
-        <v>0.37276862582801895</v>
+        <v>8.3729999999999336</v>
       </c>
       <c r="Y11">
-        <v>0.32561058799999731</v>
+        <v>8.19399999999996</v>
       </c>
       <c r="Z11">
-        <v>0.51695400999998764</v>
+        <v>6.6492999999999824</v>
       </c>
       <c r="AA11">
-        <v>8.6434885356901638</v>
+        <v>6.1816000000000315</v>
       </c>
       <c r="AB11">
-        <v>0.36119278641340147</v>
+        <v>5.016099999999966</v>
       </c>
       <c r="AC11">
-        <v>0.98643574006634771</v>
+        <v>4.9645000000000721</v>
       </c>
       <c r="AD11">
-        <v>0.65513074016010575</v>
+        <v>4.9063000000000159</v>
       </c>
       <c r="AE11">
-        <v>9.3559236522999978</v>
+        <v>4.7911000000000286</v>
       </c>
       <c r="AF11">
-        <v>2.2554501069585817</v>
+        <v>5.8569000000000244</v>
       </c>
       <c r="AG11">
-        <v>0.82334603876893264</v>
+        <v>6.8522000000000389</v>
       </c>
       <c r="AH11">
-        <v>0.19882192597550627</v>
+        <v>6.753565999999978</v>
       </c>
       <c r="AI11">
-        <v>0.46374801446722413</v>
+        <v>6.4533070000000237</v>
       </c>
       <c r="AJ11">
-        <v>0.36087127556271315</v>
+        <v>4.7051501208199227</v>
       </c>
       <c r="AK11">
-        <v>-0.22183758354782546</v>
+        <v>-0.27089318378625016</v>
       </c>
       <c r="AL11">
-        <v>3.5996658080743593E-2</v>
+        <v>-2.3598053241767003E-2</v>
       </c>
       <c r="AM11">
-        <v>1.5445857435806894E-3</v>
+        <v>2.0138781582693315E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>2.3279999999999959</v>
+      </c>
+      <c r="C12">
+        <v>2.3010000000000019</v>
+      </c>
+      <c r="D12">
+        <v>2.2880000000000109</v>
+      </c>
+      <c r="E12">
+        <v>2.6470000000000056</v>
+      </c>
+      <c r="F12">
+        <v>2.708999999999989</v>
+      </c>
+      <c r="G12">
+        <v>0.48699999999999477</v>
+      </c>
+      <c r="H12">
+        <v>0.45000000000000284</v>
+      </c>
+      <c r="I12">
+        <v>0.57799999999998875</v>
+      </c>
+      <c r="J12">
+        <v>0.51900000000000546</v>
+      </c>
+      <c r="K12">
+        <v>0.55398999999999887</v>
+      </c>
+      <c r="L12">
+        <v>0.77500000000000568</v>
+      </c>
+      <c r="M12">
+        <v>0.88700000000000045</v>
+      </c>
+      <c r="N12">
+        <v>1.3730000000000331</v>
+      </c>
+      <c r="O12">
+        <v>4.9295150000000092</v>
+      </c>
+      <c r="P12">
+        <v>5.0880599999999987</v>
+      </c>
+      <c r="Q12">
+        <v>4.7072170000000284</v>
+      </c>
+      <c r="R12">
+        <v>4.8218889999999988</v>
+      </c>
+      <c r="S12">
+        <v>4.7405340000000109</v>
+      </c>
+      <c r="T12">
+        <v>5.6069410000000062</v>
+      </c>
+      <c r="U12">
+        <v>5.6522559999999942</v>
+      </c>
+      <c r="V12">
+        <v>5.7763990000000121</v>
+      </c>
+      <c r="W12">
+        <v>5.0010790000000043</v>
+      </c>
+      <c r="X12">
+        <v>5.6508090000000095</v>
+      </c>
+      <c r="Y12">
+        <v>5.3856430000000017</v>
+      </c>
+      <c r="Z12">
+        <v>5.0025190000000066</v>
+      </c>
+      <c r="AA12">
+        <v>6.2308879999999789</v>
+      </c>
+      <c r="AB12">
+        <v>6.3653469999999857</v>
+      </c>
+      <c r="AC12">
+        <v>6.7077859999999987</v>
+      </c>
+      <c r="AD12">
+        <v>5.9812480000000079</v>
+      </c>
+      <c r="AE12">
+        <v>5.9612929999999977</v>
+      </c>
+      <c r="AF12">
+        <v>5.4673169999999942</v>
+      </c>
+      <c r="AG12">
+        <v>5.9088590000000067</v>
+      </c>
+      <c r="AH12">
+        <v>6.0806710000000095</v>
+      </c>
+      <c r="AI12">
+        <v>5.576123999999993</v>
+      </c>
+      <c r="AJ12">
+        <v>4.9877222660407057</v>
+      </c>
+      <c r="AK12">
+        <v>-0.10552163724466812</v>
+      </c>
+      <c r="AL12">
+        <v>3.4817675335094833E-3</v>
+      </c>
+      <c r="AM12">
+        <v>2.1348234749505937E-2</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>14.388320662000012</v>
+        <v>2.1830499999999802</v>
       </c>
       <c r="C13">
-        <v>14.133448643999998</v>
+        <v>2.4110100000000045</v>
       </c>
       <c r="D13">
-        <v>13.680180705999987</v>
+        <v>2.5288699999999835</v>
       </c>
       <c r="E13">
-        <v>15.626727395999978</v>
+        <v>2.5204299999999762</v>
       </c>
       <c r="F13">
-        <v>16.067004306999991</v>
+        <v>2.2784899999999766</v>
       </c>
       <c r="G13">
-        <v>20.157999999999959</v>
+        <v>2.0989999999999895</v>
       </c>
       <c r="H13">
-        <v>16.200000000000102</v>
+        <v>2.3410000000000082</v>
       </c>
       <c r="I13">
-        <v>16.293700000000172</v>
+        <v>2.3760000000000048</v>
       </c>
       <c r="J13">
-        <v>15.819999999999993</v>
+        <v>2.3919999999999675</v>
       </c>
       <c r="K13">
-        <v>17.383199999999988</v>
+        <v>2.3590000000000089</v>
       </c>
       <c r="L13">
-        <v>17.748000000000047</v>
+        <v>2.2609999999999673</v>
       </c>
       <c r="M13">
-        <v>17.399000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="N13">
-        <v>17.463999999999942</v>
+        <v>2.2889999999999304</v>
       </c>
       <c r="O13">
-        <v>18.590000000000089</v>
+        <v>2.0480000000000587</v>
       </c>
       <c r="P13">
-        <v>19.300000000000182</v>
+        <v>2.1570000000000107</v>
       </c>
       <c r="Q13">
-        <v>21.274250000000052</v>
+        <v>2.0870000000000175</v>
       </c>
       <c r="R13">
-        <v>21.279499999999928</v>
+        <v>1.9700000000000273</v>
       </c>
       <c r="S13">
-        <v>18.6262499999998</v>
+        <v>1.7800000000000011</v>
       </c>
       <c r="T13">
-        <v>20.305999999999926</v>
+        <v>1.6519999999999868</v>
       </c>
       <c r="U13">
-        <v>21.226799999999912</v>
+        <v>1.6999999999999886</v>
       </c>
       <c r="V13">
-        <v>24.146799999999985</v>
+        <v>1.674000000000035</v>
       </c>
       <c r="W13">
-        <v>25.400600000000111</v>
+        <v>1.0839999999999748</v>
       </c>
       <c r="X13">
-        <v>26.558599999999899</v>
+        <v>0.68000000000003524</v>
       </c>
       <c r="Y13">
-        <v>24.712400000000002</v>
+        <v>0.68139999999999645</v>
       </c>
       <c r="Z13">
-        <v>21.125199999999893</v>
+        <v>0.65869999999998186</v>
       </c>
       <c r="AA13">
-        <v>26.429300000000012</v>
+        <v>0.69650000000001455</v>
       </c>
       <c r="AB13">
-        <v>25.306199999999876</v>
+        <v>0.56499999999999773</v>
       </c>
       <c r="AC13">
-        <v>26.109599999999887</v>
+        <v>0.53860000000000241</v>
       </c>
       <c r="AD13">
-        <v>26.180000000000064</v>
+        <v>0.6804000000000201</v>
       </c>
       <c r="AE13">
-        <v>26.912999999999954</v>
+        <v>0.73999999999995225</v>
       </c>
       <c r="AF13">
-        <v>27.135208690000013</v>
+        <v>0.79400000000003956</v>
       </c>
       <c r="AG13">
-        <v>27.543000000000006</v>
+        <v>0.76000000000001933</v>
       </c>
       <c r="AH13">
-        <v>26.743799999999965</v>
+        <v>0.47400000000001796</v>
       </c>
       <c r="AI13">
-        <v>26.848000003000038</v>
+        <v>0.69574859244801246</v>
       </c>
       <c r="AJ13">
-        <v>25.731343394999953</v>
+        <v>0.95996622625932559</v>
       </c>
       <c r="AK13">
-        <v>-4.1591798565081439E-2</v>
+        <v>0.37976021321387865</v>
       </c>
       <c r="AL13">
-        <v>8.3230645488212573E-3</v>
+        <v>2.0860600125429674E-3</v>
       </c>
       <c r="AM13">
-        <v>0.11013419150394309</v>
+        <v>4.1088062359272834E-3</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>3.5029999999999859</v>
+        <v>1.7539468000000085</v>
       </c>
       <c r="C14">
-        <v>3.6169999999999902</v>
+        <v>0.9336308000000173</v>
       </c>
       <c r="D14">
-        <v>3.29200000000003</v>
+        <v>0.7924515999999997</v>
       </c>
       <c r="E14">
-        <v>3.0790000000000077</v>
+        <v>1.0010474000000116</v>
       </c>
       <c r="F14">
-        <v>5.4329797979797831</v>
+        <v>0.82445600000001207</v>
       </c>
       <c r="G14">
-        <v>4.5930808080807992</v>
+        <v>0.9000000000000199</v>
       </c>
       <c r="H14">
-        <v>4.3341212121212038</v>
+        <v>1.1409999999999911</v>
       </c>
       <c r="I14">
-        <v>4.4740808080807994</v>
+        <v>2.1499999999999915</v>
       </c>
       <c r="J14">
-        <v>5.6771616161616123</v>
+        <v>1.5290000000000106</v>
       </c>
       <c r="K14">
-        <v>3.9642828282827907</v>
+        <v>1.1800000000000068</v>
       </c>
       <c r="L14">
-        <v>5.2153636363636338</v>
+        <v>1.769999999999996</v>
       </c>
       <c r="M14">
-        <v>6.1333333333333258</v>
+        <v>1.5049999999999955</v>
       </c>
       <c r="N14">
-        <v>6.5260000000000389</v>
+        <v>1.849000000000018</v>
       </c>
       <c r="O14">
-        <v>7.9389999999999645</v>
+        <v>2.4359999999999928</v>
       </c>
       <c r="P14">
-        <v>8.5209999999999582</v>
+        <v>3.3119999999999976</v>
       </c>
       <c r="Q14">
-        <v>7.9870000000000232</v>
+        <v>2.8439999999999941</v>
       </c>
       <c r="R14">
-        <v>8.6770000000000209</v>
+        <v>3.1699999999999733</v>
       </c>
       <c r="S14">
-        <v>8.4389999999999645</v>
+        <v>3.6329999999999529</v>
       </c>
       <c r="T14">
-        <v>9.5940000000000225</v>
+        <v>3.1730000000000302</v>
       </c>
       <c r="U14">
-        <v>9.8870000000000005</v>
+        <v>3.0539999999999736</v>
       </c>
       <c r="V14">
-        <v>9.4070000000000391</v>
+        <v>5.603999999999985</v>
       </c>
       <c r="W14">
-        <v>9.0432999999999595</v>
+        <v>4.5420000000000016</v>
       </c>
       <c r="X14">
-        <v>8.3729999999999336</v>
+        <v>4.025999999999982</v>
       </c>
       <c r="Y14">
-        <v>8.19399999999996</v>
+        <v>3.3940000000000339</v>
       </c>
       <c r="Z14">
-        <v>6.6492999999999824</v>
+        <v>3.2980661764706269</v>
       </c>
       <c r="AA14">
-        <v>6.1816000000000315</v>
+        <v>3.689419117647077</v>
       </c>
       <c r="AB14">
-        <v>5.016099999999966</v>
+        <v>3.1891601018242</v>
       </c>
       <c r="AC14">
-        <v>4.9645000000000721</v>
+        <v>4.5070099999999229</v>
       </c>
       <c r="AD14">
-        <v>4.9063000000000159</v>
+        <v>5.0583550451948582</v>
       </c>
       <c r="AE14">
-        <v>4.7911000000000286</v>
+        <v>4.487040944725976</v>
       </c>
       <c r="AF14">
-        <v>5.8569000000000244</v>
+        <v>4.2121673344025083</v>
       </c>
       <c r="AG14">
-        <v>6.8522000000000389</v>
+        <v>4.4295174204918339</v>
       </c>
       <c r="AH14">
-        <v>6.753565999999978</v>
+        <v>3.3764898730469213</v>
       </c>
       <c r="AI14">
-        <v>6.4533070000000237</v>
+        <v>2.8595831839843839</v>
       </c>
       <c r="AJ14">
-        <v>4.7051501208199227</v>
+        <v>2.1425004740591049</v>
       </c>
       <c r="AK14">
-        <v>-0.27089318378625016</v>
+        <v>-0.25076476667698677</v>
       </c>
       <c r="AL14">
-        <v>-2.3598053241767003E-2</v>
+        <v>-1.6987388433826633E-2</v>
       </c>
       <c r="AM14">
-        <v>2.0138781582693315E-2</v>
+        <v>9.1702385641149985E-3</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>2.3279999999999959</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>2.3010000000000019</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>2.2880000000000109</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>2.6470000000000056</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2.708999999999989</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.48699999999999477</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.45000000000000284</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.57799999999998875</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.51900000000000546</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.55398999999999887</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.77500000000000568</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.88700000000000045</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.3730000000000331</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>4.9295150000000092</v>
+        <v>1.3599999999996726E-2</v>
       </c>
       <c r="P15">
-        <v>5.0880599999999987</v>
+        <v>7.169999999999277E-2</v>
       </c>
       <c r="Q15">
-        <v>4.7072170000000284</v>
+        <v>5.4200000000008686E-2</v>
       </c>
       <c r="R15">
-        <v>4.8218889999999988</v>
+        <v>4.5900000000017371E-2</v>
       </c>
       <c r="S15">
-        <v>4.7405340000000109</v>
+        <v>4.3699999999986971E-2</v>
       </c>
       <c r="T15">
-        <v>5.6069410000000062</v>
+        <v>3.6899999999974398E-2</v>
       </c>
       <c r="U15">
-        <v>5.6522559999999942</v>
+        <v>2.7999999999991587E-2</v>
       </c>
       <c r="V15">
-        <v>5.7763990000000121</v>
+        <v>8.840000000000714E-2</v>
       </c>
       <c r="W15">
-        <v>5.0010790000000043</v>
+        <v>9.6149999999994407E-2</v>
       </c>
       <c r="X15">
-        <v>5.6508090000000095</v>
+        <v>0.11878740900002072</v>
       </c>
       <c r="Y15">
-        <v>5.3856430000000017</v>
+        <v>7.9604999999986603E-2</v>
       </c>
       <c r="Z15">
-        <v>5.0025190000000066</v>
+        <v>8.8448999999997113E-2</v>
       </c>
       <c r="AA15">
-        <v>6.2308879999999789</v>
+        <v>0.12459599999999682</v>
       </c>
       <c r="AB15">
-        <v>6.3653469999999857</v>
+        <v>0.12635899999997946</v>
       </c>
       <c r="AC15">
-        <v>6.7077859999999987</v>
+        <v>0.12876799999997957</v>
       </c>
       <c r="AD15">
-        <v>5.9812480000000079</v>
+        <v>0.29258300000000759</v>
       </c>
       <c r="AE15">
-        <v>5.9612929999999977</v>
+        <v>0.35005900000001589</v>
       </c>
       <c r="AF15">
-        <v>5.4673169999999942</v>
+        <v>0.5171370000000195</v>
       </c>
       <c r="AG15">
-        <v>5.9088590000000067</v>
+        <v>0.73687000000001035</v>
       </c>
       <c r="AH15">
-        <v>6.0806710000000095</v>
+        <v>0.84820000000001983</v>
       </c>
       <c r="AI15">
-        <v>5.576123999999993</v>
+        <v>0.97338500000003592</v>
       </c>
       <c r="AJ15">
-        <v>4.9877222660407057</v>
+        <v>1.1253303630459754</v>
       </c>
       <c r="AK15">
-        <v>-0.10552163724466812</v>
+        <v>0.156099963576523</v>
       </c>
       <c r="AL15">
-        <v>3.4817675335094833E-3</v>
+        <v>0.28450095139757137</v>
       </c>
       <c r="AM15">
-        <v>2.1348234749505937E-2</v>
+        <v>4.8165907160910397E-3</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>2.1830499999999802</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>2.4110100000000045</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>2.5288699999999835</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2.5204299999999762</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2.2784899999999766</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>2.0989999999999895</v>
+        <v>0.20900000000000318</v>
       </c>
       <c r="H16">
-        <v>2.3410000000000082</v>
+        <v>0.21600000000000819</v>
       </c>
       <c r="I16">
-        <v>2.3760000000000048</v>
+        <v>0.20699999999999363</v>
       </c>
       <c r="J16">
-        <v>2.3919999999999675</v>
+        <v>0.1980000000000075</v>
       </c>
       <c r="K16">
-        <v>2.3590000000000089</v>
+        <v>0.20899999999998897</v>
       </c>
       <c r="L16">
-        <v>2.2609999999999673</v>
+        <v>0.19700000000000273</v>
       </c>
       <c r="M16">
-        <v>2.25</v>
+        <v>0.20099999999999341</v>
       </c>
       <c r="N16">
-        <v>2.2889999999999304</v>
+        <v>0.17600000000000193</v>
       </c>
       <c r="O16">
-        <v>2.0480000000000587</v>
+        <v>0.17599999999998772</v>
       </c>
       <c r="P16">
-        <v>2.1570000000000107</v>
+        <v>0.17600000000000193</v>
       </c>
       <c r="Q16">
-        <v>2.0870000000000175</v>
+        <v>0.17600000000000193</v>
       </c>
       <c r="R16">
-        <v>1.9700000000000273</v>
+        <v>0.16899999999998272</v>
       </c>
       <c r="S16">
-        <v>1.7800000000000011</v>
+        <v>0.16200000000002035</v>
       </c>
       <c r="T16">
-        <v>1.6519999999999868</v>
+        <v>0.15199999999998681</v>
       </c>
       <c r="U16">
-        <v>1.6999999999999886</v>
+        <v>0.13499999999997669</v>
       </c>
       <c r="V16">
-        <v>1.674000000000035</v>
+        <v>0.14200000000001012</v>
       </c>
       <c r="W16">
-        <v>1.0839999999999748</v>
+        <v>0.14799999999998192</v>
       </c>
       <c r="X16">
-        <v>0.68000000000003524</v>
+        <v>0.11599999999998545</v>
       </c>
       <c r="Y16">
-        <v>0.68139999999999645</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.65869999999998186</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.69650000000001455</v>
+        <v>9.9999999999056399E-4</v>
       </c>
       <c r="AB16">
-        <v>0.56499999999999773</v>
+        <v>1.6699999999900683E-3</v>
       </c>
       <c r="AC16">
-        <v>0.53860000000000241</v>
+        <v>0.51417000000000712</v>
       </c>
       <c r="AD16">
-        <v>0.6804000000000201</v>
+        <v>0.66788999999997145</v>
       </c>
       <c r="AE16">
-        <v>0.73999999999995225</v>
+        <v>0.83982999999999208</v>
       </c>
       <c r="AF16">
-        <v>0.79400000000003956</v>
+        <v>2.0426800000000043</v>
       </c>
       <c r="AG16">
-        <v>0.76000000000001933</v>
+        <v>1.7079999999999984</v>
       </c>
       <c r="AH16">
-        <v>0.47400000000001796</v>
+        <v>1.6305897199999961</v>
       </c>
       <c r="AI16">
-        <v>0.69574859244801246</v>
+        <v>0.66436061261990176</v>
       </c>
       <c r="AJ16">
-        <v>0.95996622625932559</v>
+        <v>1.8788032905357213</v>
       </c>
       <c r="AK16">
-        <v>0.37976021321387865</v>
+        <v>1.8279871726992853</v>
       </c>
       <c r="AL16">
-        <v>2.0860600125429674E-3</v>
+        <v>0</v>
       </c>
       <c r="AM16">
-        <v>4.1088062359272834E-3</v>
+        <v>8.0415731981684172E-3</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>1.7539468000000085</v>
+        <v>4.6727898989899188</v>
       </c>
       <c r="C17">
-        <v>0.9336308000000173</v>
+        <v>2.8836898989899282</v>
       </c>
       <c r="D17">
-        <v>0.7924515999999997</v>
+        <v>1.9632000000000005</v>
       </c>
       <c r="E17">
-        <v>1.0010474000000116</v>
+        <v>3.9383898989898967</v>
       </c>
       <c r="F17">
-        <v>0.82445600000001207</v>
+        <v>3.7446999999999377</v>
       </c>
       <c r="G17">
-        <v>0.9000000000000199</v>
+        <v>2.1560000000000343</v>
       </c>
       <c r="H17">
-        <v>1.1409999999999911</v>
+        <v>1.7013999999999783</v>
       </c>
       <c r="I17">
-        <v>2.1499999999999915</v>
+        <v>1.8890000000000384</v>
       </c>
       <c r="J17">
-        <v>1.5290000000000106</v>
+        <v>1.6029000000000337</v>
       </c>
       <c r="K17">
-        <v>1.1800000000000068</v>
+        <v>1.8602999999999952</v>
       </c>
       <c r="L17">
-        <v>1.769999999999996</v>
+        <v>5.5323999999999955</v>
       </c>
       <c r="M17">
-        <v>1.5049999999999955</v>
+        <v>1.9674399999999821</v>
       </c>
       <c r="N17">
-        <v>1.849000000000018</v>
+        <v>1.743060000000014</v>
       </c>
       <c r="O17">
-        <v>2.4359999999999928</v>
+        <v>5.614556505116866</v>
       </c>
       <c r="P17">
-        <v>3.3119999999999976</v>
+        <v>7.7730231731869708</v>
       </c>
       <c r="Q17">
-        <v>2.8439999999999941</v>
+        <v>7.5402911960429719</v>
       </c>
       <c r="R17">
-        <v>3.1699999999999733</v>
+        <v>6.5186087775692272</v>
       </c>
       <c r="S17">
-        <v>3.6329999999999529</v>
+        <v>6.9132576496176057</v>
       </c>
       <c r="T17">
-        <v>3.1730000000000302</v>
+        <v>6.8949459141575744</v>
       </c>
       <c r="U17">
-        <v>3.0539999999999736</v>
+        <v>6.2830783594081936</v>
       </c>
       <c r="V17">
-        <v>5.603999999999985</v>
+        <v>7.1809423614000139</v>
       </c>
       <c r="W17">
-        <v>4.5420000000000016</v>
+        <v>7.863095299136944</v>
       </c>
       <c r="X17">
-        <v>4.025999999999982</v>
+        <v>7.3266796595302708</v>
       </c>
       <c r="Y17">
-        <v>3.3940000000000339</v>
+        <v>7.2184248840129044</v>
       </c>
       <c r="Z17">
-        <v>3.2980661764706269</v>
+        <v>6.8810504653094426</v>
       </c>
       <c r="AA17">
-        <v>3.689419117647077</v>
+        <v>5.6952316244080521</v>
       </c>
       <c r="AB17">
-        <v>3.1891601018242</v>
+        <v>5.7289904741505779</v>
       </c>
       <c r="AC17">
-        <v>4.5070099999999229</v>
+        <v>6.3671729951440739</v>
       </c>
       <c r="AD17">
-        <v>5.0583550451948582</v>
+        <v>6.2959676022974804</v>
       </c>
       <c r="AE17">
-        <v>4.487040944725976</v>
+        <v>6.7746255013634595</v>
       </c>
       <c r="AF17">
-        <v>4.2121673344025083</v>
+        <v>7.3758514323278348</v>
       </c>
       <c r="AG17">
-        <v>4.4295174204918339</v>
+        <v>8.5368640232484552</v>
       </c>
       <c r="AH17">
-        <v>3.3764898730469213</v>
+        <v>8.0373645220623189</v>
       </c>
       <c r="AI17">
-        <v>2.8595831839843839</v>
+        <v>7.8353606541903957</v>
       </c>
       <c r="AJ17">
-        <v>2.1425004740591049</v>
+        <v>7.8115667865881449</v>
       </c>
       <c r="AK17">
-        <v>-0.25076476667698677</v>
+        <v>-3.0367290865578322E-3</v>
       </c>
       <c r="AL17">
-        <v>-1.6987388433826633E-2</v>
+        <v>8.234734122311238E-3</v>
       </c>
       <c r="AM17">
-        <v>9.1702385641149985E-3</v>
+        <v>3.3434732855304995E-2</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>11.474818806291438</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>11.654432155126795</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>11.14536997922297</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>12.190042399477592</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>12.813475884107156</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>10.870370674340293</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.441958740040421</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>12.034538087991377</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>10.659954480274067</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>10.801450971515834</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.044408817848046</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.523539930931593</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>14.733546168059496</v>
       </c>
       <c r="O18">
-        <v>1.3599999999996726E-2</v>
+        <v>15.714561328095726</v>
       </c>
       <c r="P18">
-        <v>7.169999999999277E-2</v>
+        <v>15.398975846503237</v>
       </c>
       <c r="Q18">
-        <v>5.4200000000008686E-2</v>
+        <v>18.726881572856833</v>
       </c>
       <c r="R18">
-        <v>4.5900000000017371E-2</v>
+        <v>17.934927901139787</v>
       </c>
       <c r="S18">
-        <v>4.3699999999986971E-2</v>
+        <v>20.343251970225129</v>
       </c>
       <c r="T18">
-        <v>3.6899999999974398E-2</v>
+        <v>21.739950848972796</v>
       </c>
       <c r="U18">
-        <v>2.7999999999991587E-2</v>
+        <v>22.245731549266242</v>
       </c>
       <c r="V18">
-        <v>8.840000000000714E-2</v>
+        <v>22.493804062777304</v>
       </c>
       <c r="W18">
-        <v>9.6149999999994407E-2</v>
+        <v>23.331966202584514</v>
       </c>
       <c r="X18">
-        <v>0.11878740900002072</v>
+        <v>24.25278968333652</v>
       </c>
       <c r="Y18">
-        <v>7.9604999999986603E-2</v>
+        <v>24.607324917657937</v>
       </c>
       <c r="Z18">
-        <v>8.8448999999997113E-2</v>
+        <v>25.865273883488339</v>
       </c>
       <c r="AA18">
-        <v>0.12459599999999682</v>
+        <v>26.506676922564846</v>
       </c>
       <c r="AB18">
-        <v>0.12635899999997946</v>
+        <v>27.924011556384137</v>
       </c>
       <c r="AC18">
-        <v>0.12876799999997957</v>
+        <v>28.681912415500413</v>
       </c>
       <c r="AD18">
-        <v>0.29258300000000759</v>
+        <v>29.071977812008637</v>
       </c>
       <c r="AE18">
-        <v>0.35005900000001589</v>
+        <v>29.527532794236024</v>
       </c>
       <c r="AF18">
-        <v>0.5171370000000195</v>
+        <v>30.359415606850046</v>
       </c>
       <c r="AG18">
-        <v>0.73687000000001035</v>
+        <v>31.083047256732542</v>
       </c>
       <c r="AH18">
-        <v>0.84820000000001983</v>
+        <v>32.423630144703601</v>
       </c>
       <c r="AI18">
-        <v>0.97338500000003592</v>
+        <v>35.241652386463727</v>
       </c>
       <c r="AJ18">
-        <v>1.1253303630459754</v>
+        <v>27.890952409296712</v>
       </c>
       <c r="AK18">
-        <v>0.156099963576523</v>
+        <v>-0.20857988997106192</v>
       </c>
       <c r="AL18">
-        <v>0.28450095139757137</v>
+        <v>3.6571313761867508E-2</v>
       </c>
       <c r="AM18">
-        <v>4.8165907160910397E-3</v>
+        <v>0.11937765730761422</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>40.303926167281347</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>37.934211498116746</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>35.690072285222982</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>41.002637094467474</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>43.870105989086845</v>
       </c>
       <c r="G19">
-        <v>0.20900000000000318</v>
+        <v>41.472451482421093</v>
       </c>
       <c r="H19">
-        <v>0.21600000000000819</v>
+        <v>37.825479952161707</v>
       </c>
       <c r="I19">
-        <v>0.20699999999999363</v>
+        <v>40.002318896072367</v>
       </c>
       <c r="J19">
-        <v>0.1980000000000075</v>
+        <v>38.398016096435697</v>
       </c>
       <c r="K19">
-        <v>0.20899999999998897</v>
+        <v>38.311223799798611</v>
       </c>
       <c r="L19">
-        <v>0.19700000000000273</v>
+        <v>45.5431724542117</v>
       </c>
       <c r="M19">
-        <v>0.20099999999999341</v>
+        <v>43.866313264264889</v>
       </c>
       <c r="N19">
-        <v>0.17600000000000193</v>
+        <v>46.153606168059483</v>
       </c>
       <c r="O19">
-        <v>0.17599999999998772</v>
+        <v>57.461232833212691</v>
       </c>
       <c r="P19">
-        <v>0.17600000000000193</v>
+        <v>61.797759019690346</v>
       </c>
       <c r="Q19">
-        <v>0.17600000000000193</v>
+        <v>65.396839768899937</v>
       </c>
       <c r="R19">
-        <v>0.16899999999998272</v>
+        <v>64.586825678708962</v>
       </c>
       <c r="S19">
-        <v>0.16200000000002035</v>
+        <v>64.680993619842482</v>
       </c>
       <c r="T19">
-        <v>0.15199999999998681</v>
+        <v>69.155737763130318</v>
       </c>
       <c r="U19">
-        <v>0.13499999999997669</v>
+        <v>70.21186590867427</v>
       </c>
       <c r="V19">
-        <v>0.14200000000001012</v>
+        <v>76.513345424177388</v>
       </c>
       <c r="W19">
-        <v>0.14799999999998192</v>
+        <v>76.510190501721468</v>
       </c>
       <c r="X19">
-        <v>0.11599999999998545</v>
+        <v>77.102665751866695</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>74.272797801670819</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>69.568558525268259</v>
       </c>
       <c r="AA19">
-        <v>9.9999999999056399E-4</v>
+        <v>75.555211664619975</v>
       </c>
       <c r="AB19">
-        <v>1.6699999999900683E-3</v>
+        <v>74.222838132358717</v>
       </c>
       <c r="AC19">
-        <v>0.51417000000000712</v>
+        <v>78.519519410644364</v>
       </c>
       <c r="AD19">
-        <v>0.66788999999997145</v>
+        <v>79.134721459501066</v>
       </c>
       <c r="AE19">
-        <v>0.83982999999999208</v>
+        <v>80.3844812403254</v>
       </c>
       <c r="AF19">
-        <v>2.0426800000000043</v>
+        <v>83.760677063580502</v>
       </c>
       <c r="AG19">
-        <v>1.7079999999999984</v>
+        <v>87.558357700472911</v>
       </c>
       <c r="AH19">
-        <v>1.6305897199999961</v>
+        <v>86.368311259812813</v>
       </c>
       <c r="AI19">
-        <v>0.66436061261990176</v>
+        <v>87.147521432706526</v>
       </c>
       <c r="AJ19">
-        <v>1.8788032905357213</v>
+        <v>77.233335331645549</v>
       </c>
       <c r="AK19">
-        <v>1.8279871726992853</v>
+        <v>-0.11376325956345756</v>
       </c>
       <c r="AL19">
-        <v>0</v>
+        <v>1.6114211737835449E-2</v>
       </c>
       <c r="AM19">
-        <v>8.0415731981684172E-3</v>
+        <v>0.3305708067133632</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="B20">
-        <v>4.6727898989899188</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>2.8836898989899282</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>1.9632000000000005</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>3.9383898989898967</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>3.7446999999999377</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>2.1560000000000343</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1.7013999999999783</v>
+        <v>-7.9740000001038425E-4</v>
       </c>
       <c r="I20">
-        <v>1.8890000000000384</v>
+        <v>-2.6718000000016673E-3</v>
       </c>
       <c r="J20">
-        <v>1.6029000000000337</v>
+        <v>-1.1156000000056565E-3</v>
       </c>
       <c r="K20">
-        <v>1.8602999999999952</v>
+        <v>-4.3256000000013728E-3</v>
       </c>
       <c r="L20">
-        <v>5.5323999999999955</v>
+        <v>-4.8504000000093583E-3</v>
       </c>
       <c r="M20">
-        <v>1.9674399999999821</v>
+        <v>-3.6348000000003822E-3</v>
       </c>
       <c r="N20">
-        <v>1.743060000000014</v>
+        <v>1.9374000000027536E-3</v>
       </c>
       <c r="O20">
-        <v>5.614556505116866</v>
+        <v>-2.4533999999860612E-3</v>
       </c>
       <c r="P20">
-        <v>7.7730231731869708</v>
+        <v>2.127200000010987E-3</v>
       </c>
       <c r="Q20">
-        <v>7.5402911960429719</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>6.5186087775692272</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>6.9132576496176057</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>6.8949459141575744</v>
+        <v>0</v>
       </c>
       <c r="U20">
-        <v>6.2830783594081936</v>
+        <v>0</v>
       </c>
       <c r="V20">
-        <v>7.1809423614000139</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>7.863095299136944</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>7.3266796595302708</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>7.2184248840129044</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>6.8810504653094426</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>5.6952316244080521</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>5.7289904741505779</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>6.3671729951440739</v>
+        <v>-2.0999999975401806E-5</v>
       </c>
       <c r="AD20">
-        <v>6.2959676022974804</v>
+        <v>-7.8740000000721011E-4</v>
       </c>
       <c r="AE20">
-        <v>6.7746255013634595</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>7.3758514323278348</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>8.5368640232484552</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>8.0373645220623189</v>
+        <v>0</v>
       </c>
       <c r="AI20">
-        <v>7.8353606541903957</v>
+        <v>-4.7185534505685922</v>
       </c>
       <c r="AJ20">
-        <v>7.8115667865881449</v>
+        <v>-2.0795684977934314</v>
       </c>
       <c r="AK20">
-        <v>-3.0367290865578322E-3</v>
+        <v>-0.55927838487389803</v>
       </c>
       <c r="AL20">
-        <v>8.234734122311238E-3</v>
+        <v>0</v>
       </c>
       <c r="AM20">
-        <v>3.3434732855304995E-2</v>
+        <v>-8.9008798206025204E-3</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21">
-        <v>11.474818806291438</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>11.654432155126795</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>11.14536997922297</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>12.190042399477592</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>12.813475884107156</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>10.870370674340293</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>11.441958740040421</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>12.034538087991377</v>
+        <v>1.8160955729944135</v>
       </c>
       <c r="J21">
-        <v>10.659954480274067</v>
+        <v>2.6066859304703485</v>
       </c>
       <c r="K21">
-        <v>10.801450971515834</v>
+        <v>2.6095135593050145</v>
       </c>
       <c r="L21">
-        <v>12.044408817848046</v>
+        <v>2.548759492760496</v>
       </c>
       <c r="M21">
-        <v>13.523539930931593</v>
+        <v>2.5414338772256997</v>
       </c>
       <c r="N21">
-        <v>14.733546168059496</v>
+        <v>2.4597467867296245</v>
       </c>
       <c r="O21">
-        <v>15.714561328095726</v>
+        <v>2.4642451210534091</v>
       </c>
       <c r="P21">
-        <v>15.398975846503237</v>
+        <v>2.9240036328365022</v>
       </c>
       <c r="Q21">
-        <v>18.726881572856833</v>
+        <v>3.8140000000000782</v>
       </c>
       <c r="R21">
-        <v>17.934927901139787</v>
+        <v>4.7959990162210033</v>
       </c>
       <c r="S21">
-        <v>20.343251970225129</v>
+        <v>4.7572069138727784</v>
       </c>
       <c r="T21">
-        <v>21.739950848972796</v>
+        <v>3.7242690332629991</v>
       </c>
       <c r="U21">
-        <v>22.245731549266242</v>
+        <v>3.7265110156783976</v>
       </c>
       <c r="V21">
-        <v>22.493804062777304</v>
+        <v>4.5284616583780917</v>
       </c>
       <c r="W21">
-        <v>23.331966202584514</v>
+        <v>4.6102723619726476</v>
       </c>
       <c r="X21">
-        <v>24.25278968333652</v>
+        <v>3.9268779401189704</v>
       </c>
       <c r="Y21">
-        <v>24.607324917657937</v>
+        <v>4.4665982038869743</v>
       </c>
       <c r="Z21">
-        <v>25.865273883488339</v>
+        <v>4.5494261043273809</v>
       </c>
       <c r="AA21">
-        <v>26.506676922564846</v>
+        <v>4.6518250806885817</v>
       </c>
       <c r="AB21">
-        <v>27.924011556384137</v>
+        <v>4.5174609197172231</v>
       </c>
       <c r="AC21">
-        <v>28.681912415500413</v>
+        <v>4.4135745200516112</v>
       </c>
       <c r="AD21">
-        <v>29.071977812008637</v>
+        <v>4.3914261007272444</v>
       </c>
       <c r="AE21">
-        <v>29.527532794236024</v>
+        <v>4.9527033164922614</v>
       </c>
       <c r="AF21">
-        <v>30.359415606850046</v>
+        <v>4.7063626285757891</v>
       </c>
       <c r="AG21">
-        <v>31.083047256732542</v>
+        <v>4.4539190610098558</v>
       </c>
       <c r="AH21">
-        <v>32.423630144703601</v>
+        <v>4.4437440781666737</v>
       </c>
       <c r="AI21">
-        <v>35.241652386463727</v>
+        <v>4.3885367121117724</v>
       </c>
       <c r="AJ21">
-        <v>27.890952409296712</v>
+        <v>4.3063167121116521</v>
       </c>
       <c r="AK21">
-        <v>-0.20857988997106192</v>
+        <v>-1.8735174249130515E-2</v>
       </c>
       <c r="AL21">
-        <v>3.6571313761867508E-2</v>
+        <v>-1.7615708237812555E-3</v>
       </c>
       <c r="AM21">
-        <v>0.11937765730761422</v>
+        <v>1.8431711946314263E-2</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22">
-        <v>40.303926167281347</v>
+        <v>2.0969999999849165E-3</v>
       </c>
       <c r="C22">
-        <v>37.934211498116746</v>
+        <v>2.0969999999920219E-3</v>
       </c>
       <c r="D22">
-        <v>35.690072285222982</v>
+        <v>2.0969999999991273E-3</v>
       </c>
       <c r="E22">
-        <v>41.002637094467474</v>
+        <v>2.0969999999920219E-3</v>
       </c>
       <c r="F22">
-        <v>43.870105989086845</v>
+        <v>2.0969999999920219E-3</v>
       </c>
       <c r="G22">
-        <v>41.472451482421093</v>
+        <v>-0.97863399999999778</v>
       </c>
       <c r="H22">
-        <v>37.825479952161707</v>
+        <v>1.3443999999998013E-3</v>
       </c>
       <c r="I22">
-        <v>40.002318896072367</v>
+        <v>9.6659999999992863E-4</v>
       </c>
       <c r="J22">
-        <v>38.398016096435697</v>
+        <v>-1.7626000000001696E-3</v>
       </c>
       <c r="K22">
-        <v>38.311223799798611</v>
+        <v>-5.7700000000027174E-4</v>
       </c>
       <c r="L22">
-        <v>45.5431724542117</v>
+        <v>-4.461200000000165E-3</v>
       </c>
       <c r="M22">
-        <v>43.866313264264889</v>
+        <v>-2.5085999999996389E-3</v>
       </c>
       <c r="N22">
-        <v>46.153606168059483</v>
+        <v>-1.3905000000000278E-2</v>
       </c>
       <c r="O22">
-        <v>57.461232833212691</v>
+        <v>-1.4842000000006017E-3</v>
       </c>
       <c r="P22">
-        <v>61.797759019690346</v>
+        <v>-3.2245999999989117E-3</v>
       </c>
       <c r="Q22">
-        <v>65.396839768899937</v>
+        <v>-6.3400000000157775E-5</v>
       </c>
       <c r="R22">
-        <v>64.586825678708962</v>
+        <v>1.5786000000002076E-3</v>
       </c>
       <c r="S22">
-        <v>64.680993619842482</v>
+        <v>-2.3146000000000555E-3</v>
       </c>
       <c r="T22">
-        <v>69.155737763130318</v>
+        <v>6.2988000000001598E-3</v>
       </c>
       <c r="U22">
-        <v>70.21186590867427</v>
+        <v>1.8236298989900535E-2</v>
       </c>
       <c r="V22">
-        <v>76.513345424177388</v>
+        <v>1.1103999999990677E-3</v>
       </c>
       <c r="W22">
-        <v>76.510190501721468</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>77.102665751866695</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>74.272797801670819</v>
+        <v>5.0000000000061107E-3</v>
       </c>
       <c r="Z22">
-        <v>69.568558525268259</v>
+        <v>3.4499999999997755E-2</v>
       </c>
       <c r="AA22">
-        <v>75.555211664619975</v>
+        <v>3.7000000000073641E-3</v>
       </c>
       <c r="AB22">
-        <v>74.222838132358717</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AC22">
-        <v>78.519519410644364</v>
+        <v>2.5099999999998346E-2</v>
       </c>
       <c r="AD22">
-        <v>79.134721459501066</v>
+        <v>0.27089999999999392</v>
       </c>
       <c r="AE22">
-        <v>80.3844812403254</v>
+        <v>0.31379999999999342</v>
       </c>
       <c r="AF22">
-        <v>83.760677063580502</v>
+        <v>0.3130999999999986</v>
       </c>
       <c r="AG22">
-        <v>87.558357700472911</v>
+        <v>0.26024999999998855</v>
       </c>
       <c r="AH22">
-        <v>86.368311259812813</v>
+        <v>0.29504999999999937</v>
       </c>
       <c r="AI22">
-        <v>87.147521432706526</v>
+        <v>0.28490000000001525</v>
       </c>
       <c r="AJ22">
-        <v>77.233335331645549</v>
+        <v>8.1100003881221738E-2</v>
       </c>
       <c r="AK22">
-        <v>-0.11376325956345756</v>
+        <v>-0.71533870171562863</v>
       </c>
       <c r="AL22">
-        <v>1.6114211737835449E-2</v>
+        <v>0.49820845792501944</v>
       </c>
       <c r="AM22">
-        <v>0.3305708067133632</v>
+        <v>3.4712075546590476E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>2.0969999999849165E-3</v>
+      </c>
+      <c r="C23">
+        <v>2.0969999999920219E-3</v>
+      </c>
+      <c r="D23">
+        <v>2.0969999999991273E-3</v>
+      </c>
+      <c r="E23">
+        <v>2.0969999999920219E-3</v>
+      </c>
+      <c r="F23">
+        <v>2.0969999999920219E-3</v>
+      </c>
+      <c r="G23">
+        <v>-0.97863399999999778</v>
+      </c>
+      <c r="H23">
+        <v>5.4699999998941706E-4</v>
+      </c>
+      <c r="I23">
+        <v>1.8143903729944117</v>
+      </c>
+      <c r="J23">
+        <v>2.6038077304703426</v>
+      </c>
+      <c r="K23">
+        <v>2.6046109593050129</v>
+      </c>
+      <c r="L23">
+        <v>2.5394478927604864</v>
+      </c>
+      <c r="M23">
+        <v>2.5352904772256997</v>
+      </c>
+      <c r="N23">
+        <v>2.447779186729627</v>
+      </c>
+      <c r="O23">
+        <v>2.4603075210534224</v>
+      </c>
+      <c r="P23">
+        <v>2.9229062328365143</v>
+      </c>
+      <c r="Q23">
+        <v>3.8139366000000781</v>
+      </c>
+      <c r="R23">
+        <v>4.7975776162210035</v>
+      </c>
+      <c r="S23">
+        <v>4.7548923138727783</v>
+      </c>
+      <c r="T23">
+        <v>3.7305678332629992</v>
+      </c>
+      <c r="U23">
+        <v>3.7447473146682979</v>
+      </c>
+      <c r="V23">
+        <v>4.5295720583780907</v>
+      </c>
+      <c r="W23">
+        <v>4.6102723619726476</v>
+      </c>
+      <c r="X23">
+        <v>3.9268779401189704</v>
+      </c>
+      <c r="Y23">
+        <v>4.4715982038869804</v>
+      </c>
+      <c r="Z23">
+        <v>4.5839261043273787</v>
+      </c>
+      <c r="AA23">
+        <v>4.6555250806885891</v>
+      </c>
+      <c r="AB23">
+        <v>4.5274609197172282</v>
+      </c>
+      <c r="AC23">
+        <v>4.4386535200516342</v>
+      </c>
+      <c r="AD23">
+        <v>4.6615387007272311</v>
+      </c>
+      <c r="AE23">
+        <v>5.2665033164922548</v>
+      </c>
+      <c r="AF23">
+        <v>5.0194626285757877</v>
+      </c>
+      <c r="AG23">
+        <v>4.7141690610098443</v>
+      </c>
+      <c r="AH23">
+        <v>4.7387940781666735</v>
+      </c>
+      <c r="AI23">
+        <v>-4.5116738456804306E-2</v>
+      </c>
+      <c r="AJ23">
+        <v>2.3078482181994424</v>
+      </c>
+      <c r="AK23">
+        <v>-52.152815942336431</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>9.8779528811776471E-3</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -65446,31 +65926,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>-7.9740000001038425E-4</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>-2.6718000000016673E-3</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>-1.1156000000056565E-3</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>-4.3256000000013728E-3</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-4.8504000000093583E-3</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>-3.6348000000003822E-3</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.9374000000027536E-3</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>-2.4533999999860612E-3</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>2.127200000010987E-3</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -65509,42 +65989,42 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>-2.0999999975401806E-5</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>-7.8740000000721011E-4</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>-2.0791000000000395</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>-0.75800000000009504</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>0.10382149362476412</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>-0.11167768371944931</v>
       </c>
       <c r="AI24">
-        <v>-4.7185534505685922</v>
+        <v>0</v>
       </c>
       <c r="AJ24">
-        <v>-2.0795684977934314</v>
+        <v>0</v>
       </c>
       <c r="AK24">
-        <v>-0.55927838487389803</v>
+        <v>0</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>-8.9008798206025204E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -65568,165 +66048,165 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.8160955729944135</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2.6066859304703485</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.6095135593050145</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.548759492760496</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>2.5414338772256997</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.4597467867296245</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.4642451210534091</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>2.9240036328365022</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>3.8140000000000782</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>4.7959990162210033</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>4.7572069138727784</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>3.7242690332629991</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>3.7265110156783976</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>4.5284616583780917</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>4.6102723619726476</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>3.9268779401189704</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>4.4665982038869743</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>4.5494261043273809</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>4.6518250806885817</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>4.5174609197172231</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>4.4135745200516112</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>4.3914261007272444</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>4.9527033164922614</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>4.7063626285757891</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>4.4539190610098558</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>4.4437440781666737</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>4.3885367121117724</v>
+        <v>0</v>
       </c>
       <c r="AJ25">
-        <v>4.3063167121116521</v>
+        <v>0</v>
       </c>
       <c r="AK25">
-        <v>-1.8735174249130515E-2</v>
+        <v>0</v>
       </c>
       <c r="AL25">
-        <v>-1.7615708237812555E-3</v>
+        <v>0</v>
       </c>
       <c r="AM25">
-        <v>1.8431711946314263E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B26">
-        <v>2.0969999999849165E-3</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>2.0969999999920219E-3</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>2.0969999999991273E-3</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>2.0969999999920219E-3</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2.0969999999920219E-3</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>-0.97863399999999778</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1.3443999999998013E-3</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>9.6659999999992863E-4</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>-1.7626000000001696E-3</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>-5.7700000000027174E-4</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>-4.461200000000165E-3</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>-2.5085999999996389E-3</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-1.3905000000000278E-2</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>-1.4842000000006017E-3</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>-3.2245999999989117E-3</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-6.3400000000157775E-5</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.5786000000002076E-3</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>-2.3146000000000555E-3</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>6.2988000000001598E-3</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1.8236298989900535E-2</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>1.1103999999990677E-3</v>
+        <v>0</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -65735,173 +66215,292 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>5.0000000000061107E-3</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>3.4499999999997755E-2</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>3.7000000000073641E-3</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>1.0000000000005116E-2</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>2.5099999999998346E-2</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>0.27089999999999392</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.31379999999999342</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>0.3130999999999986</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>0.26024999999998855</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>0.29504999999999937</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>0.28490000000001525</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>8.1100003881221738E-2</v>
+        <v>0</v>
       </c>
       <c r="AK26">
-        <v>-0.71533870171562863</v>
+        <v>0</v>
       </c>
       <c r="AL26">
-        <v>0.49820845792501944</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>3.4712075546590476E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B27">
-        <v>2.0969999999849165E-3</v>
+        <v>5.3000000000000047E-2</v>
       </c>
       <c r="C27">
-        <v>2.0969999999920219E-3</v>
+        <v>0.13619999999999943</v>
       </c>
       <c r="D27">
-        <v>2.0969999999991273E-3</v>
+        <v>0.14809699999999992</v>
       </c>
       <c r="E27">
-        <v>2.0969999999920219E-3</v>
+        <v>5.6596999999998676E-2</v>
       </c>
       <c r="F27">
-        <v>2.0969999999920219E-3</v>
+        <v>0.18955819999999601</v>
       </c>
       <c r="G27">
-        <v>-0.97863399999999778</v>
+        <v>2.258199999999988E-3</v>
       </c>
       <c r="H27">
-        <v>5.4699999998941706E-4</v>
+        <v>6.2581999999999915E-3</v>
       </c>
       <c r="I27">
-        <v>1.8143903729944117</v>
+        <v>-1.7418000000004596E-3</v>
       </c>
       <c r="J27">
-        <v>2.6038077304703426</v>
+        <v>9.6999999999347608E-5</v>
       </c>
       <c r="K27">
-        <v>2.6046109593050129</v>
+        <v>-7.4179999999923751E-4</v>
       </c>
       <c r="L27">
-        <v>2.5394478927604864</v>
+        <v>4.0970000000006834E-3</v>
       </c>
       <c r="M27">
-        <v>2.5352904772256997</v>
+        <v>9.6999999999347608E-5</v>
       </c>
       <c r="N27">
-        <v>2.447779186729627</v>
+        <v>-3.7418000000002394E-3</v>
       </c>
       <c r="O27">
-        <v>2.4603075210534224</v>
+        <v>4.0258200000005573E-2</v>
       </c>
       <c r="P27">
-        <v>2.9229062328365143</v>
+        <v>0.11225819999999942</v>
       </c>
       <c r="Q27">
-        <v>3.8139366000000781</v>
+        <v>0.11577460000000572</v>
       </c>
       <c r="R27">
-        <v>4.7975776162210035</v>
+        <v>6.3194000000003303E-2</v>
       </c>
       <c r="S27">
-        <v>4.7548923138727783</v>
+        <v>7.7032800000006674E-2</v>
       </c>
       <c r="T27">
-        <v>3.7305678332629992</v>
+        <v>6.7774600000005236E-2</v>
       </c>
       <c r="U27">
-        <v>3.7447473146682979</v>
+        <v>0.10203279999999637</v>
       </c>
       <c r="V27">
-        <v>4.5295720583780907</v>
+        <v>0.11245219999999989</v>
       </c>
       <c r="W27">
-        <v>4.6102723619726476</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>3.9268779401189704</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>4.4715982038869804</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>4.5839261043273787</v>
+        <v>2.0000000000024443E-3</v>
       </c>
       <c r="AA27">
-        <v>4.6555250806885891</v>
+        <v>5.4000000000002046E-2</v>
       </c>
       <c r="AB27">
-        <v>4.5274609197172282</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>4.4386535200516342</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>4.6615387007272311</v>
+        <v>1.7999999997186933E-5</v>
       </c>
       <c r="AE27">
-        <v>5.2665033164922548</v>
+        <v>2.2200000000793807E-4</v>
       </c>
       <c r="AF27">
-        <v>5.0194626285757877</v>
+        <v>2.2099999999909414E-3</v>
       </c>
       <c r="AG27">
-        <v>4.7141690610098443</v>
+        <v>3.0000000000001137E-3</v>
       </c>
       <c r="AH27">
-        <v>4.7387940781666735</v>
+        <v>0</v>
       </c>
       <c r="AI27">
-        <v>-4.5116738456804306E-2</v>
+        <v>0</v>
       </c>
       <c r="AJ27">
-        <v>2.3078482181994424</v>
+        <v>0</v>
       </c>
       <c r="AK27">
-        <v>-52.152815942336431</v>
+        <v>0</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>9.8779528811776471E-3</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>5.3000000000000047E-2</v>
+      </c>
+      <c r="C28">
+        <v>0.13619999999999943</v>
+      </c>
+      <c r="D28">
+        <v>0.14809699999999992</v>
+      </c>
+      <c r="E28">
+        <v>5.6596999999998676E-2</v>
+      </c>
+      <c r="F28">
+        <v>0.18955819999999601</v>
+      </c>
+      <c r="G28">
+        <v>2.258199999999988E-3</v>
+      </c>
+      <c r="H28">
+        <v>6.2581999999999915E-3</v>
+      </c>
+      <c r="I28">
+        <v>-1.7418000000004596E-3</v>
+      </c>
+      <c r="J28">
+        <v>9.6999999999347608E-5</v>
+      </c>
+      <c r="K28">
+        <v>-7.4179999999923751E-4</v>
+      </c>
+      <c r="L28">
+        <v>4.0970000000006834E-3</v>
+      </c>
+      <c r="M28">
+        <v>9.6999999999347608E-5</v>
+      </c>
+      <c r="N28">
+        <v>-3.7418000000002394E-3</v>
+      </c>
+      <c r="O28">
+        <v>4.0258200000005573E-2</v>
+      </c>
+      <c r="P28">
+        <v>0.11225819999999942</v>
+      </c>
+      <c r="Q28">
+        <v>0.11577460000000572</v>
+      </c>
+      <c r="R28">
+        <v>6.3194000000003303E-2</v>
+      </c>
+      <c r="S28">
+        <v>7.7032800000006674E-2</v>
+      </c>
+      <c r="T28">
+        <v>6.7774600000005236E-2</v>
+      </c>
+      <c r="U28">
+        <v>0.10203279999999637</v>
+      </c>
+      <c r="V28">
+        <v>0.11245219999999989</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>2.0000000000024443E-3</v>
+      </c>
+      <c r="AA28">
+        <v>5.4000000000002046E-2</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>1.7999999997186933E-5</v>
+      </c>
+      <c r="AE28">
+        <v>-2.0788780000000315</v>
+      </c>
+      <c r="AF28">
+        <v>-0.7557900000001041</v>
+      </c>
+      <c r="AG28">
+        <v>0.10682149362476423</v>
+      </c>
+      <c r="AH28">
+        <v>-0.11167768371944931</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -65991,16 +66590,16 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>-2.0791000000000395</v>
+        <v>0</v>
       </c>
       <c r="AF29">
-        <v>-0.75800000000009504</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>0.10382149362476412</v>
+        <v>-0.30507699999998295</v>
       </c>
       <c r="AH29">
-        <v>-0.11167768371944931</v>
+        <v>0</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -66020,483 +66619,602 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2.1070000000000277</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1.785000000000025</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1.7740000000000009</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1.4029999999999916</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1.0390000000000157</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1.8409999999999798</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1.804000000000002</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1.3329999999999984</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1.3450000000000273</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1.5169999999999959</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>1.2739999999999725</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>2.2199999999999989</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2.6080000000000041</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>2.4199999999999875</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>2.5900000000000034</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.83299999999997</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.9269999999999925</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>2.0109999999999957</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2.9809999999999661</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>3.6750000000000398</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>2.8669999999999902</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>2.9470000000000027</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>2.9790000000000134</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>2.7720000000000766</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>2.7420000000000186</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>2.953000000000003</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>2.9620000000000175</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>3.0059999999999434</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2.8810000000000286</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>3.1070000000000562</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>2.9189999999999827</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>3.2940000000000111</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>4.4790000000000703</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>4.5900000000000034</v>
       </c>
       <c r="AJ30">
-        <v>0</v>
+        <v>4.5900000000000603</v>
       </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>5.1724391025938843E-2</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1.9645920978278029E-2</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>0.10873684210526312</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>0.10589473684210601</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>0.10899999999999997</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>0.10905263157894712</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.12910526315789539</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.16521052631578928</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1.0410526315789675E-2</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>7.1105263157889287E-3</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>4.2105263157894701E-3</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>4.2105263157894701E-3</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>4.3157894736842034E-3</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>4.3157894736842034E-3</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>4.3157894736842034E-3</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>3.00000000000053E-3</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>4.2105263157894701E-3</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-1.3693225315789475</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>-2.4350221052631578</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>-3.1460000258904839</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>-3.3665712376021948</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>-4.2952264088904792</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>-3.5806794538565305</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>-3.4363511779957481</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>-3.8238888179957469</v>
       </c>
       <c r="Y31">
-        <v>0</v>
+        <v>-2.815299531379305</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>-1.4371316429957497</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>0.34680883200425461</v>
       </c>
       <c r="AB31">
-        <v>0</v>
+        <v>2.3244508320042558</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>0.41102003369370482</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>0.50394612600425404</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>0.53941076860425263</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>0.4091818421052581</v>
       </c>
       <c r="AG31">
-        <v>0</v>
+        <v>0.46483454030280885</v>
       </c>
       <c r="AH31">
-        <v>0</v>
+        <v>0.43569317020974213</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>0.34021941629465779</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>-1.8020469883011683</v>
       </c>
       <c r="AK31">
-        <v>0</v>
+        <v>-6.2967200047761187</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>0</v>
+        <v>-7.7130441680410026E-3</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B32">
-        <v>5.3000000000000047E-2</v>
+        <v>2.215736842105291</v>
       </c>
       <c r="C32">
-        <v>0.13619999999999943</v>
+        <v>1.8908947368421309</v>
       </c>
       <c r="D32">
-        <v>0.14809699999999992</v>
+        <v>1.8830000000000009</v>
       </c>
       <c r="E32">
-        <v>5.6596999999998676E-2</v>
+        <v>1.5120526315789387</v>
       </c>
       <c r="F32">
-        <v>0.18955819999999601</v>
+        <v>1.1681052631579112</v>
       </c>
       <c r="G32">
-        <v>2.258199999999988E-3</v>
+        <v>2.006210526315769</v>
       </c>
       <c r="H32">
-        <v>6.2581999999999915E-3</v>
+        <v>1.8144105263157917</v>
       </c>
       <c r="I32">
-        <v>-1.7418000000004596E-3</v>
+        <v>1.3401105263157873</v>
       </c>
       <c r="J32">
-        <v>9.6999999999347608E-5</v>
+        <v>1.3492105263158167</v>
       </c>
       <c r="K32">
-        <v>-7.4179999999923751E-4</v>
+        <v>1.5212105263157853</v>
       </c>
       <c r="L32">
-        <v>4.0970000000006834E-3</v>
+        <v>1.2783157894736568</v>
       </c>
       <c r="M32">
-        <v>9.6999999999347608E-5</v>
+        <v>2.2243157894736831</v>
       </c>
       <c r="N32">
-        <v>-3.7418000000002394E-3</v>
+        <v>2.6123157894736884</v>
       </c>
       <c r="O32">
-        <v>4.0258200000005573E-2</v>
+        <v>2.4229999999999881</v>
       </c>
       <c r="P32">
-        <v>0.11225819999999942</v>
+        <v>2.5942105263157931</v>
       </c>
       <c r="Q32">
-        <v>0.11577460000000572</v>
+        <v>1.4636774684210223</v>
       </c>
       <c r="R32">
-        <v>6.3194000000003303E-2</v>
+        <v>-0.50802210526316527</v>
       </c>
       <c r="S32">
-        <v>7.7032800000006674E-2</v>
+        <v>-1.1350000258904878</v>
       </c>
       <c r="T32">
-        <v>6.7774600000005236E-2</v>
+        <v>-0.38557123760222867</v>
       </c>
       <c r="U32">
-        <v>0.10203279999999637</v>
+        <v>-0.62022640889043945</v>
       </c>
       <c r="V32">
-        <v>0.11245219999999989</v>
+        <v>-0.7136794538565403</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>-0.48935117799574535</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>-0.84488881799573345</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>-4.3299531379228373E-2</v>
       </c>
       <c r="Z32">
-        <v>2.0000000000024443E-3</v>
+        <v>1.3048683570042685</v>
       </c>
       <c r="AA32">
-        <v>5.4000000000002046E-2</v>
+        <v>3.2998088320042576</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>5.2864508320042738</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>3.4170200336936483</v>
       </c>
       <c r="AD32">
-        <v>1.7999999997186933E-5</v>
+        <v>3.3849461260042832</v>
       </c>
       <c r="AE32">
-        <v>2.2200000000793807E-4</v>
+        <v>3.646410768604309</v>
       </c>
       <c r="AF32">
-        <v>2.2099999999909414E-3</v>
+        <v>3.3281818421052405</v>
       </c>
       <c r="AG32">
-        <v>3.0000000000001137E-3</v>
+        <v>3.4537575403028371</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>4.9146931702098122</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>4.9302194162946611</v>
       </c>
       <c r="AJ32">
-        <v>0</v>
+        <v>2.787953011698892</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>-0.43451745727897106</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>1.1932876810237027E-2</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B33">
-        <v>5.3000000000000047E-2</v>
+        <v>3.7344894000000011</v>
       </c>
       <c r="C33">
-        <v>0.13619999999999943</v>
+        <v>4.8992012000000216</v>
       </c>
       <c r="D33">
-        <v>0.14809699999999992</v>
+        <v>4.5952039999999954</v>
       </c>
       <c r="E33">
-        <v>5.6596999999998676E-2</v>
+        <v>5.1485563999999755</v>
       </c>
       <c r="F33">
-        <v>0.18955819999999601</v>
+        <v>4.6573309999999992</v>
       </c>
       <c r="G33">
-        <v>2.258199999999988E-3</v>
+        <v>0.73199999999999932</v>
       </c>
       <c r="H33">
-        <v>6.2581999999999915E-3</v>
+        <v>0.28200000000003911</v>
       </c>
       <c r="I33">
-        <v>-1.7418000000004596E-3</v>
+        <v>0.41900000000001114</v>
       </c>
       <c r="J33">
-        <v>9.6999999999347608E-5</v>
+        <v>0.41399999999998727</v>
       </c>
       <c r="K33">
-        <v>-7.4179999999923751E-4</v>
+        <v>0.29399999999998272</v>
       </c>
       <c r="L33">
-        <v>4.0970000000006834E-3</v>
+        <v>0.35399999999998499</v>
       </c>
       <c r="M33">
-        <v>9.6999999999347608E-5</v>
+        <v>0.32300000000003593</v>
       </c>
       <c r="N33">
-        <v>-3.7418000000002394E-3</v>
+        <v>0.34000000000000341</v>
       </c>
       <c r="O33">
-        <v>4.0258200000005573E-2</v>
+        <v>0.35000000000002274</v>
       </c>
       <c r="P33">
-        <v>0.11225819999999942</v>
+        <v>0.36000000000004206</v>
       </c>
       <c r="Q33">
-        <v>0.11577460000000572</v>
+        <v>0.36000000000001364</v>
       </c>
       <c r="R33">
-        <v>6.3194000000003303E-2</v>
+        <v>0.36999999999997613</v>
       </c>
       <c r="S33">
-        <v>7.7032800000006674E-2</v>
+        <v>1.073099999999954</v>
       </c>
       <c r="T33">
-        <v>6.7774600000005236E-2</v>
+        <v>2.0046000000000106</v>
       </c>
       <c r="U33">
-        <v>0.10203279999999637</v>
+        <v>1.4105000000000132</v>
       </c>
       <c r="V33">
-        <v>0.11245219999999989</v>
+        <v>0.83049999999997226</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>0.82600000000005025</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>0.53049999999996089</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>1.990949999999998</v>
       </c>
       <c r="Z33">
-        <v>2.0000000000024443E-3</v>
+        <v>3.3524579699178219</v>
       </c>
       <c r="AA33">
-        <v>5.4000000000002046E-2</v>
+        <v>2.9005517201790383</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>2.0151034299012451</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1.6207000000000278</v>
       </c>
       <c r="AD33">
-        <v>1.7999999997186933E-5</v>
+        <v>1.1266500000000121</v>
       </c>
       <c r="AE33">
-        <v>-2.0788780000000315</v>
+        <v>8.2999999999969987E-2</v>
       </c>
       <c r="AF33">
-        <v>-0.7557900000001041</v>
+        <v>0.1209999999999809</v>
       </c>
       <c r="AG33">
-        <v>0.10682149362476423</v>
+        <v>0.29700000000002547</v>
       </c>
       <c r="AH33">
-        <v>-0.11167768371944931</v>
+        <v>0.24799999999999045</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>0.13602900695801168</v>
       </c>
       <c r="AJ33">
-        <v>0</v>
+        <v>0.13602900695806852</v>
       </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>-0.23535981646861792</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>5.8222551665616806E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2.4220000000241271E-4</v>
+      </c>
+      <c r="K34">
+        <v>4.7960000001694425E-3</v>
+      </c>
+      <c r="L34">
+        <v>9.3760000004294852E-4</v>
+      </c>
+      <c r="M34">
+        <v>2.9529999999340362E-3</v>
+      </c>
+      <c r="N34">
+        <v>2.5021999998671163E-3</v>
+      </c>
+      <c r="O34">
+        <v>2.3053999998410291E-3</v>
+      </c>
+      <c r="P34">
+        <v>1.8302000000858243E-3</v>
+      </c>
+      <c r="Q34">
+        <v>3.6872000000585103E-3</v>
+      </c>
+      <c r="R34">
+        <v>2.3075999999946362E-3</v>
+      </c>
+      <c r="S34">
+        <v>6.127800000285788E-3</v>
+      </c>
+      <c r="T34">
+        <v>7.8945999998722982E-3</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>19.85185999999976</v>
+      </c>
+      <c r="AB34">
+        <v>21.668999999999869</v>
+      </c>
+      <c r="AC34">
+        <v>20.279889999999796</v>
+      </c>
+      <c r="AD34">
+        <v>22.982726600001115</v>
+      </c>
+      <c r="AE34">
+        <v>26.14632999999958</v>
+      </c>
+      <c r="AF34">
+        <v>26.783590000001823</v>
+      </c>
+      <c r="AG34">
+        <v>42.193499999999403</v>
+      </c>
+      <c r="AH34">
+        <v>46.185795999999755</v>
+      </c>
+      <c r="AI34">
+        <v>49.791633445657681</v>
+      </c>
+      <c r="AJ34">
+        <v>56.526132637099181</v>
+      </c>
+      <c r="AK34">
+        <v>0.1352536304877705</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+      <c r="AM34">
+        <v>0.24194072657867072</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -66586,515 +67304,634 @@
         <v>0</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>0.20679999999970278</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>0.13768499999946471</v>
       </c>
       <c r="AG35">
-        <v>-0.30507699999998295</v>
+        <v>0.10410499999989042</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>0.17456500000002961</v>
       </c>
       <c r="AI35">
-        <v>0</v>
+        <v>0.20623000000023239</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>0.1915049999997791</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>-7.1400863116116486E-2</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35">
-        <v>0</v>
+        <v>8.1967148081497714E-4</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B36">
-        <v>2.1070000000000277</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1.785000000000025</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1.7740000000000009</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1.4029999999999916</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1.0390000000000157</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1.8409999999999798</v>
+        <v>2.0000000000024443E-3</v>
       </c>
       <c r="H36">
-        <v>1.804000000000002</v>
+        <v>1.9999999999917861E-3</v>
       </c>
       <c r="I36">
-        <v>1.3329999999999984</v>
+        <v>2.0000000000024443E-3</v>
       </c>
       <c r="J36">
-        <v>1.3450000000000273</v>
+        <v>1.9999999999953388E-3</v>
       </c>
       <c r="K36">
-        <v>1.5169999999999959</v>
+        <v>2.1500000000074238E-3</v>
       </c>
       <c r="L36">
-        <v>1.2739999999999725</v>
+        <v>2.5000000000048317E-3</v>
       </c>
       <c r="M36">
-        <v>2.2199999999999989</v>
+        <v>2.4999999999906208E-3</v>
       </c>
       <c r="N36">
-        <v>2.6080000000000041</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="O36">
-        <v>2.4199999999999875</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="P36">
-        <v>2.5900000000000034</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="Q36">
-        <v>2.83299999999997</v>
+        <v>2.9999999999859028E-3</v>
       </c>
       <c r="R36">
-        <v>1.9269999999999925</v>
+        <v>3.9999999999764668E-3</v>
       </c>
       <c r="S36">
-        <v>2.0109999999999957</v>
+        <v>5.5000000000120508E-3</v>
       </c>
       <c r="T36">
-        <v>2.9809999999999661</v>
+        <v>7.4999999999931788E-3</v>
       </c>
       <c r="U36">
-        <v>3.6750000000000398</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="V36">
-        <v>2.8669999999999902</v>
+        <v>1.099999999999568E-2</v>
       </c>
       <c r="W36">
-        <v>2.9470000000000027</v>
+        <v>1.6000000000005343E-2</v>
       </c>
       <c r="X36">
-        <v>2.9790000000000134</v>
+        <v>1.8000000000014893E-2</v>
       </c>
       <c r="Y36">
-        <v>2.7720000000000766</v>
+        <v>2.756499999998141E-2</v>
       </c>
       <c r="Z36">
-        <v>2.7420000000000186</v>
+        <v>3.1295000000000073E-2</v>
       </c>
       <c r="AA36">
-        <v>2.953000000000003</v>
+        <v>4.7359999999969205E-2</v>
       </c>
       <c r="AB36">
-        <v>2.9620000000000175</v>
+        <v>0.10842999999999847</v>
       </c>
       <c r="AC36">
-        <v>3.0059999999999434</v>
+        <v>0.13431500000001506</v>
       </c>
       <c r="AD36">
-        <v>2.8810000000000286</v>
+        <v>9.2149999999975307E-2</v>
       </c>
       <c r="AE36">
-        <v>3.1070000000000562</v>
+        <v>0.12038499999999885</v>
       </c>
       <c r="AF36">
-        <v>2.9189999999999827</v>
+        <v>0.24022499999998104</v>
       </c>
       <c r="AG36">
-        <v>3.2940000000000111</v>
+        <v>0.29500500000000329</v>
       </c>
       <c r="AH36">
-        <v>4.4790000000000703</v>
+        <v>0.29522000000000048</v>
       </c>
       <c r="AI36">
-        <v>4.5900000000000034</v>
+        <v>0.31123000000002321</v>
       </c>
       <c r="AJ36">
-        <v>4.5900000000000603</v>
+        <v>0.31139917984742738</v>
       </c>
       <c r="AK36">
-        <v>0</v>
+        <v>5.4358463966885928E-4</v>
       </c>
       <c r="AL36">
-        <v>5.1724391025938843E-2</v>
+        <v>0.27430194385494011</v>
       </c>
       <c r="AM36">
-        <v>1.9645920978278029E-2</v>
+        <v>1.3328374030464197E-3</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B37">
-        <v>0.10873684210526312</v>
+        <v>5.5640000000000214</v>
       </c>
       <c r="C37">
-        <v>0.10589473684210601</v>
+        <v>5.921000000000106</v>
       </c>
       <c r="D37">
-        <v>0.10899999999999997</v>
+        <v>6.7360000000000468</v>
       </c>
       <c r="E37">
-        <v>0.10905263157894712</v>
+        <v>6.3740000000000805</v>
       </c>
       <c r="F37">
-        <v>0.12910526315789539</v>
+        <v>6.9159999999999968</v>
       </c>
       <c r="G37">
-        <v>0.16521052631578928</v>
+        <v>8.9400000000001683</v>
       </c>
       <c r="H37">
-        <v>1.0410526315789675E-2</v>
+        <v>11.17899999999986</v>
       </c>
       <c r="I37">
-        <v>7.1105263157889287E-3</v>
+        <v>9.57000000000005</v>
       </c>
       <c r="J37">
-        <v>4.2105263157894701E-3</v>
+        <v>12.889999999999986</v>
       </c>
       <c r="K37">
-        <v>4.2105263157894701E-3</v>
+        <v>11.197000000000116</v>
       </c>
       <c r="L37">
-        <v>4.3157894736842034E-3</v>
+        <v>12.423000000000116</v>
       </c>
       <c r="M37">
-        <v>4.3157894736842034E-3</v>
+        <v>12.259999999999991</v>
       </c>
       <c r="N37">
-        <v>4.3157894736842034E-3</v>
+        <v>13.976999999999975</v>
       </c>
       <c r="O37">
-        <v>3.00000000000053E-3</v>
+        <v>13.550999999999817</v>
       </c>
       <c r="P37">
-        <v>4.2105263157894701E-3</v>
+        <v>11.836000000000126</v>
       </c>
       <c r="Q37">
-        <v>-1.3693225315789475</v>
+        <v>12.444000000000074</v>
       </c>
       <c r="R37">
-        <v>-2.4350221052631578</v>
+        <v>12.371999999999957</v>
       </c>
       <c r="S37">
-        <v>-3.1460000258904839</v>
+        <v>11.237000000000194</v>
       </c>
       <c r="T37">
-        <v>-3.3665712376021948</v>
+        <v>10.536999999999807</v>
       </c>
       <c r="U37">
-        <v>-4.2952264088904792</v>
+        <v>10.52599999999984</v>
       </c>
       <c r="V37">
-        <v>-3.5806794538565305</v>
+        <v>9.6359999999998536</v>
       </c>
       <c r="W37">
-        <v>-3.4363511779957481</v>
+        <v>9.2129999999998518</v>
       </c>
       <c r="X37">
-        <v>-3.8238888179957469</v>
+        <v>10.833999999999833</v>
       </c>
       <c r="Y37">
-        <v>-2.815299531379305</v>
+        <v>6.8000000000000682</v>
       </c>
       <c r="Z37">
-        <v>-1.4371316429957497</v>
+        <v>5.8599999999999</v>
       </c>
       <c r="AA37">
-        <v>0.34680883200425461</v>
+        <v>9.6650000000000773</v>
       </c>
       <c r="AB37">
-        <v>2.3244508320042558</v>
+        <v>10.132999999999925</v>
       </c>
       <c r="AC37">
-        <v>0.41102003369370482</v>
+        <v>10.23928350000017</v>
       </c>
       <c r="AD37">
-        <v>0.50394612600425404</v>
+        <v>8.6840888493001103</v>
       </c>
       <c r="AE37">
-        <v>0.53941076860425263</v>
+        <v>6.5716687477499818</v>
       </c>
       <c r="AF37">
-        <v>0.4091818421052581</v>
+        <v>7.3560000804501442</v>
       </c>
       <c r="AG37">
-        <v>0.46483454030280885</v>
+        <v>46.756246765790365</v>
       </c>
       <c r="AH37">
-        <v>0.43569317020974213</v>
+        <v>49.589577540086793</v>
       </c>
       <c r="AI37">
-        <v>0.34021941629465779</v>
+        <v>53.250163475845056</v>
       </c>
       <c r="AJ37">
-        <v>-1.8020469883011683</v>
+        <v>42.342043633619824</v>
       </c>
       <c r="AK37">
-        <v>-6.2967200047761187</v>
+        <v>-0.20484669210777717</v>
       </c>
       <c r="AL37">
-        <v>0</v>
+        <v>0.22851709255644592</v>
       </c>
       <c r="AM37">
-        <v>-7.7130441680410026E-3</v>
+        <v>0.18123059766555216</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B38">
-        <v>2.215736842105291</v>
+        <v>-3.5417508417506127E-2</v>
       </c>
       <c r="C38">
-        <v>1.8908947368421309</v>
+        <v>-3.8606060606060311E-2</v>
       </c>
       <c r="D38">
-        <v>1.8830000000000009</v>
+        <v>-4.6858585858588597E-2</v>
       </c>
       <c r="E38">
-        <v>1.5120526315789387</v>
+        <v>-5.393378226711576E-2</v>
       </c>
       <c r="F38">
-        <v>1.1681052631579112</v>
+        <v>-4.9567901234567557E-2</v>
       </c>
       <c r="G38">
-        <v>2.006210526315769</v>
+        <v>-3.768911335577485E-2</v>
       </c>
       <c r="H38">
-        <v>1.8144105263157917</v>
+        <v>-4.1315375982041047E-2</v>
       </c>
       <c r="I38">
-        <v>1.3401105263157873</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>1.3492105263158167</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1.5212105263157853</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>1.2783157894736568</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>2.2243157894736831</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>2.6123157894736884</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>2.4229999999999881</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>2.5942105263157931</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1.4636774684210223</v>
+        <v>-0.57090300000000127</v>
       </c>
       <c r="R38">
-        <v>-0.50802210526316527</v>
+        <v>-0.57409399999998811</v>
       </c>
       <c r="S38">
-        <v>-1.1350000258904878</v>
+        <v>0.27763999999999101</v>
       </c>
       <c r="T38">
-        <v>-0.38557123760222867</v>
+        <v>0.55069999999999197</v>
       </c>
       <c r="U38">
-        <v>-0.62022640889043945</v>
+        <v>0.61800000000000921</v>
       </c>
       <c r="V38">
-        <v>-0.7136794538565403</v>
+        <v>0.36199999999998056</v>
       </c>
       <c r="W38">
-        <v>-0.48935117799574535</v>
+        <v>0.74505599999997685</v>
       </c>
       <c r="X38">
-        <v>-0.84488881799573345</v>
+        <v>0.30733800000000144</v>
       </c>
       <c r="Y38">
-        <v>-4.3299531379228373E-2</v>
+        <v>0.2052890000000076</v>
       </c>
       <c r="Z38">
-        <v>1.3048683570042685</v>
+        <v>0.16989000000000942</v>
       </c>
       <c r="AA38">
-        <v>3.2998088320042576</v>
+        <v>0.25815999999998951</v>
       </c>
       <c r="AB38">
-        <v>5.2864508320042738</v>
+        <v>3.7895700000021293E-2</v>
       </c>
       <c r="AC38">
-        <v>3.4170200336936483</v>
+        <v>8.7306499999982634E-2</v>
       </c>
       <c r="AD38">
-        <v>3.3849461260042832</v>
+        <v>7.3140000000009309E-2</v>
       </c>
       <c r="AE38">
-        <v>3.646410768604309</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>3.3281818421052405</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>3.4537575403028371</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>4.9146931702098122</v>
+        <v>1.0000000000047748E-3</v>
       </c>
       <c r="AI38">
-        <v>4.9302194162946611</v>
+        <v>0</v>
       </c>
       <c r="AJ38">
-        <v>2.787953011698892</v>
+        <v>0</v>
       </c>
       <c r="AK38">
-        <v>-0.43451745727897106</v>
+        <v>0</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AM38">
-        <v>1.1932876810237027E-2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39">
+        <v>0.47411400000000015</v>
+      </c>
+      <c r="C39">
+        <v>0.90950099999998457</v>
+      </c>
+      <c r="D39">
+        <v>1.378824999999992</v>
+      </c>
+      <c r="E39">
+        <v>1.5788440000000108</v>
+      </c>
+      <c r="F39">
+        <v>1.5939800000000091</v>
+      </c>
+      <c r="G39">
+        <v>1.6792854399185373</v>
+      </c>
+      <c r="H39">
+        <v>1.5671492249773564</v>
+      </c>
+      <c r="I39">
+        <v>1.7738540191295868</v>
+      </c>
+      <c r="J39">
+        <v>1.784234883476671</v>
+      </c>
+      <c r="K39">
+        <v>1.758273280146895</v>
+      </c>
+      <c r="L39">
+        <v>3.2252377796159521</v>
+      </c>
+      <c r="M39">
+        <v>3.6284748762122092</v>
+      </c>
+      <c r="N39">
+        <v>2.7356268807651531</v>
+      </c>
+      <c r="O39">
+        <v>1.9772564610917982</v>
+      </c>
+      <c r="P39">
+        <v>2.1886570476830229</v>
+      </c>
+      <c r="Q39">
+        <v>1.7241287198242787</v>
+      </c>
+      <c r="R39">
+        <v>1.9601194444752537</v>
+      </c>
+      <c r="S39">
+        <v>2.302741203681137</v>
+      </c>
+      <c r="T39">
+        <v>2.2377623539607043</v>
+      </c>
+      <c r="U39">
+        <v>1.888712402217493</v>
+      </c>
+      <c r="V39">
+        <v>1.791790616124473</v>
+      </c>
+      <c r="W39">
+        <v>2.0776738321472124</v>
+      </c>
+      <c r="X39">
+        <v>1.7640982102879548</v>
+      </c>
+      <c r="Y39">
+        <v>2.7248584898629815</v>
+      </c>
+      <c r="Z39">
+        <v>2.502729203622323</v>
+      </c>
+      <c r="AA39">
+        <v>4.8169353777818742</v>
+      </c>
+      <c r="AB39">
+        <v>8.4470862452802749</v>
+      </c>
+      <c r="AC39">
+        <v>9.6237054239937834</v>
+      </c>
+      <c r="AD39">
+        <v>11.845472539218179</v>
+      </c>
+      <c r="AE39">
+        <v>13.917208176846884</v>
+      </c>
+      <c r="AF39">
+        <v>12.38455392891467</v>
+      </c>
+      <c r="AG39">
+        <v>11.737573598320751</v>
+      </c>
+      <c r="AH39">
+        <v>11.960851679139239</v>
+      </c>
+      <c r="AI39">
+        <v>10.721208522156189</v>
+      </c>
+      <c r="AJ39">
+        <v>9.7220348233717573</v>
+      </c>
+      <c r="AK39">
+        <v>-9.3195995276051602E-2</v>
+      </c>
+      <c r="AL39">
+        <v>0.14680605946090197</v>
+      </c>
+      <c r="AM39">
+        <v>4.161183614118219E-2</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B40">
-        <v>3.7344894000000011</v>
+        <v>0.92500899999999575</v>
       </c>
       <c r="C40">
-        <v>4.8992012000000216</v>
+        <v>1.288842000000006</v>
       </c>
       <c r="D40">
-        <v>4.5952039999999954</v>
+        <v>1.609290000000005</v>
       </c>
       <c r="E40">
-        <v>5.1485563999999755</v>
+        <v>1.4795540000000074</v>
       </c>
       <c r="F40">
-        <v>4.6573309999999992</v>
+        <v>1.8188709999999872</v>
       </c>
       <c r="G40">
-        <v>0.73199999999999932</v>
+        <v>1.8068069999999992</v>
       </c>
       <c r="H40">
-        <v>0.28200000000003911</v>
+        <v>1.6592289999999892</v>
       </c>
       <c r="I40">
-        <v>0.41900000000001114</v>
+        <v>1.8106901799999804</v>
       </c>
       <c r="J40">
-        <v>0.41399999999998727</v>
+        <v>2.6256291199999851</v>
       </c>
       <c r="K40">
-        <v>0.29399999999998272</v>
+        <v>3.871658700000026</v>
       </c>
       <c r="L40">
-        <v>0.35399999999998499</v>
+        <v>4.1596745150000203</v>
       </c>
       <c r="M40">
-        <v>0.32300000000003593</v>
+        <v>4.5220025610000505</v>
       </c>
       <c r="N40">
-        <v>0.34000000000000341</v>
+        <v>4.5781967080000072</v>
       </c>
       <c r="O40">
-        <v>0.35000000000002274</v>
+        <v>4.7665293984999835</v>
       </c>
       <c r="P40">
-        <v>0.36000000000004206</v>
+        <v>4.3774913799999524</v>
       </c>
       <c r="Q40">
-        <v>0.36000000000001364</v>
+        <v>5.0614207594999812</v>
       </c>
       <c r="R40">
-        <v>0.36999999999997613</v>
+        <v>5.0704577799999981</v>
       </c>
       <c r="S40">
-        <v>1.073099999999954</v>
+        <v>4.8679079325000032</v>
       </c>
       <c r="T40">
-        <v>2.0046000000000106</v>
+        <v>5.2490710954999997</v>
       </c>
       <c r="U40">
-        <v>1.4105000000000132</v>
+        <v>4.8458331670000234</v>
       </c>
       <c r="V40">
-        <v>0.83049999999997226</v>
+        <v>5.3637996699999348</v>
       </c>
       <c r="W40">
-        <v>0.82600000000005025</v>
+        <v>5.4386105080000391</v>
       </c>
       <c r="X40">
-        <v>0.53049999999996089</v>
+        <v>5.5128052155000091</v>
       </c>
       <c r="Y40">
-        <v>1.990949999999998</v>
+        <v>5.010343974000051</v>
       </c>
       <c r="Z40">
-        <v>3.3524579699178219</v>
+        <v>4.8224614824999605</v>
       </c>
       <c r="AA40">
-        <v>2.9005517201790383</v>
+        <v>4.6239013929999828</v>
       </c>
       <c r="AB40">
-        <v>2.0151034299012451</v>
+        <v>4.5002379664999808</v>
       </c>
       <c r="AC40">
-        <v>1.6207000000000278</v>
+        <v>4.5299776089999568</v>
       </c>
       <c r="AD40">
-        <v>1.1266500000000121</v>
+        <v>4.8089619285000254</v>
       </c>
       <c r="AE40">
-        <v>8.2999999999969987E-2</v>
+        <v>4.7832836349999752</v>
       </c>
       <c r="AF40">
-        <v>0.1209999999999809</v>
+        <v>4.7270517821499993</v>
       </c>
       <c r="AG40">
-        <v>0.29700000000002547</v>
+        <v>4.9919408860000374</v>
       </c>
       <c r="AH40">
-        <v>0.24799999999999045</v>
+        <v>5.0041773479999847</v>
       </c>
       <c r="AI40">
-        <v>0.13602900695801168</v>
+        <v>5.1541919285000404</v>
       </c>
       <c r="AJ40">
-        <v>0.13602900695806852</v>
+        <v>5.0254874105000908</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>-2.4970843108941931E-2</v>
       </c>
       <c r="AL40">
-        <v>-0.23535981646861792</v>
+        <v>2.8345878742905839E-3</v>
       </c>
       <c r="AM40">
-        <v>5.8222551665616806E-4</v>
+        <v>2.1509875499785312E-2</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>8.0378000000003169E-3</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -67112,105 +67949,105 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>3.0000000066365828E-6</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>2.4220000000241271E-4</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>4.7960000001694425E-3</v>
+        <v>1.4600000071141039E-6</v>
       </c>
       <c r="L41">
-        <v>9.3760000004294852E-4</v>
+        <v>5.0499999986186594E-6</v>
       </c>
       <c r="M41">
-        <v>2.9529999999340362E-3</v>
+        <v>-3.050000003668174E-6</v>
       </c>
       <c r="N41">
-        <v>2.5021999998671163E-3</v>
+        <v>-4.8038699996766354E-4</v>
       </c>
       <c r="O41">
-        <v>2.3053999998410291E-3</v>
+        <v>-2.2880000187797123E-6</v>
       </c>
       <c r="P41">
-        <v>1.8302000000858243E-3</v>
+        <v>3.3975551999972708E-2</v>
       </c>
       <c r="Q41">
-        <v>3.6872000000585103E-3</v>
+        <v>9.1664952999991556E-2</v>
       </c>
       <c r="R41">
-        <v>2.3075999999946362E-3</v>
+        <v>-1.0752640000077918E-3</v>
       </c>
       <c r="S41">
-        <v>6.127800000285788E-3</v>
+        <v>2.3267500000656582E-4</v>
       </c>
       <c r="T41">
-        <v>7.8945999998722982E-3</v>
+        <v>-3.4097260000294227E-3</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>2.9696000000001277E-4</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>8.3840999963058493E-5</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>-1.7268069999971658E-3</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>-1.8328339999698073E-3</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>-1.3041000000271197E-3</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>-1.4091960000541803E-3</v>
       </c>
       <c r="AA41">
-        <v>19.85185999999976</v>
+        <v>-1.6393909999408152E-3</v>
       </c>
       <c r="AB41">
-        <v>21.668999999999869</v>
+        <v>-1.8238600001438954E-3</v>
       </c>
       <c r="AC41">
-        <v>20.279889999999796</v>
+        <v>-8.6483350000321479E-4</v>
       </c>
       <c r="AD41">
-        <v>22.982726600001115</v>
+        <v>-1.2587779401087573E-3</v>
       </c>
       <c r="AE41">
-        <v>26.14632999999958</v>
+        <v>-1.4345330199603268E-3</v>
       </c>
       <c r="AF41">
-        <v>26.783590000001823</v>
+        <v>-1.3585070800274934E-3</v>
       </c>
       <c r="AG41">
-        <v>42.193499999999403</v>
+        <v>-1.3968428300756841E-3</v>
       </c>
       <c r="AH41">
-        <v>46.185795999999755</v>
+        <v>-1.5616709999051182E-3</v>
       </c>
       <c r="AI41">
-        <v>49.791633445657681</v>
+        <v>-1.4825680000285502E-3</v>
       </c>
       <c r="AJ41">
-        <v>56.526132637099181</v>
+        <v>-1.2503030000345916E-3</v>
       </c>
       <c r="AK41">
-        <v>0.1352536304877705</v>
+        <v>-0.15666397763170781</v>
       </c>
       <c r="AL41">
-        <v>0</v>
+        <v>1.2908866409814479E-2</v>
       </c>
       <c r="AM41">
-        <v>0.24194072657867072</v>
+        <v>-5.3514932325889364E-6</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -67288,1589 +68125,756 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>3.4000000013634235E-5</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>3.3999999992317953E-5</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>3.3999999992317953E-5</v>
       </c>
       <c r="AD42">
-        <v>0</v>
+        <v>5.8000000009883479E-5</v>
       </c>
       <c r="AE42">
-        <v>0.20679999999970278</v>
+        <v>5.7999999981461769E-5</v>
       </c>
       <c r="AF42">
-        <v>0.13768499999946471</v>
+        <v>5.999999999062311E-6</v>
       </c>
       <c r="AG42">
-        <v>0.10410499999989042</v>
+        <v>1.8999999994662176E-5</v>
       </c>
       <c r="AH42">
-        <v>0.17456500000002961</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>0.20623000000023239</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <v>0.1915049999997791</v>
+        <v>0</v>
       </c>
       <c r="AK42">
-        <v>-7.1400863116116486E-2</v>
+        <v>0</v>
       </c>
       <c r="AL42">
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>8.1967148081497714E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.15442573209566524</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>0.23072496579014112</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>0.23082973014030664</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.28936788289958748</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.27567149800463109</v>
       </c>
       <c r="G43">
-        <v>2.0000000000024443E-3</v>
+        <v>0.2297643752144414</v>
       </c>
       <c r="H43">
-        <v>1.9999999999917861E-3</v>
+        <v>0.44609504000881467</v>
       </c>
       <c r="I43">
-        <v>2.0000000000024443E-3</v>
+        <v>0.51289915430599786</v>
       </c>
       <c r="J43">
-        <v>1.9999999999953388E-3</v>
+        <v>0.37696318836933845</v>
       </c>
       <c r="K43">
-        <v>2.1500000000074238E-3</v>
+        <v>0.49462049841877481</v>
       </c>
       <c r="L43">
-        <v>2.5000000000048317E-3</v>
+        <v>0.54379401125858617</v>
       </c>
       <c r="M43">
-        <v>2.4999999999906208E-3</v>
+        <v>0.89487301533306729</v>
       </c>
       <c r="N43">
-        <v>2.4999999999977263E-3</v>
+        <v>0.9662954166905815</v>
       </c>
       <c r="O43">
-        <v>2.4999999999977263E-3</v>
+        <v>0.5024102057708888</v>
       </c>
       <c r="P43">
-        <v>2.4999999999977263E-3</v>
+        <v>0.56120761086404758</v>
       </c>
       <c r="Q43">
-        <v>2.9999999999859028E-3</v>
+        <v>1.1081707524580084</v>
       </c>
       <c r="R43">
-        <v>3.9999999999764668E-3</v>
+        <v>1.3010123047697526</v>
       </c>
       <c r="S43">
-        <v>5.5000000000120508E-3</v>
+        <v>1.8586344563942707</v>
       </c>
       <c r="T43">
-        <v>7.4999999999931788E-3</v>
+        <v>0.93618375164695544</v>
       </c>
       <c r="U43">
-        <v>1.0000000000005116E-2</v>
+        <v>1.2154093669717352</v>
       </c>
       <c r="V43">
-        <v>1.099999999999568E-2</v>
+        <v>0.53398932263963295</v>
       </c>
       <c r="W43">
-        <v>1.6000000000005343E-2</v>
+        <v>0.56179953550443162</v>
       </c>
       <c r="X43">
-        <v>1.8000000000014893E-2</v>
+        <v>0.49050938327071064</v>
       </c>
       <c r="Y43">
-        <v>2.756499999998141E-2</v>
+        <v>0.43223964557406719</v>
       </c>
       <c r="Z43">
-        <v>3.1295000000000073E-2</v>
+        <v>0.49053230231332862</v>
       </c>
       <c r="AA43">
-        <v>4.7359999999969205E-2</v>
+        <v>0.54576548366612876</v>
       </c>
       <c r="AB43">
-        <v>0.10842999999999847</v>
+        <v>0.70260119245494701</v>
       </c>
       <c r="AC43">
-        <v>0.13431500000001506</v>
+        <v>0.79825496910013549</v>
       </c>
       <c r="AD43">
-        <v>9.2149999999975307E-2</v>
+        <v>0.61087740666276735</v>
       </c>
       <c r="AE43">
-        <v>0.12038499999999885</v>
+        <v>0.98986627056788845</v>
       </c>
       <c r="AF43">
-        <v>0.24022499999998104</v>
+        <v>0.7825816441686162</v>
       </c>
       <c r="AG43">
-        <v>0.29500500000000329</v>
+        <v>0.71196476769219308</v>
       </c>
       <c r="AH43">
-        <v>0.29522000000000048</v>
+        <v>1.0607998097809732</v>
       </c>
       <c r="AI43">
-        <v>0.31123000000002321</v>
+        <v>1.8898470121872268</v>
       </c>
       <c r="AJ43">
-        <v>0.31139917984742738</v>
+        <v>0.51182118950672872</v>
       </c>
       <c r="AK43">
-        <v>5.4358463966885928E-4</v>
+        <v>-0.72917321550046044</v>
       </c>
       <c r="AL43">
-        <v>0.27430194385494011</v>
+        <v>0.15896469110540368</v>
       </c>
       <c r="AM43">
-        <v>1.3328374030464197E-3</v>
+        <v>2.1906750858512692E-3</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B44">
-        <v>5.5640000000000214</v>
+        <v>10.824658423678176</v>
       </c>
       <c r="C44">
-        <v>5.921000000000106</v>
+        <v>13.210663105184199</v>
       </c>
       <c r="D44">
-        <v>6.7360000000000468</v>
+        <v>14.503290144281758</v>
       </c>
       <c r="E44">
-        <v>6.3740000000000805</v>
+        <v>14.816388500632543</v>
       </c>
       <c r="F44">
-        <v>6.9159999999999968</v>
+        <v>15.212285596770059</v>
       </c>
       <c r="G44">
-        <v>8.9400000000001683</v>
+        <v>13.352167701777375</v>
       </c>
       <c r="H44">
-        <v>11.17899999999986</v>
+        <v>15.094160889004018</v>
       </c>
       <c r="I44">
-        <v>9.57000000000005</v>
+        <v>14.088443353435627</v>
       </c>
       <c r="J44">
-        <v>12.889999999999986</v>
+        <v>18.093069391845965</v>
       </c>
       <c r="K44">
-        <v>11.197000000000116</v>
+        <v>17.62249993856598</v>
       </c>
       <c r="L44">
-        <v>12.423000000000116</v>
+        <v>20.709148955874706</v>
       </c>
       <c r="M44">
-        <v>12.259999999999991</v>
+        <v>21.633800402545276</v>
       </c>
       <c r="N44">
-        <v>13.976999999999975</v>
+        <v>22.601640818455618</v>
       </c>
       <c r="O44">
-        <v>13.550999999999817</v>
+        <v>21.151999177362327</v>
       </c>
       <c r="P44">
-        <v>11.836000000000126</v>
+        <v>19.361661790547249</v>
       </c>
       <c r="Q44">
-        <v>12.444000000000074</v>
+        <v>20.22516938478239</v>
       </c>
       <c r="R44">
-        <v>12.371999999999957</v>
+        <v>20.504727865244913</v>
       </c>
       <c r="S44">
-        <v>11.237000000000194</v>
+        <v>21.628884067575854</v>
       </c>
       <c r="T44">
-        <v>10.536999999999807</v>
+        <v>21.527302075107304</v>
       </c>
       <c r="U44">
-        <v>10.52599999999984</v>
+        <v>20.514751896189122</v>
       </c>
       <c r="V44">
-        <v>9.6359999999998536</v>
+        <v>18.529163449763804</v>
       </c>
       <c r="W44">
-        <v>9.2129999999998518</v>
+        <v>18.876413068651569</v>
       </c>
       <c r="X44">
-        <v>10.833999999999833</v>
+        <v>19.455417975058513</v>
       </c>
       <c r="Y44">
-        <v>6.8000000000000682</v>
+        <v>17.189942009437125</v>
       </c>
       <c r="Z44">
-        <v>5.8599999999999</v>
+        <v>17.227956762353291</v>
       </c>
       <c r="AA44">
-        <v>9.6650000000000773</v>
+        <v>42.707928583626895</v>
       </c>
       <c r="AB44">
-        <v>10.132999999999925</v>
+        <v>47.611564674136105</v>
       </c>
       <c r="AC44">
-        <v>10.23928350000017</v>
+        <v>47.312602168593855</v>
       </c>
       <c r="AD44">
-        <v>8.6840888493001103</v>
+        <v>50.222866545742086</v>
       </c>
       <c r="AE44">
-        <v>6.5716687477499818</v>
+        <v>52.817165297144001</v>
       </c>
       <c r="AF44">
-        <v>7.3560000804501442</v>
+        <v>52.531334928604664</v>
       </c>
       <c r="AG44">
-        <v>46.756246765790365</v>
+        <v>107.08595817497257</v>
       </c>
       <c r="AH44">
-        <v>49.589577540086793</v>
+        <v>114.51842570600685</v>
       </c>
       <c r="AI44">
-        <v>53.250163475845056</v>
+        <v>121.45905082330444</v>
       </c>
       <c r="AJ44">
-        <v>42.342043633619824</v>
+        <v>114.76520257790284</v>
       </c>
       <c r="AK44">
-        <v>-0.20484669210777717</v>
+        <v>-5.5111975600234508E-2</v>
       </c>
       <c r="AL44">
-        <v>0.22851709255644592</v>
+        <v>0.21594952420536662</v>
       </c>
       <c r="AM44">
-        <v>0.18123059766555216</v>
+        <v>0.49121309387832673</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B45">
-        <v>-3.5417508417506127E-2</v>
+        <v>53.909270372850067</v>
       </c>
       <c r="C45">
-        <v>-3.8606060606060311E-2</v>
+        <v>53.714874716486769</v>
       </c>
       <c r="D45">
-        <v>-4.6858585858588597E-2</v>
+        <v>52.819213188645037</v>
       </c>
       <c r="E45">
-        <v>-5.393378226711576E-2</v>
+        <v>58.837476929905108</v>
       </c>
       <c r="F45">
-        <v>-4.9567901234567557E-2</v>
+        <v>65.901691382345263</v>
       </c>
       <c r="G45">
-        <v>-3.768911335577485E-2</v>
+        <v>66.994721490867676</v>
       </c>
       <c r="H45">
-        <v>-4.1315375982041047E-2</v>
+        <v>68.150592752530855</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>71.464385223487454</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>74.872657412725289</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>74.28315988951276</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>85.573654512638441</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>86.47830696218621</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>91.632118726245125</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>102.27330925100128</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>107.24395097555417</v>
       </c>
       <c r="Q45">
-        <v>-0.57090300000000127</v>
+        <v>110.97143468463625</v>
       </c>
       <c r="R45">
-        <v>-0.57409399999998811</v>
+        <v>103.53834395879129</v>
       </c>
       <c r="S45">
-        <v>0.27763999999999101</v>
+        <v>105.94447345706934</v>
       </c>
       <c r="T45">
-        <v>0.55069999999999197</v>
+        <v>115.73164127323325</v>
       </c>
       <c r="U45">
-        <v>0.61800000000000921</v>
+        <v>114.37096779514778</v>
       </c>
       <c r="V45">
-        <v>0.36199999999998056</v>
+        <v>123.83600291142506</v>
       </c>
       <c r="W45">
-        <v>0.74505599999997685</v>
+        <v>121.31131639816471</v>
       </c>
       <c r="X45">
-        <v>0.30733800000000144</v>
+        <v>120.67681632202904</v>
       </c>
       <c r="Y45">
-        <v>0.2052890000000076</v>
+        <v>118.89247000962182</v>
       </c>
       <c r="Z45">
-        <v>0.16989000000000942</v>
+        <v>115.50477998981412</v>
       </c>
       <c r="AA45">
-        <v>0.25815999999998951</v>
+        <v>156.35342378344166</v>
       </c>
       <c r="AB45">
-        <v>3.7895700000021293E-2</v>
+        <v>153.45290965211447</v>
       </c>
       <c r="AC45">
-        <v>8.7306499999982634E-2</v>
+        <v>154.48065130583248</v>
       </c>
       <c r="AD45">
-        <v>7.3140000000009309E-2</v>
+        <v>156.92606549247677</v>
       </c>
       <c r="AE45">
-        <v>0</v>
+        <v>164.52797769855354</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>161.6324921876996</v>
       </c>
       <c r="AG45">
-        <v>0</v>
+        <v>219.54445948910188</v>
       </c>
       <c r="AH45">
-        <v>1.0000000000047748E-3</v>
+        <v>228.3434367577579</v>
       </c>
       <c r="AI45">
-        <v>0</v>
+        <v>248.86819666857036</v>
       </c>
       <c r="AJ45">
-        <v>0</v>
+        <v>233.63628536809756</v>
       </c>
       <c r="AK45">
-        <v>0</v>
+        <v>-6.1204732080563318E-2</v>
       </c>
       <c r="AL45">
-        <v>-1</v>
+        <v>7.66672554704797E-2</v>
       </c>
       <c r="AM45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="B46">
-        <v>0.47411400000000015</v>
+        <v>50.833212911889561</v>
       </c>
       <c r="C46">
-        <v>0.90950099999998457</v>
+        <v>50.234957171563835</v>
       </c>
       <c r="D46">
-        <v>1.378824999999992</v>
+        <v>48.992319081574344</v>
       </c>
       <c r="E46">
-        <v>1.5788440000000108</v>
+        <v>54.774696699633147</v>
       </c>
       <c r="F46">
-        <v>1.5939800000000091</v>
+        <v>62.83038319439688</v>
       </c>
       <c r="G46">
-        <v>1.6792854399185373</v>
+        <v>63.490372595967912</v>
       </c>
       <c r="H46">
-        <v>1.5671492249773564</v>
+        <v>63.841525972628432</v>
       </c>
       <c r="I46">
-        <v>1.7738540191295868</v>
+        <v>65.325624737187397</v>
       </c>
       <c r="J46">
-        <v>1.784234883476671</v>
+        <v>67.254511343613984</v>
       </c>
       <c r="K46">
-        <v>1.758273280146895</v>
+        <v>65.16548475725422</v>
       </c>
       <c r="L46">
-        <v>3.2252377796159521</v>
+        <v>76.480948556791489</v>
       </c>
       <c r="M46">
-        <v>3.6284748762122092</v>
+        <v>75.601773611865966</v>
       </c>
       <c r="N46">
-        <v>2.7356268807651531</v>
+        <v>79.890264375680545</v>
       </c>
       <c r="O46">
-        <v>1.9772564610917982</v>
+        <v>90.858198607515661</v>
       </c>
       <c r="P46">
-        <v>2.1886570476830229</v>
+        <v>95.722615026310706</v>
       </c>
       <c r="Q46">
-        <v>1.7241287198242787</v>
+        <v>99.11429311199079</v>
       </c>
       <c r="R46">
-        <v>1.9601194444752537</v>
+        <v>92.479847614032408</v>
       </c>
       <c r="S46">
-        <v>2.302741203681137</v>
+        <v>94.283511458593594</v>
       </c>
       <c r="T46">
-        <v>2.2377623539607043</v>
+        <v>104.88111668544558</v>
       </c>
       <c r="U46">
-        <v>1.888712402217493</v>
+        <v>104.06564678799073</v>
       </c>
       <c r="V46">
-        <v>1.791790616124473</v>
+        <v>112.85127673030691</v>
       </c>
       <c r="W46">
-        <v>2.0776738321472124</v>
+        <v>109.45110796751567</v>
       </c>
       <c r="X46">
-        <v>1.7640982102879548</v>
+        <v>110.24892844865374</v>
       </c>
       <c r="Y46">
-        <v>2.7248584898629815</v>
+        <v>107.36845614910406</v>
       </c>
       <c r="Z46">
-        <v>2.502729203622323</v>
+        <v>101.81323572959107</v>
       </c>
       <c r="AA46">
-        <v>4.8169353777818742</v>
+        <v>112.68355965046892</v>
       </c>
       <c r="AB46">
-        <v>8.4470862452802749</v>
+        <v>114.59113427850248</v>
       </c>
       <c r="AC46">
-        <v>9.6237054239937834</v>
+        <v>117.4059490803876</v>
       </c>
       <c r="AD46">
-        <v>11.845472539218179</v>
+        <v>117.03170159195601</v>
       </c>
       <c r="AE46">
-        <v>13.917208176846884</v>
+        <v>113.84036526790162</v>
       </c>
       <c r="AF46">
-        <v>12.38455392891467</v>
+        <v>115.2572188478706</v>
       </c>
       <c r="AG46">
-        <v>11.737573598320751</v>
+        <v>158.36327257637268</v>
       </c>
       <c r="AH46">
-        <v>11.960851679139239</v>
+        <v>162.40834089652799</v>
       </c>
       <c r="AI46">
-        <v>10.721208522156189</v>
+        <v>183.87784896244435</v>
       </c>
       <c r="AJ46">
-        <v>9.7220348233717573</v>
+        <v>162.60794222486876</v>
       </c>
       <c r="AK46">
-        <v>-9.3195995276051602E-2</v>
+        <v>-0.11567411114277171</v>
       </c>
       <c r="AL46">
-        <v>0.14680605946090197</v>
+        <v>5.5274079123661002E-2</v>
       </c>
       <c r="AM46">
-        <v>4.161183614118219E-2</v>
+        <v>0.69598753450765338</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="B47">
-        <v>0.92500899999999575</v>
+        <v>3.0760574609605023</v>
       </c>
       <c r="C47">
-        <v>1.288842000000006</v>
+        <v>3.479917544922928</v>
       </c>
       <c r="D47">
-        <v>1.609290000000005</v>
+        <v>3.8268941070706939</v>
       </c>
       <c r="E47">
-        <v>1.4795540000000074</v>
+        <v>4.0627802302719687</v>
       </c>
       <c r="F47">
-        <v>1.8188709999999872</v>
+        <v>3.071308187948405</v>
       </c>
       <c r="G47">
-        <v>1.8068069999999992</v>
+        <v>3.5043488948997545</v>
       </c>
       <c r="H47">
-        <v>1.6592289999999892</v>
+        <v>4.3090667799024107</v>
       </c>
       <c r="I47">
-        <v>1.8106901799999804</v>
+        <v>6.1387604863000638</v>
       </c>
       <c r="J47">
-        <v>2.6256291199999851</v>
+        <v>7.6181460691113312</v>
       </c>
       <c r="K47">
-        <v>3.871658700000026</v>
+        <v>9.1176751322585421</v>
       </c>
       <c r="L47">
-        <v>4.1596745150000203</v>
+        <v>9.0927059558469541</v>
       </c>
       <c r="M47">
-        <v>4.5220025610000505</v>
+        <v>10.876533350320232</v>
       </c>
       <c r="N47">
-        <v>4.5781967080000072</v>
+        <v>11.741854350564584</v>
       </c>
       <c r="O47">
-        <v>4.7665293984999835</v>
+        <v>11.415110643485622</v>
       </c>
       <c r="P47">
-        <v>4.3774913799999524</v>
+        <v>11.52133594924349</v>
       </c>
       <c r="Q47">
-        <v>5.0614207594999812</v>
+        <v>11.857141572645482</v>
       </c>
       <c r="R47">
-        <v>5.0704577799999981</v>
+        <v>11.05849634475889</v>
       </c>
       <c r="S47">
-        <v>4.8679079325000032</v>
+        <v>11.660961998475738</v>
       </c>
       <c r="T47">
-        <v>5.2490710954999997</v>
+        <v>10.850524587787627</v>
       </c>
       <c r="U47">
-        <v>4.8458331670000234</v>
+        <v>10.305321007157016</v>
       </c>
       <c r="V47">
-        <v>5.3637996699999348</v>
+        <v>10.984726181118139</v>
       </c>
       <c r="W47">
-        <v>5.4386105080000391</v>
+        <v>11.860208430648997</v>
       </c>
       <c r="X47">
-        <v>5.5128052155000091</v>
+        <v>10.427887873375314</v>
       </c>
       <c r="Y47">
-        <v>5.010343974000051</v>
+        <v>11.524013860517789</v>
       </c>
       <c r="Z47">
-        <v>4.8224614824999605</v>
+        <v>13.691544260223033</v>
       </c>
       <c r="AA47">
-        <v>4.6239013929999828</v>
+        <v>43.669864132972741</v>
       </c>
       <c r="AB47">
-        <v>4.5002379664999808</v>
+        <v>38.86177537361197</v>
       </c>
       <c r="AC47">
-        <v>4.5299776089999568</v>
+        <v>37.074702225444881</v>
       </c>
       <c r="AD47">
-        <v>4.8089619285000254</v>
+        <v>39.894363900520808</v>
       </c>
       <c r="AE47">
-        <v>4.7832836349999752</v>
+        <v>50.687612430651875</v>
       </c>
       <c r="AF47">
-        <v>4.7270517821499993</v>
+        <v>46.375273339828965</v>
       </c>
       <c r="AG47">
-        <v>4.9919408860000374</v>
+        <v>61.181186912729281</v>
       </c>
       <c r="AH47">
-        <v>5.0041773479999847</v>
+        <v>65.935095861229939</v>
       </c>
       <c r="AI47">
-        <v>5.1541919285000404</v>
+        <v>64.990347706126045</v>
       </c>
       <c r="AJ47">
-        <v>5.0254874105000908</v>
+        <v>71.028343143228753</v>
       </c>
       <c r="AK47">
-        <v>-2.4970843108941931E-2</v>
+        <v>9.2906033745278283E-2</v>
       </c>
       <c r="AL47">
-        <v>2.8345878742905839E-3</v>
+        <v>0.18884301064103037</v>
       </c>
       <c r="AM47">
-        <v>2.1509875499785312E-2</v>
+        <v>0.3040124654923464</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B48">
-        <v>8.0378000000003169E-3</v>
+        <v>38.982649167281316</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>36.269508498116735</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>34.095175285222965</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>39.276300094467459</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>43.220587989086823</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>39.305835482421081</v>
       </c>
       <c r="H48">
-        <v>3.0000000066365828E-6</v>
+        <v>35.313986952161692</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>37.477318896072369</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>36.401076096435688</v>
       </c>
       <c r="K48">
-        <v>1.4600000071141039E-6</v>
+        <v>35.400954799798612</v>
       </c>
       <c r="L48">
-        <v>5.0499999986186594E-6</v>
+        <v>42.942111454211712</v>
       </c>
       <c r="M48">
-        <v>-3.050000003668174E-6</v>
+        <v>41.620215052264896</v>
       </c>
       <c r="N48">
-        <v>-4.8038699996766354E-4</v>
+        <v>42.858567578059485</v>
       </c>
       <c r="O48">
-        <v>-2.2880000187797123E-6</v>
+        <v>54.582044400212702</v>
       </c>
       <c r="P48">
-        <v>3.3975551999972708E-2</v>
+        <v>59.100227019690337</v>
       </c>
       <c r="Q48">
-        <v>9.1664952999991556E-2</v>
+        <v>62.273540768899927</v>
       </c>
       <c r="R48">
-        <v>-1.0752640000077918E-3</v>
+        <v>61.222482178708951</v>
       </c>
       <c r="S48">
-        <v>2.3267500000656582E-4</v>
+        <v>61.205018635144476</v>
       </c>
       <c r="T48">
-        <v>-3.4097260000294227E-3</v>
+        <v>65.177442538769867</v>
       </c>
       <c r="U48">
-        <v>2.9696000000001277E-4</v>
+        <v>66.617212683698611</v>
       </c>
       <c r="V48">
-        <v>8.3840999963058493E-5</v>
+        <v>72.319795043177322</v>
       </c>
       <c r="W48">
-        <v>-1.7268069999971658E-3</v>
+        <v>72.55095840128152</v>
       </c>
       <c r="X48">
-        <v>-1.8328339999698073E-3</v>
+        <v>72.961008606024535</v>
       </c>
       <c r="Y48">
-        <v>-1.3041000000271197E-3</v>
+        <v>69.441849244249767</v>
       </c>
       <c r="Z48">
-        <v>-1.4091960000541803E-3</v>
+        <v>64.798042525268272</v>
       </c>
       <c r="AA48">
-        <v>-1.6393909999408152E-3</v>
+        <v>71.25101062656114</v>
       </c>
       <c r="AB48">
-        <v>-1.8238600001438954E-3</v>
+        <v>69.145163681594724</v>
       </c>
       <c r="AC48">
-        <v>-8.6483350000321479E-4</v>
+        <v>73.000286597925452</v>
       </c>
       <c r="AD48">
-        <v>-1.2587779401087573E-3</v>
+        <v>73.881979819357369</v>
       </c>
       <c r="AE48">
-        <v>-1.4345330199603268E-3</v>
+        <v>74.337315476084868</v>
       </c>
       <c r="AF48">
-        <v>-1.3585070800274934E-3</v>
+        <v>76.000708833252986</v>
       </c>
       <c r="AG48">
-        <v>-1.3968428300756841E-3</v>
+        <v>79.639611589229261</v>
       </c>
       <c r="AH48">
-        <v>-1.5616709999051182E-3</v>
+        <v>77.50167060433084</v>
       </c>
       <c r="AI48">
-        <v>-1.4825680000285502E-3</v>
+        <v>77.896174016848846</v>
       </c>
       <c r="AJ48">
-        <v>-1.2503030000345916E-3</v>
+        <v>67.165901010519534</v>
       </c>
       <c r="AK48">
-        <v>-0.15666397763170781</v>
+        <v>-0.13775096327591607</v>
       </c>
       <c r="AL48">
-        <v>1.2908866409814479E-2</v>
+        <v>1.1554962414065173E-2</v>
       </c>
       <c r="AM48">
-        <v>-5.3514932325889364E-6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>117</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>3.4000000013634235E-5</v>
-      </c>
-      <c r="AB49">
-        <v>3.3999999992317953E-5</v>
-      </c>
-      <c r="AC49">
-        <v>3.3999999992317953E-5</v>
-      </c>
-      <c r="AD49">
-        <v>5.8000000009883479E-5</v>
-      </c>
-      <c r="AE49">
-        <v>5.7999999981461769E-5</v>
-      </c>
-      <c r="AF49">
-        <v>5.999999999062311E-6</v>
-      </c>
-      <c r="AG49">
-        <v>1.8999999994662176E-5</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
-      <c r="AI49">
-        <v>0</v>
-      </c>
-      <c r="AJ49">
-        <v>0</v>
-      </c>
-      <c r="AK49">
-        <v>0</v>
-      </c>
-      <c r="AL49">
-        <v>0</v>
-      </c>
-      <c r="AM49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>57</v>
-      </c>
-      <c r="B50">
-        <v>0.15442573209566524</v>
-      </c>
-      <c r="C50">
-        <v>0.23072496579014112</v>
-      </c>
-      <c r="D50">
-        <v>0.23082973014030664</v>
-      </c>
-      <c r="E50">
-        <v>0.28936788289958748</v>
-      </c>
-      <c r="F50">
-        <v>0.27567149800463109</v>
-      </c>
-      <c r="G50">
-        <v>0.2297643752144414</v>
-      </c>
-      <c r="H50">
-        <v>0.44609504000881467</v>
-      </c>
-      <c r="I50">
-        <v>0.51289915430599786</v>
-      </c>
-      <c r="J50">
-        <v>0.37696318836933845</v>
-      </c>
-      <c r="K50">
-        <v>0.49462049841877481</v>
-      </c>
-      <c r="L50">
-        <v>0.54379401125858617</v>
-      </c>
-      <c r="M50">
-        <v>0.89487301533306729</v>
-      </c>
-      <c r="N50">
-        <v>0.9662954166905815</v>
-      </c>
-      <c r="O50">
-        <v>0.5024102057708888</v>
-      </c>
-      <c r="P50">
-        <v>0.56120761086404758</v>
-      </c>
-      <c r="Q50">
-        <v>1.1081707524580084</v>
-      </c>
-      <c r="R50">
-        <v>1.3010123047697526</v>
-      </c>
-      <c r="S50">
-        <v>1.8586344563942707</v>
-      </c>
-      <c r="T50">
-        <v>0.93618375164695544</v>
-      </c>
-      <c r="U50">
-        <v>1.2154093669717352</v>
-      </c>
-      <c r="V50">
-        <v>0.53398932263963295</v>
-      </c>
-      <c r="W50">
-        <v>0.56179953550443162</v>
-      </c>
-      <c r="X50">
-        <v>0.49050938327071064</v>
-      </c>
-      <c r="Y50">
-        <v>0.43223964557406719</v>
-      </c>
-      <c r="Z50">
-        <v>0.49053230231332862</v>
-      </c>
-      <c r="AA50">
-        <v>0.54576548366612876</v>
-      </c>
-      <c r="AB50">
-        <v>0.70260119245494701</v>
-      </c>
-      <c r="AC50">
-        <v>0.79825496910013549</v>
-      </c>
-      <c r="AD50">
-        <v>0.61087740666276735</v>
-      </c>
-      <c r="AE50">
-        <v>0.98986627056788845</v>
-      </c>
-      <c r="AF50">
-        <v>0.7825816441686162</v>
-      </c>
-      <c r="AG50">
-        <v>0.71196476769219308</v>
-      </c>
-      <c r="AH50">
-        <v>1.0607998097809732</v>
-      </c>
-      <c r="AI50">
-        <v>1.8898470121872268</v>
-      </c>
-      <c r="AJ50">
-        <v>0.51182118950672872</v>
-      </c>
-      <c r="AK50">
-        <v>-0.72917321550046044</v>
-      </c>
-      <c r="AL50">
-        <v>0.15896469110540368</v>
-      </c>
-      <c r="AM50">
-        <v>2.1906750858512692E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>58</v>
-      </c>
-      <c r="B51">
-        <v>10.824658423678176</v>
-      </c>
-      <c r="C51">
-        <v>13.210663105184199</v>
-      </c>
-      <c r="D51">
-        <v>14.503290144281758</v>
-      </c>
-      <c r="E51">
-        <v>14.816388500632543</v>
-      </c>
-      <c r="F51">
-        <v>15.212285596770059</v>
-      </c>
-      <c r="G51">
-        <v>13.352167701777375</v>
-      </c>
-      <c r="H51">
-        <v>15.094160889004018</v>
-      </c>
-      <c r="I51">
-        <v>14.088443353435627</v>
-      </c>
-      <c r="J51">
-        <v>18.093069391845965</v>
-      </c>
-      <c r="K51">
-        <v>17.62249993856598</v>
-      </c>
-      <c r="L51">
-        <v>20.709148955874706</v>
-      </c>
-      <c r="M51">
-        <v>21.633800402545276</v>
-      </c>
-      <c r="N51">
-        <v>22.601640818455618</v>
-      </c>
-      <c r="O51">
-        <v>21.151999177362327</v>
-      </c>
-      <c r="P51">
-        <v>19.361661790547249</v>
-      </c>
-      <c r="Q51">
-        <v>20.22516938478239</v>
-      </c>
-      <c r="R51">
-        <v>20.504727865244913</v>
-      </c>
-      <c r="S51">
-        <v>21.628884067575854</v>
-      </c>
-      <c r="T51">
-        <v>21.527302075107304</v>
-      </c>
-      <c r="U51">
-        <v>20.514751896189122</v>
-      </c>
-      <c r="V51">
-        <v>18.529163449763804</v>
-      </c>
-      <c r="W51">
-        <v>18.876413068651569</v>
-      </c>
-      <c r="X51">
-        <v>19.455417975058513</v>
-      </c>
-      <c r="Y51">
-        <v>17.189942009437125</v>
-      </c>
-      <c r="Z51">
-        <v>17.227956762353291</v>
-      </c>
-      <c r="AA51">
-        <v>42.707928583626895</v>
-      </c>
-      <c r="AB51">
-        <v>47.611564674136105</v>
-      </c>
-      <c r="AC51">
-        <v>47.312602168593855</v>
-      </c>
-      <c r="AD51">
-        <v>50.222866545742086</v>
-      </c>
-      <c r="AE51">
-        <v>52.817165297144001</v>
-      </c>
-      <c r="AF51">
-        <v>52.531334928604664</v>
-      </c>
-      <c r="AG51">
-        <v>107.08595817497257</v>
-      </c>
-      <c r="AH51">
-        <v>114.51842570600685</v>
-      </c>
-      <c r="AI51">
-        <v>121.45905082330444</v>
-      </c>
-      <c r="AJ51">
-        <v>114.76520257790284</v>
-      </c>
-      <c r="AK51">
-        <v>-5.5111975600234508E-2</v>
-      </c>
-      <c r="AL51">
-        <v>0.21594952420536662</v>
-      </c>
-      <c r="AM51">
-        <v>0.49121309387832673</v>
-      </c>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53">
-        <v>53.909270372850067</v>
-      </c>
-      <c r="C53">
-        <v>53.714874716486769</v>
-      </c>
-      <c r="D53">
-        <v>52.819213188645037</v>
-      </c>
-      <c r="E53">
-        <v>58.837476929905108</v>
-      </c>
-      <c r="F53">
-        <v>65.901691382345263</v>
-      </c>
-      <c r="G53">
-        <v>66.994721490867676</v>
-      </c>
-      <c r="H53">
-        <v>68.150592752530855</v>
-      </c>
-      <c r="I53">
-        <v>71.464385223487454</v>
-      </c>
-      <c r="J53">
-        <v>74.872657412725289</v>
-      </c>
-      <c r="K53">
-        <v>74.28315988951276</v>
-      </c>
-      <c r="L53">
-        <v>85.573654512638441</v>
-      </c>
-      <c r="M53">
-        <v>86.47830696218621</v>
-      </c>
-      <c r="N53">
-        <v>91.632118726245125</v>
-      </c>
-      <c r="O53">
-        <v>102.27330925100128</v>
-      </c>
-      <c r="P53">
-        <v>107.24395097555417</v>
-      </c>
-      <c r="Q53">
-        <v>110.97143468463625</v>
-      </c>
-      <c r="R53">
-        <v>103.53834395879129</v>
-      </c>
-      <c r="S53">
-        <v>105.94447345706934</v>
-      </c>
-      <c r="T53">
-        <v>115.73164127323325</v>
-      </c>
-      <c r="U53">
-        <v>114.37096779514778</v>
-      </c>
-      <c r="V53">
-        <v>123.83600291142506</v>
-      </c>
-      <c r="W53">
-        <v>121.31131639816471</v>
-      </c>
-      <c r="X53">
-        <v>120.67681632202904</v>
-      </c>
-      <c r="Y53">
-        <v>118.89247000962182</v>
-      </c>
-      <c r="Z53">
-        <v>115.50477998981412</v>
-      </c>
-      <c r="AA53">
-        <v>156.35342378344166</v>
-      </c>
-      <c r="AB53">
-        <v>153.45290965211447</v>
-      </c>
-      <c r="AC53">
-        <v>154.48065130583248</v>
-      </c>
-      <c r="AD53">
-        <v>156.92606549247677</v>
-      </c>
-      <c r="AE53">
-        <v>164.52797769855354</v>
-      </c>
-      <c r="AF53">
-        <v>161.6324921876996</v>
-      </c>
-      <c r="AG53">
-        <v>219.54445948910188</v>
-      </c>
-      <c r="AH53">
-        <v>228.3434367577579</v>
-      </c>
-      <c r="AI53">
-        <v>248.86819666857036</v>
-      </c>
-      <c r="AJ53">
-        <v>233.63628536809756</v>
-      </c>
-      <c r="AK53">
-        <v>-6.1204732080563318E-2</v>
-      </c>
-      <c r="AL53">
-        <v>7.66672554704797E-2</v>
-      </c>
-      <c r="AM53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54">
-        <v>50.833212911889561</v>
-      </c>
-      <c r="C54">
-        <v>50.234957171563835</v>
-      </c>
-      <c r="D54">
-        <v>48.992319081574344</v>
-      </c>
-      <c r="E54">
-        <v>54.774696699633147</v>
-      </c>
-      <c r="F54">
-        <v>62.83038319439688</v>
-      </c>
-      <c r="G54">
-        <v>63.490372595967912</v>
-      </c>
-      <c r="H54">
-        <v>63.841525972628432</v>
-      </c>
-      <c r="I54">
-        <v>65.325624737187397</v>
-      </c>
-      <c r="J54">
-        <v>67.254511343613984</v>
-      </c>
-      <c r="K54">
-        <v>65.16548475725422</v>
-      </c>
-      <c r="L54">
-        <v>76.480948556791489</v>
-      </c>
-      <c r="M54">
-        <v>75.601773611865966</v>
-      </c>
-      <c r="N54">
-        <v>79.890264375680545</v>
-      </c>
-      <c r="O54">
-        <v>90.858198607515661</v>
-      </c>
-      <c r="P54">
-        <v>95.722615026310706</v>
-      </c>
-      <c r="Q54">
-        <v>99.11429311199079</v>
-      </c>
-      <c r="R54">
-        <v>92.479847614032408</v>
-      </c>
-      <c r="S54">
-        <v>94.283511458593594</v>
-      </c>
-      <c r="T54">
-        <v>104.88111668544558</v>
-      </c>
-      <c r="U54">
-        <v>104.06564678799073</v>
-      </c>
-      <c r="V54">
-        <v>112.85127673030691</v>
-      </c>
-      <c r="W54">
-        <v>109.45110796751567</v>
-      </c>
-      <c r="X54">
-        <v>110.24892844865374</v>
-      </c>
-      <c r="Y54">
-        <v>107.36845614910406</v>
-      </c>
-      <c r="Z54">
-        <v>101.81323572959107</v>
-      </c>
-      <c r="AA54">
-        <v>112.68355965046892</v>
-      </c>
-      <c r="AB54">
-        <v>114.59113427850248</v>
-      </c>
-      <c r="AC54">
-        <v>117.4059490803876</v>
-      </c>
-      <c r="AD54">
-        <v>117.03170159195601</v>
-      </c>
-      <c r="AE54">
-        <v>113.84036526790162</v>
-      </c>
-      <c r="AF54">
-        <v>115.2572188478706</v>
-      </c>
-      <c r="AG54">
-        <v>158.36327257637268</v>
-      </c>
-      <c r="AH54">
-        <v>162.40834089652799</v>
-      </c>
-      <c r="AI54">
-        <v>183.87784896244435</v>
-      </c>
-      <c r="AJ54">
-        <v>162.60794222486876</v>
-      </c>
-      <c r="AK54">
-        <v>-0.11567411114277171</v>
-      </c>
-      <c r="AL54">
-        <v>5.5274079123661002E-2</v>
-      </c>
-      <c r="AM54">
-        <v>0.69598753450765338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>119</v>
-      </c>
-      <c r="B55">
-        <v>3.0760574609605023</v>
-      </c>
-      <c r="C55">
-        <v>3.479917544922928</v>
-      </c>
-      <c r="D55">
-        <v>3.8268941070706939</v>
-      </c>
-      <c r="E55">
-        <v>4.0627802302719687</v>
-      </c>
-      <c r="F55">
-        <v>3.071308187948405</v>
-      </c>
-      <c r="G55">
-        <v>3.5043488948997545</v>
-      </c>
-      <c r="H55">
-        <v>4.3090667799024107</v>
-      </c>
-      <c r="I55">
-        <v>6.1387604863000638</v>
-      </c>
-      <c r="J55">
-        <v>7.6181460691113312</v>
-      </c>
-      <c r="K55">
-        <v>9.1176751322585421</v>
-      </c>
-      <c r="L55">
-        <v>9.0927059558469541</v>
-      </c>
-      <c r="M55">
-        <v>10.876533350320232</v>
-      </c>
-      <c r="N55">
-        <v>11.741854350564584</v>
-      </c>
-      <c r="O55">
-        <v>11.415110643485622</v>
-      </c>
-      <c r="P55">
-        <v>11.52133594924349</v>
-      </c>
-      <c r="Q55">
-        <v>11.857141572645482</v>
-      </c>
-      <c r="R55">
-        <v>11.05849634475889</v>
-      </c>
-      <c r="S55">
-        <v>11.660961998475738</v>
-      </c>
-      <c r="T55">
-        <v>10.850524587787627</v>
-      </c>
-      <c r="U55">
-        <v>10.305321007157016</v>
-      </c>
-      <c r="V55">
-        <v>10.984726181118139</v>
-      </c>
-      <c r="W55">
-        <v>11.860208430648997</v>
-      </c>
-      <c r="X55">
-        <v>10.427887873375314</v>
-      </c>
-      <c r="Y55">
-        <v>11.524013860517789</v>
-      </c>
-      <c r="Z55">
-        <v>13.691544260223033</v>
-      </c>
-      <c r="AA55">
-        <v>43.669864132972741</v>
-      </c>
-      <c r="AB55">
-        <v>38.86177537361197</v>
-      </c>
-      <c r="AC55">
-        <v>37.074702225444881</v>
-      </c>
-      <c r="AD55">
-        <v>39.894363900520808</v>
-      </c>
-      <c r="AE55">
-        <v>50.687612430651875</v>
-      </c>
-      <c r="AF55">
-        <v>46.375273339828965</v>
-      </c>
-      <c r="AG55">
-        <v>61.181186912729281</v>
-      </c>
-      <c r="AH55">
-        <v>65.935095861229939</v>
-      </c>
-      <c r="AI55">
-        <v>64.990347706126045</v>
-      </c>
-      <c r="AJ55">
-        <v>71.028343143228753</v>
-      </c>
-      <c r="AK55">
-        <v>9.2906033745278283E-2</v>
-      </c>
-      <c r="AL55">
-        <v>0.18884301064103037</v>
-      </c>
-      <c r="AM55">
-        <v>0.3040124654923464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B56">
-        <v>38.982649167281316</v>
-      </c>
-      <c r="C56">
-        <v>36.269508498116735</v>
-      </c>
-      <c r="D56">
-        <v>34.095175285222965</v>
-      </c>
-      <c r="E56">
-        <v>39.276300094467459</v>
-      </c>
-      <c r="F56">
-        <v>43.220587989086823</v>
-      </c>
-      <c r="G56">
-        <v>39.305835482421081</v>
-      </c>
-      <c r="H56">
-        <v>35.313986952161692</v>
-      </c>
-      <c r="I56">
-        <v>37.477318896072369</v>
-      </c>
-      <c r="J56">
-        <v>36.401076096435688</v>
-      </c>
-      <c r="K56">
-        <v>35.400954799798612</v>
-      </c>
-      <c r="L56">
-        <v>42.942111454211712</v>
-      </c>
-      <c r="M56">
-        <v>41.620215052264896</v>
-      </c>
-      <c r="N56">
-        <v>42.858567578059485</v>
-      </c>
-      <c r="O56">
-        <v>54.582044400212702</v>
-      </c>
-      <c r="P56">
-        <v>59.100227019690337</v>
-      </c>
-      <c r="Q56">
-        <v>62.273540768899927</v>
-      </c>
-      <c r="R56">
-        <v>61.222482178708951</v>
-      </c>
-      <c r="S56">
-        <v>61.205018635144476</v>
-      </c>
-      <c r="T56">
-        <v>65.177442538769867</v>
-      </c>
-      <c r="U56">
-        <v>66.617212683698611</v>
-      </c>
-      <c r="V56">
-        <v>72.319795043177322</v>
-      </c>
-      <c r="W56">
-        <v>72.55095840128152</v>
-      </c>
-      <c r="X56">
-        <v>72.961008606024535</v>
-      </c>
-      <c r="Y56">
-        <v>69.441849244249767</v>
-      </c>
-      <c r="Z56">
-        <v>64.798042525268272</v>
-      </c>
-      <c r="AA56">
-        <v>71.25101062656114</v>
-      </c>
-      <c r="AB56">
-        <v>69.145163681594724</v>
-      </c>
-      <c r="AC56">
-        <v>73.000286597925452</v>
-      </c>
-      <c r="AD56">
-        <v>73.881979819357369</v>
-      </c>
-      <c r="AE56">
-        <v>74.337315476084868</v>
-      </c>
-      <c r="AF56">
-        <v>76.000708833252986</v>
-      </c>
-      <c r="AG56">
-        <v>79.639611589229261</v>
-      </c>
-      <c r="AH56">
-        <v>77.50167060433084</v>
-      </c>
-      <c r="AI56">
-        <v>77.896174016848846</v>
-      </c>
-      <c r="AJ56">
-        <v>67.165901010519534</v>
-      </c>
-      <c r="AK56">
-        <v>-0.13775096327591607</v>
-      </c>
-      <c r="AL56">
-        <v>1.1554962414065173E-2</v>
-      </c>
-      <c r="AM56">
         <v>0.28748060646786361</v>
       </c>
     </row>

--- a/Big_DF/source_data/Energy/bp_stats_collect.xlsx
+++ b/Big_DF/source_data/Energy/bp_stats_collect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\letzten_Vorlesungen\Prog_R-Python_DataScience\data_analysis\DataAnalysis_Repo\Big_DF\source_data\Energy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roberto\Documents\letzten_Vorlesungen\Prog_R-Python_DataScience\data_collection\DataCollection_repo\Energy_Data\source_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25525422-DB39-4E48-85EA-E49C645C321C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA11FA4B-4B14-481A-AD75-088244B9C190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="6" xr2:uid="{94DF62BA-EE3E-4DD5-B054-B89525411A29}"/>
   </bookViews>
@@ -21,9 +21,6 @@
     <sheet name="Elect_gener" sheetId="6" r:id="rId6"/>
     <sheet name="Elect_gener_other" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Elect_gener_other!$A$1:$AM$48</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -42,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="123">
   <si>
     <t>2008-2018</t>
   </si>
@@ -412,9 +409,6 @@
   <si>
     <t xml:space="preserve">                 European Union </t>
   </si>
-  <si>
-    <t>United States</t>
-  </si>
 </sst>
 </file>
 
@@ -63160,9 +63154,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D29BBAC-7933-4C58-B164-72F3C828B12A}">
-  <dimension ref="A1:AM48"/>
+  <dimension ref="A1:AM56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -63285,2627 +63281,2151 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.14240019999995468</v>
-      </c>
-      <c r="C2">
-        <v>0.13703300000008767</v>
-      </c>
-      <c r="D2">
-        <v>0.15969979999995587</v>
-      </c>
-      <c r="E2">
-        <v>0.19576460000000395</v>
-      </c>
-      <c r="F2">
-        <v>0.10199999999724696</v>
-      </c>
-      <c r="G2">
-        <v>0.15199999999710201</v>
-      </c>
-      <c r="H2">
-        <v>0.1519999999970878</v>
-      </c>
-      <c r="I2">
-        <v>0.15799999999715908</v>
-      </c>
-      <c r="J2">
-        <v>0.16499999999675197</v>
-      </c>
-      <c r="K2">
-        <v>0.16499999999673776</v>
-      </c>
-      <c r="L2">
-        <v>1.5611370833492657</v>
-      </c>
-      <c r="M2">
-        <v>1.6460655265861277</v>
-      </c>
-      <c r="N2">
-        <v>1.692926296403499</v>
-      </c>
-      <c r="O2">
-        <v>1.7939128638523982</v>
-      </c>
-      <c r="P2">
-        <v>1.7938056309687909</v>
-      </c>
-      <c r="Q2">
-        <v>1.8524084014606785</v>
-      </c>
-      <c r="R2">
-        <v>1.8432131817546065</v>
-      </c>
-      <c r="S2">
-        <v>1.9244420905320681</v>
-      </c>
-      <c r="T2">
-        <v>1.7501082311970606</v>
-      </c>
-      <c r="U2">
-        <v>1.915086021501736</v>
-      </c>
-      <c r="V2">
-        <v>1.9150860215018213</v>
-      </c>
-      <c r="W2">
-        <v>2.3790645161254815</v>
-      </c>
-      <c r="X2">
-        <v>2.8727204301035272</v>
-      </c>
-      <c r="Y2">
-        <v>3.7841182795700377</v>
-      </c>
-      <c r="Z2">
-        <v>3.791345161290451</v>
-      </c>
-      <c r="AA2">
-        <v>4.0601870967740012</v>
-      </c>
-      <c r="AB2">
-        <v>4.2404322580644873</v>
-      </c>
-      <c r="AC2">
-        <v>3.7174516129033748</v>
-      </c>
-      <c r="AD2">
-        <v>3.7939956989247889</v>
-      </c>
-      <c r="AE2">
-        <v>0.40904946236554451</v>
-      </c>
-      <c r="AF2">
-        <v>0.45723655913985795</v>
-      </c>
-      <c r="AG2">
-        <v>0.57229032258035772</v>
-      </c>
-      <c r="AH2">
-        <v>0.52067741935468348</v>
-      </c>
-      <c r="AI2">
-        <v>0.7378817204299537</v>
-      </c>
-      <c r="AJ2">
-        <v>0.67008599061819041</v>
-      </c>
-      <c r="AK2">
-        <v>-9.187885799943607E-2</v>
-      </c>
-      <c r="AL2">
-        <v>-0.15081521367504402</v>
-      </c>
-      <c r="AM2">
-        <v>2.8680732941908389E-3</v>
-      </c>
-    </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.14240019999995468</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.13703300000008767</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.15969979999995587</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.19576460000000395</v>
       </c>
       <c r="F3">
-        <v>-7.7039999999328757E-4</v>
+        <v>0.10199999999724696</v>
       </c>
       <c r="G3">
-        <v>1.901000000032127E-3</v>
+        <v>0.15199999999710201</v>
       </c>
       <c r="H3">
-        <v>6.2400000003037803E-4</v>
+        <v>0.1519999999970878</v>
       </c>
       <c r="I3">
-        <v>1.007800000039083E-3</v>
+        <v>0.15799999999715908</v>
       </c>
       <c r="J3">
-        <v>1.05040000002532E-3</v>
+        <v>0.16499999999675197</v>
       </c>
       <c r="K3">
-        <v>3.6240000000731243E-3</v>
+        <v>0.16499999999673776</v>
       </c>
       <c r="L3">
-        <v>2.4734000000563583E-3</v>
+        <v>1.5611370833492657</v>
       </c>
       <c r="M3">
-        <v>1.7902000000020735E-3</v>
+        <v>1.6460655265861277</v>
       </c>
       <c r="N3">
-        <v>4.719800000046348E-3</v>
+        <v>1.692926296403499</v>
       </c>
       <c r="O3">
-        <v>-1.9375999999340365E-3</v>
+        <v>1.7939128638523982</v>
       </c>
       <c r="P3">
-        <v>3.5215999999991254E-3</v>
+        <v>1.7938056309687909</v>
       </c>
       <c r="Q3">
-        <v>3.5033999999996013E-3</v>
+        <v>1.8524084014606785</v>
       </c>
       <c r="R3">
-        <v>2.315000000010059E-3</v>
+        <v>1.8432131817546065</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1.9244420905320681</v>
       </c>
       <c r="T3">
-        <v>5.2876582045544467</v>
+        <v>1.7501082311970606</v>
       </c>
       <c r="U3">
-        <v>3.6313927185933608</v>
+        <v>1.915086021501736</v>
       </c>
       <c r="V3">
-        <v>9.3148802961551951</v>
+        <v>1.9150860215018213</v>
       </c>
       <c r="W3">
-        <v>5.736857820536386</v>
+        <v>2.3790645161254815</v>
       </c>
       <c r="X3">
-        <v>5.0892240162671385</v>
+        <v>2.8727204301035272</v>
       </c>
       <c r="Y3">
-        <v>6.6097044505520728</v>
+        <v>3.7841182795700377</v>
       </c>
       <c r="Z3">
-        <v>5.9850764956480589</v>
+        <v>3.791345161290451</v>
       </c>
       <c r="AA3">
-        <v>3.9130104840105275</v>
+        <v>4.0601870967740012</v>
       </c>
       <c r="AB3">
-        <v>2.4019218578267498</v>
+        <v>4.2404322580644873</v>
       </c>
       <c r="AC3">
-        <v>1.5864613581650246</v>
+        <v>3.7174516129033748</v>
       </c>
       <c r="AD3">
-        <v>0.76718259743626049</v>
+        <v>3.7939956989247889</v>
       </c>
       <c r="AE3">
-        <v>0.65548478308838298</v>
+        <v>0.40904946236554451</v>
       </c>
       <c r="AF3">
-        <v>0.28407672572760134</v>
+        <v>0.45723655913985795</v>
       </c>
       <c r="AG3">
-        <v>0.87616433821000328</v>
+        <v>0.57229032258035772</v>
       </c>
       <c r="AH3">
-        <v>3.5065693439910888</v>
+        <v>0.52067741935468348</v>
       </c>
       <c r="AI3">
-        <v>20.555160654110693</v>
+        <v>0.7378817204299537</v>
       </c>
       <c r="AJ3">
-        <v>21.550522263220842</v>
+        <v>0.67008599061819041</v>
       </c>
       <c r="AK3">
-        <v>4.8423927492441843E-2</v>
+        <v>-9.187885799943607E-2</v>
       </c>
       <c r="AL3">
-        <v>0.12014406844476611</v>
+        <v>-0.15081521367504402</v>
       </c>
       <c r="AM3">
-        <v>9.2239620353780499E-2</v>
+        <v>2.8680732941908389E-3</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3438591397853088</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.36840537634361681</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.37308655914034716</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0.39691290322616624</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>4.926283333333231</v>
+        <v>-7.7039999999328757E-4</v>
       </c>
       <c r="G4">
-        <v>10.672408748777343</v>
+        <v>1.901000000032127E-3</v>
       </c>
       <c r="H4">
-        <v>13.009214532420629</v>
+        <v>6.2400000003037803E-4</v>
       </c>
       <c r="I4">
-        <v>13.797283137830163</v>
+        <v>1.007800000039083E-3</v>
       </c>
       <c r="J4">
-        <v>13.932803633104868</v>
+        <v>1.05040000002532E-3</v>
       </c>
       <c r="K4">
-        <v>13.696135304659038</v>
+        <v>3.6240000000731243E-3</v>
       </c>
       <c r="L4">
-        <v>13.723072091886479</v>
+        <v>2.4734000000563583E-3</v>
       </c>
       <c r="M4">
-        <v>14.361924470511894</v>
+        <v>1.7902000000020735E-3</v>
       </c>
       <c r="N4">
-        <v>15.752256744868646</v>
+        <v>4.719800000046348E-3</v>
       </c>
       <c r="O4">
-        <v>16.581186298467856</v>
+        <v>-1.9375999999340365E-3</v>
       </c>
       <c r="P4">
-        <v>18.294061795373182</v>
+        <v>3.5215999999991254E-3</v>
       </c>
       <c r="Q4">
-        <v>18.030998403388367</v>
+        <v>3.5033999999996013E-3</v>
       </c>
       <c r="R4">
-        <v>12.227130922125525</v>
+        <v>2.315000000010059E-3</v>
       </c>
       <c r="S4">
-        <v>13.975488791137195</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>14.545181003583821</v>
+        <v>5.2876582045544467</v>
       </c>
       <c r="U4">
-        <v>14.750847344411795</v>
+        <v>3.6313927185933608</v>
       </c>
       <c r="V4">
-        <v>13.359156239818731</v>
+        <v>9.3148802961551951</v>
       </c>
       <c r="W4">
-        <v>13.524135516455317</v>
+        <v>5.736857820536386</v>
       </c>
       <c r="X4">
-        <v>12.70203040078195</v>
+        <v>5.0892240162671385</v>
       </c>
       <c r="Y4">
-        <v>12.281998207884044</v>
+        <v>6.6097044505520728</v>
       </c>
       <c r="Z4">
-        <v>12.524094573922412</v>
+        <v>5.9850764956480589</v>
       </c>
       <c r="AA4">
-        <v>13.464263506027237</v>
+        <v>3.9130104840105275</v>
       </c>
       <c r="AB4">
-        <v>14.801048191593509</v>
+        <v>2.4019218578267498</v>
       </c>
       <c r="AC4">
-        <v>14.502507461714231</v>
+        <v>1.5864613581650246</v>
       </c>
       <c r="AD4">
-        <v>14.305665623980985</v>
+        <v>0.76718259743626049</v>
       </c>
       <c r="AE4">
-        <v>14.071837178233636</v>
+        <v>0.65548478308838298</v>
       </c>
       <c r="AF4">
-        <v>14.751862333007466</v>
+        <v>0.28407672572760134</v>
       </c>
       <c r="AG4">
-        <v>14.353594819159753</v>
+        <v>0.87616433821000328</v>
       </c>
       <c r="AH4">
-        <v>13.688821537959939</v>
+        <v>3.5065693439910888</v>
       </c>
       <c r="AI4">
-        <v>13.619731345713717</v>
+        <v>20.555160654110693</v>
       </c>
       <c r="AJ4">
-        <v>13.960466699249082</v>
+        <v>21.550522263220842</v>
       </c>
       <c r="AK4">
-        <v>2.5017773470443538E-2</v>
+        <v>4.8423927492441843E-2</v>
       </c>
       <c r="AL4">
-        <v>1.0392121437514223E-2</v>
+        <v>0.12014406844476611</v>
       </c>
       <c r="AM4">
-        <v>5.9752990325343307E-2</v>
+        <v>9.2239620353780499E-2</v>
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>0.48625933978526348</v>
+        <v>0.3438591397853088</v>
       </c>
       <c r="C5">
-        <v>0.50543837634370448</v>
+        <v>0.36840537634361681</v>
       </c>
       <c r="D5">
-        <v>0.53278635914030303</v>
+        <v>0.37308655914034716</v>
       </c>
       <c r="E5">
-        <v>0.59267750322617019</v>
+        <v>0.39691290322616624</v>
       </c>
       <c r="F5">
-        <v>5.0275129333304847</v>
+        <v>4.926283333333231</v>
       </c>
       <c r="G5">
-        <v>10.826309748774477</v>
+        <v>10.672408748777343</v>
       </c>
       <c r="H5">
-        <v>13.161838532417747</v>
+        <v>13.009214532420629</v>
       </c>
       <c r="I5">
-        <v>13.956290937827362</v>
+        <v>13.797283137830163</v>
       </c>
       <c r="J5">
-        <v>14.098854033101645</v>
+        <v>13.932803633104868</v>
       </c>
       <c r="K5">
-        <v>13.864759304655848</v>
+        <v>13.696135304659038</v>
       </c>
       <c r="L5">
-        <v>15.286682575235801</v>
+        <v>13.723072091886479</v>
       </c>
       <c r="M5">
-        <v>16.009780197098024</v>
+        <v>14.361924470511894</v>
       </c>
       <c r="N5">
-        <v>17.449902841272191</v>
+        <v>15.752256744868646</v>
       </c>
       <c r="O5">
-        <v>18.37316156232032</v>
+        <v>16.581186298467856</v>
       </c>
       <c r="P5">
-        <v>20.091389026341972</v>
+        <v>18.294061795373182</v>
       </c>
       <c r="Q5">
-        <v>19.886910204849045</v>
+        <v>18.030998403388367</v>
       </c>
       <c r="R5">
-        <v>14.072659103880142</v>
+        <v>12.227130922125525</v>
       </c>
       <c r="S5">
-        <v>15.899930881669263</v>
+        <v>13.975488791137195</v>
       </c>
       <c r="T5">
-        <v>21.582947439335328</v>
+        <v>14.545181003583821</v>
       </c>
       <c r="U5">
-        <v>20.297326084506892</v>
+        <v>14.750847344411795</v>
       </c>
       <c r="V5">
-        <v>24.589122557475747</v>
+        <v>13.359156239818731</v>
       </c>
       <c r="W5">
-        <v>21.640057853117185</v>
+        <v>13.524135516455317</v>
       </c>
       <c r="X5">
-        <v>20.663974847152616</v>
+        <v>12.70203040078195</v>
       </c>
       <c r="Y5">
-        <v>22.675820938006154</v>
+        <v>12.281998207884044</v>
       </c>
       <c r="Z5">
-        <v>22.300516230860921</v>
+        <v>12.524094573922412</v>
       </c>
       <c r="AA5">
-        <v>21.437461086811766</v>
+        <v>13.464263506027237</v>
       </c>
       <c r="AB5">
-        <v>21.443402307484746</v>
+        <v>14.801048191593509</v>
       </c>
       <c r="AC5">
-        <v>19.80642043278263</v>
+        <v>14.502507461714231</v>
       </c>
       <c r="AD5">
-        <v>18.866843920342035</v>
+        <v>14.305665623980985</v>
       </c>
       <c r="AE5">
-        <v>15.136371423687564</v>
+        <v>14.071837178233636</v>
       </c>
       <c r="AF5">
-        <v>15.493175617874925</v>
+        <v>14.751862333007466</v>
       </c>
       <c r="AG5">
-        <v>15.802049479950114</v>
+        <v>14.353594819159753</v>
       </c>
       <c r="AH5">
-        <v>17.716068301305711</v>
+        <v>13.688821537959939</v>
       </c>
       <c r="AI5">
-        <v>34.912773720254364</v>
+        <v>13.619731345713717</v>
       </c>
       <c r="AJ5">
-        <v>36.181074953088114</v>
+        <v>13.960466699249082</v>
       </c>
       <c r="AK5">
-        <v>3.6327713260374761E-2</v>
+        <v>2.5017773470443538E-2</v>
       </c>
       <c r="AL5">
-        <v>4.4100090668800052E-2</v>
+        <v>1.0392121437514223E-2</v>
       </c>
       <c r="AM5">
-        <v>0.15486068397331465</v>
+        <v>5.9752990325343307E-2</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1.1592600000000175E-2</v>
+        <v>0.48625933978526348</v>
       </c>
       <c r="C6">
-        <v>1.7369999999999663E-2</v>
+        <v>0.50543837634370448</v>
       </c>
       <c r="D6">
-        <v>4.8870399999994873E-2</v>
+        <v>0.53278635914030303</v>
       </c>
       <c r="E6">
-        <v>0.77102720000000602</v>
+        <v>0.59267750322617019</v>
       </c>
       <c r="F6">
-        <v>0.36302640000000252</v>
+        <v>5.0275129333304847</v>
       </c>
       <c r="G6">
-        <v>0.2899051999999962</v>
+        <v>10.826309748774477</v>
       </c>
       <c r="H6">
-        <v>0.21037620000000601</v>
+        <v>13.161838532417747</v>
       </c>
       <c r="I6">
-        <v>0.22929819999978918</v>
+        <v>13.956290937827362</v>
       </c>
       <c r="J6">
-        <v>0.29362759999975196</v>
+        <v>14.098854033101645</v>
       </c>
       <c r="K6">
-        <v>0.30876159999962738</v>
+        <v>13.864759304655848</v>
       </c>
       <c r="L6">
-        <v>0.15462059999967437</v>
+        <v>15.286682575235801</v>
       </c>
       <c r="M6">
-        <v>7.3947199999665258E-2</v>
+        <v>16.009780197098024</v>
       </c>
       <c r="N6">
-        <v>0.1687587999996083</v>
+        <v>17.449902841272191</v>
       </c>
       <c r="O6">
-        <v>0.15952779999962274</v>
+        <v>18.37316156232032</v>
       </c>
       <c r="P6">
-        <v>0.27739519999970241</v>
+        <v>20.091389026341972</v>
       </c>
       <c r="Q6">
-        <v>6.8321199999594739E-2</v>
+        <v>19.886910204849045</v>
       </c>
       <c r="R6">
-        <v>2.17817999994665E-2</v>
+        <v>14.072659103880142</v>
       </c>
       <c r="S6">
-        <v>3.7349799999482514E-2</v>
+        <v>15.899930881669263</v>
       </c>
       <c r="T6">
-        <v>2.8012799999494575E-2</v>
+        <v>21.582947439335328</v>
       </c>
       <c r="U6">
-        <v>9.5790199999605363E-2</v>
+        <v>20.297326084506892</v>
       </c>
       <c r="V6">
-        <v>0.25374759999958485</v>
+        <v>24.589122557475747</v>
       </c>
       <c r="W6">
-        <v>0.20700000000000784</v>
+        <v>21.640057853117185</v>
       </c>
       <c r="X6">
-        <v>0.34000009999999747</v>
+        <v>20.663974847152616</v>
       </c>
       <c r="Y6">
-        <v>0.3229999879999923</v>
+        <v>22.675820938006154</v>
       </c>
       <c r="Z6">
-        <v>0.42899999999998784</v>
+        <v>22.300516230860921</v>
       </c>
       <c r="AA6">
-        <v>0.33099999999998886</v>
+        <v>21.437461086811766</v>
       </c>
       <c r="AB6">
-        <v>0.3370000000000033</v>
+        <v>21.443402307484746</v>
       </c>
       <c r="AC6">
-        <v>0.61299999999999955</v>
+        <v>19.80642043278263</v>
       </c>
       <c r="AD6">
-        <v>0.59700000000002262</v>
+        <v>18.866843920342035</v>
       </c>
       <c r="AE6">
-        <v>0.83100000000000307</v>
+        <v>15.136371423687564</v>
       </c>
       <c r="AF6">
-        <v>0.85100000000004172</v>
+        <v>15.493175617874925</v>
       </c>
       <c r="AG6">
-        <v>0.71106849315070519</v>
+        <v>15.802049479950114</v>
       </c>
       <c r="AH6">
-        <v>0.5429247202712304</v>
+        <v>17.716068301305711</v>
       </c>
       <c r="AI6">
-        <v>0.5378217673648038</v>
+        <v>34.912773720254364</v>
       </c>
       <c r="AJ6">
-        <v>0.47866365515110942</v>
+        <v>36.181074953088114</v>
       </c>
       <c r="AK6">
-        <v>-0.10999575659340599</v>
+        <v>3.6327713260374761E-2</v>
       </c>
       <c r="AL6">
-        <v>5.2309732150081611E-2</v>
+        <v>4.4100090668800052E-2</v>
       </c>
       <c r="AM6">
-        <v>2.0487556305604135E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>2.0400000000364571E-5</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1.0000000000864873E-4</v>
-      </c>
-      <c r="L7">
-        <v>1.0000000001753051E-4</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>5.0639593911938618E-4</v>
-      </c>
-      <c r="O7">
-        <v>1.7999999999673832E-4</v>
-      </c>
-      <c r="P7">
-        <v>3.0600000012981354E-5</v>
-      </c>
-      <c r="Q7">
-        <v>2.7598399999817502E-4</v>
-      </c>
-      <c r="R7">
-        <v>9.9999999982003374E-5</v>
-      </c>
-      <c r="S7">
-        <v>1.9999999998532303E-4</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>9.907548697896118E-5</v>
-      </c>
-      <c r="W7">
-        <v>-6.5837209302479494E-2</v>
-      </c>
-      <c r="X7">
-        <v>-1.1147417197321374E-4</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>4.4200000002092565E-4</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>1.6614900663398657E-3</v>
-      </c>
-      <c r="AD7">
-        <v>2.5471101600800239E-3</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
+        <v>0.15486068397331465</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1.2000000000000843E-2</v>
+        <v>1.1592600000000175E-2</v>
       </c>
       <c r="C8">
-        <v>1.7999999999999794E-2</v>
+        <v>1.7369999999999663E-2</v>
       </c>
       <c r="D8">
-        <v>1.0999999999994861E-2</v>
+        <v>4.8870399999994873E-2</v>
       </c>
       <c r="E8">
-        <v>8.3999999999997896E-2</v>
+        <v>0.77102720000000602</v>
       </c>
       <c r="F8">
-        <v>6.8999999999998507E-2</v>
+        <v>0.36302640000000252</v>
       </c>
       <c r="G8">
-        <v>2.4052631578950774E-2</v>
+        <v>0.2899051999999962</v>
       </c>
       <c r="H8">
-        <v>3.7501052631576229E-2</v>
+        <v>0.21037620000000601</v>
       </c>
       <c r="I8">
-        <v>3.5274736842105373E-2</v>
+        <v>0.22929819999978918</v>
       </c>
       <c r="J8">
-        <v>3.597503455608643E-2</v>
+        <v>0.29362759999975196</v>
       </c>
       <c r="K8">
-        <v>5.0735560871879359E-2</v>
+        <v>0.30876159999962738</v>
       </c>
       <c r="L8">
-        <v>5.8069245082406198E-2</v>
+        <v>0.15462059999967437</v>
       </c>
       <c r="M8">
-        <v>0.13476263157894741</v>
+        <v>7.3947199999665258E-2</v>
       </c>
       <c r="N8">
-        <v>0.20135052631579439</v>
+        <v>0.1687587999996083</v>
       </c>
       <c r="O8">
-        <v>0.20364215705292377</v>
+        <v>0.15952779999962274</v>
       </c>
       <c r="P8">
-        <v>8.6340379822588548E-2</v>
+        <v>0.27739519999970241</v>
       </c>
       <c r="Q8">
-        <v>5.2947368421318863E-4</v>
+        <v>6.8321199999594739E-2</v>
       </c>
       <c r="R8">
-        <v>-5.0000000000238742E-4</v>
+        <v>2.17817999994665E-2</v>
       </c>
       <c r="S8">
-        <v>1.8999999999969042E-4</v>
+        <v>3.7349799999482514E-2</v>
       </c>
       <c r="T8">
-        <v>2.4869999999998171E-2</v>
+        <v>2.8012799999494575E-2</v>
       </c>
       <c r="U8">
-        <v>2.4680000000001812E-2</v>
+        <v>9.5790199999605363E-2</v>
       </c>
       <c r="V8">
-        <v>2.2180000000000977E-2</v>
+        <v>0.25374759999958485</v>
       </c>
       <c r="W8">
-        <v>2.2571000000000563E-2</v>
+        <v>0.20700000000000784</v>
       </c>
       <c r="X8">
-        <v>3.2879999999994691E-2</v>
+        <v>0.34000009999999747</v>
       </c>
       <c r="Y8">
-        <v>2.6106000000050145E-3</v>
+        <v>0.3229999879999923</v>
       </c>
       <c r="Z8">
-        <v>8.7954009999999805E-2</v>
+        <v>0.42899999999998784</v>
       </c>
       <c r="AA8">
-        <v>8.3120465356901541</v>
+        <v>0.33099999999998886</v>
       </c>
       <c r="AB8">
-        <v>2.4192786413398171E-2</v>
+        <v>0.3370000000000033</v>
       </c>
       <c r="AC8">
-        <v>0.3717742500000083</v>
+        <v>0.61299999999999955</v>
       </c>
       <c r="AD8">
-        <v>5.5583630000003104E-2</v>
+        <v>0.59700000000002262</v>
       </c>
       <c r="AE8">
-        <v>8.5249236522999947</v>
+        <v>0.83100000000000307</v>
       </c>
       <c r="AF8">
-        <v>1.40445010695854</v>
+        <v>0.85100000000004172</v>
       </c>
       <c r="AG8">
-        <v>0.11227754561822739</v>
+        <v>0.71106849315070519</v>
       </c>
       <c r="AH8">
-        <v>-0.3441027942957241</v>
+        <v>0.5429247202712304</v>
       </c>
       <c r="AI8">
-        <v>-7.4073752897579642E-2</v>
+        <v>0.5378217673648038</v>
       </c>
       <c r="AJ8">
-        <v>-0.11779237958839626</v>
+        <v>0.47866365515110942</v>
       </c>
       <c r="AK8">
-        <v>0.59020401938140665</v>
+        <v>-0.10999575659340599</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>5.2309732150081611E-2</v>
       </c>
       <c r="AM8">
-        <v>-5.0416988697972388E-4</v>
+        <v>2.0487556305604135E-3</v>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>2.3592600000001018E-2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.5369999999999457E-2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>5.9870399999989735E-2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.85502720000000387</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.43202640000000103</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.31395783157894697</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.24789765263158259</v>
+        <v>2.0400000000364571E-5</v>
       </c>
       <c r="I9">
-        <v>0.26457293684189453</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.32960263455583838</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.35959716087151539</v>
+        <v>1.0000000000864873E-4</v>
       </c>
       <c r="L9">
-        <v>0.21278984508209808</v>
+        <v>1.0000000001753051E-4</v>
       </c>
       <c r="M9">
-        <v>0.20870983157861267</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.37061572225452211</v>
+        <v>5.0639593911938618E-4</v>
       </c>
       <c r="O9">
-        <v>0.36334995705254325</v>
+        <v>1.7999999999673832E-4</v>
       </c>
       <c r="P9">
-        <v>0.36376617982230397</v>
+        <v>3.0600000012981354E-5</v>
       </c>
       <c r="Q9">
-        <v>6.9126657683806103E-2</v>
+        <v>2.7598399999817502E-4</v>
       </c>
       <c r="R9">
-        <v>2.1381799999446116E-2</v>
+        <v>9.9999999982003374E-5</v>
       </c>
       <c r="S9">
-        <v>3.7739799999467527E-2</v>
+        <v>1.9999999998532303E-4</v>
       </c>
       <c r="T9">
-        <v>5.2882799999492747E-2</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>0.12047019999960717</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>0.27602667548656479</v>
+        <v>9.907548697896118E-5</v>
       </c>
       <c r="W9">
-        <v>0.16373379069752891</v>
+        <v>-6.5837209302479494E-2</v>
       </c>
       <c r="X9">
-        <v>0.37276862582801895</v>
+        <v>-1.1147417197321374E-4</v>
       </c>
       <c r="Y9">
-        <v>0.32561058799999731</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.51695400999998764</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>8.6434885356901638</v>
+        <v>4.4200000002092565E-4</v>
       </c>
       <c r="AB9">
-        <v>0.36119278641340147</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0.98643574006634771</v>
+        <v>1.6614900663398657E-3</v>
       </c>
       <c r="AD9">
-        <v>0.65513074016010575</v>
+        <v>2.5471101600800239E-3</v>
       </c>
       <c r="AE9">
-        <v>9.3559236522999978</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>2.2554501069585817</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>0.82334603876893264</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>0.19882192597550627</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>0.46374801446722413</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0.36087127556271315</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>-0.22183758354782546</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>3.5996658080743593E-2</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>1.5445857435806894E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>14.388320662000012</v>
+        <v>1.2000000000000843E-2</v>
       </c>
       <c r="C10">
-        <v>14.133448643999998</v>
+        <v>1.7999999999999794E-2</v>
       </c>
       <c r="D10">
-        <v>13.680180705999987</v>
+        <v>1.0999999999994861E-2</v>
       </c>
       <c r="E10">
-        <v>15.626727395999978</v>
+        <v>8.3999999999997896E-2</v>
       </c>
       <c r="F10">
-        <v>16.067004306999991</v>
+        <v>6.8999999999998507E-2</v>
       </c>
       <c r="G10">
-        <v>20.157999999999959</v>
+        <v>2.4052631578950774E-2</v>
       </c>
       <c r="H10">
-        <v>16.200000000000102</v>
+        <v>3.7501052631576229E-2</v>
       </c>
       <c r="I10">
-        <v>16.293700000000172</v>
+        <v>3.5274736842105373E-2</v>
       </c>
       <c r="J10">
-        <v>15.819999999999993</v>
+        <v>3.597503455608643E-2</v>
       </c>
       <c r="K10">
-        <v>17.383199999999988</v>
+        <v>5.0735560871879359E-2</v>
       </c>
       <c r="L10">
-        <v>17.748000000000047</v>
+        <v>5.8069245082406198E-2</v>
       </c>
       <c r="M10">
-        <v>17.399000000000001</v>
+        <v>0.13476263157894741</v>
       </c>
       <c r="N10">
-        <v>17.463999999999942</v>
+        <v>0.20135052631579439</v>
       </c>
       <c r="O10">
-        <v>18.590000000000089</v>
+        <v>0.20364215705292377</v>
       </c>
       <c r="P10">
-        <v>19.300000000000182</v>
+        <v>8.6340379822588548E-2</v>
       </c>
       <c r="Q10">
-        <v>21.274250000000052</v>
+        <v>5.2947368421318863E-4</v>
       </c>
       <c r="R10">
-        <v>21.279499999999928</v>
+        <v>-5.0000000000238742E-4</v>
       </c>
       <c r="S10">
-        <v>18.6262499999998</v>
+        <v>1.8999999999969042E-4</v>
       </c>
       <c r="T10">
-        <v>20.305999999999926</v>
+        <v>2.4869999999998171E-2</v>
       </c>
       <c r="U10">
-        <v>21.226799999999912</v>
+        <v>2.4680000000001812E-2</v>
       </c>
       <c r="V10">
-        <v>24.146799999999985</v>
+        <v>2.2180000000000977E-2</v>
       </c>
       <c r="W10">
-        <v>25.400600000000111</v>
+        <v>2.2571000000000563E-2</v>
       </c>
       <c r="X10">
-        <v>26.558599999999899</v>
+        <v>3.2879999999994691E-2</v>
       </c>
       <c r="Y10">
-        <v>24.712400000000002</v>
+        <v>2.6106000000050145E-3</v>
       </c>
       <c r="Z10">
-        <v>21.125199999999893</v>
+        <v>8.7954009999999805E-2</v>
       </c>
       <c r="AA10">
-        <v>26.429300000000012</v>
+        <v>8.3120465356901541</v>
       </c>
       <c r="AB10">
-        <v>25.306199999999876</v>
+        <v>2.4192786413398171E-2</v>
       </c>
       <c r="AC10">
-        <v>26.109599999999887</v>
+        <v>0.3717742500000083</v>
       </c>
       <c r="AD10">
-        <v>26.180000000000064</v>
+        <v>5.5583630000003104E-2</v>
       </c>
       <c r="AE10">
-        <v>26.912999999999954</v>
+        <v>8.5249236522999947</v>
       </c>
       <c r="AF10">
-        <v>27.135208690000013</v>
+        <v>1.40445010695854</v>
       </c>
       <c r="AG10">
-        <v>27.543000000000006</v>
+        <v>0.11227754561822739</v>
       </c>
       <c r="AH10">
-        <v>26.743799999999965</v>
+        <v>-0.3441027942957241</v>
       </c>
       <c r="AI10">
-        <v>26.848000003000038</v>
+        <v>-7.4073752897579642E-2</v>
       </c>
       <c r="AJ10">
-        <v>25.731343394999953</v>
+        <v>-0.11779237958839626</v>
       </c>
       <c r="AK10">
-        <v>-4.1591798565081439E-2</v>
+        <v>0.59020401938140665</v>
       </c>
       <c r="AL10">
-        <v>8.3230645488212573E-3</v>
+        <v>0</v>
       </c>
       <c r="AM10">
-        <v>0.11013419150394309</v>
+        <v>-5.0416988697972388E-4</v>
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>3.5029999999999859</v>
+        <v>2.3592600000001018E-2</v>
       </c>
       <c r="C11">
-        <v>3.6169999999999902</v>
+        <v>3.5369999999999457E-2</v>
       </c>
       <c r="D11">
-        <v>3.29200000000003</v>
+        <v>5.9870399999989735E-2</v>
       </c>
       <c r="E11">
-        <v>3.0790000000000077</v>
+        <v>0.85502720000000387</v>
       </c>
       <c r="F11">
-        <v>5.4329797979797831</v>
+        <v>0.43202640000000103</v>
       </c>
       <c r="G11">
-        <v>4.5930808080807992</v>
+        <v>0.31395783157894697</v>
       </c>
       <c r="H11">
-        <v>4.3341212121212038</v>
+        <v>0.24789765263158259</v>
       </c>
       <c r="I11">
-        <v>4.4740808080807994</v>
+        <v>0.26457293684189453</v>
       </c>
       <c r="J11">
-        <v>5.6771616161616123</v>
+        <v>0.32960263455583838</v>
       </c>
       <c r="K11">
-        <v>3.9642828282827907</v>
+        <v>0.35959716087151539</v>
       </c>
       <c r="L11">
-        <v>5.2153636363636338</v>
+        <v>0.21278984508209808</v>
       </c>
       <c r="M11">
-        <v>6.1333333333333258</v>
+        <v>0.20870983157861267</v>
       </c>
       <c r="N11">
-        <v>6.5260000000000389</v>
+        <v>0.37061572225452211</v>
       </c>
       <c r="O11">
-        <v>7.9389999999999645</v>
+        <v>0.36334995705254325</v>
       </c>
       <c r="P11">
-        <v>8.5209999999999582</v>
+        <v>0.36376617982230397</v>
       </c>
       <c r="Q11">
-        <v>7.9870000000000232</v>
+        <v>6.9126657683806103E-2</v>
       </c>
       <c r="R11">
-        <v>8.6770000000000209</v>
+        <v>2.1381799999446116E-2</v>
       </c>
       <c r="S11">
-        <v>8.4389999999999645</v>
+        <v>3.7739799999467527E-2</v>
       </c>
       <c r="T11">
-        <v>9.5940000000000225</v>
+        <v>5.2882799999492747E-2</v>
       </c>
       <c r="U11">
-        <v>9.8870000000000005</v>
+        <v>0.12047019999960717</v>
       </c>
       <c r="V11">
-        <v>9.4070000000000391</v>
+        <v>0.27602667548656479</v>
       </c>
       <c r="W11">
-        <v>9.0432999999999595</v>
+        <v>0.16373379069752891</v>
       </c>
       <c r="X11">
-        <v>8.3729999999999336</v>
+        <v>0.37276862582801895</v>
       </c>
       <c r="Y11">
-        <v>8.19399999999996</v>
+        <v>0.32561058799999731</v>
       </c>
       <c r="Z11">
-        <v>6.6492999999999824</v>
+        <v>0.51695400999998764</v>
       </c>
       <c r="AA11">
-        <v>6.1816000000000315</v>
+        <v>8.6434885356901638</v>
       </c>
       <c r="AB11">
-        <v>5.016099999999966</v>
+        <v>0.36119278641340147</v>
       </c>
       <c r="AC11">
-        <v>4.9645000000000721</v>
+        <v>0.98643574006634771</v>
       </c>
       <c r="AD11">
-        <v>4.9063000000000159</v>
+        <v>0.65513074016010575</v>
       </c>
       <c r="AE11">
-        <v>4.7911000000000286</v>
+        <v>9.3559236522999978</v>
       </c>
       <c r="AF11">
-        <v>5.8569000000000244</v>
+        <v>2.2554501069585817</v>
       </c>
       <c r="AG11">
-        <v>6.8522000000000389</v>
+        <v>0.82334603876893264</v>
       </c>
       <c r="AH11">
-        <v>6.753565999999978</v>
+        <v>0.19882192597550627</v>
       </c>
       <c r="AI11">
-        <v>6.4533070000000237</v>
+        <v>0.46374801446722413</v>
       </c>
       <c r="AJ11">
-        <v>4.7051501208199227</v>
+        <v>0.36087127556271315</v>
       </c>
       <c r="AK11">
-        <v>-0.27089318378625016</v>
+        <v>-0.22183758354782546</v>
       </c>
       <c r="AL11">
-        <v>-2.3598053241767003E-2</v>
+        <v>3.5996658080743593E-2</v>
       </c>
       <c r="AM11">
-        <v>2.0138781582693315E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>2.3279999999999959</v>
-      </c>
-      <c r="C12">
-        <v>2.3010000000000019</v>
-      </c>
-      <c r="D12">
-        <v>2.2880000000000109</v>
-      </c>
-      <c r="E12">
-        <v>2.6470000000000056</v>
-      </c>
-      <c r="F12">
-        <v>2.708999999999989</v>
-      </c>
-      <c r="G12">
-        <v>0.48699999999999477</v>
-      </c>
-      <c r="H12">
-        <v>0.45000000000000284</v>
-      </c>
-      <c r="I12">
-        <v>0.57799999999998875</v>
-      </c>
-      <c r="J12">
-        <v>0.51900000000000546</v>
-      </c>
-      <c r="K12">
-        <v>0.55398999999999887</v>
-      </c>
-      <c r="L12">
-        <v>0.77500000000000568</v>
-      </c>
-      <c r="M12">
-        <v>0.88700000000000045</v>
-      </c>
-      <c r="N12">
-        <v>1.3730000000000331</v>
-      </c>
-      <c r="O12">
-        <v>4.9295150000000092</v>
-      </c>
-      <c r="P12">
-        <v>5.0880599999999987</v>
-      </c>
-      <c r="Q12">
-        <v>4.7072170000000284</v>
-      </c>
-      <c r="R12">
-        <v>4.8218889999999988</v>
-      </c>
-      <c r="S12">
-        <v>4.7405340000000109</v>
-      </c>
-      <c r="T12">
-        <v>5.6069410000000062</v>
-      </c>
-      <c r="U12">
-        <v>5.6522559999999942</v>
-      </c>
-      <c r="V12">
-        <v>5.7763990000000121</v>
-      </c>
-      <c r="W12">
-        <v>5.0010790000000043</v>
-      </c>
-      <c r="X12">
-        <v>5.6508090000000095</v>
-      </c>
-      <c r="Y12">
-        <v>5.3856430000000017</v>
-      </c>
-      <c r="Z12">
-        <v>5.0025190000000066</v>
-      </c>
-      <c r="AA12">
-        <v>6.2308879999999789</v>
-      </c>
-      <c r="AB12">
-        <v>6.3653469999999857</v>
-      </c>
-      <c r="AC12">
-        <v>6.7077859999999987</v>
-      </c>
-      <c r="AD12">
-        <v>5.9812480000000079</v>
-      </c>
-      <c r="AE12">
-        <v>5.9612929999999977</v>
-      </c>
-      <c r="AF12">
-        <v>5.4673169999999942</v>
-      </c>
-      <c r="AG12">
-        <v>5.9088590000000067</v>
-      </c>
-      <c r="AH12">
-        <v>6.0806710000000095</v>
-      </c>
-      <c r="AI12">
-        <v>5.576123999999993</v>
-      </c>
-      <c r="AJ12">
-        <v>4.9877222660407057</v>
-      </c>
-      <c r="AK12">
-        <v>-0.10552163724466812</v>
-      </c>
-      <c r="AL12">
-        <v>3.4817675335094833E-3</v>
-      </c>
-      <c r="AM12">
-        <v>2.1348234749505937E-2</v>
+        <v>1.5445857435806894E-3</v>
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>2.1830499999999802</v>
+        <v>14.388320662000012</v>
       </c>
       <c r="C13">
-        <v>2.4110100000000045</v>
+        <v>14.133448643999998</v>
       </c>
       <c r="D13">
-        <v>2.5288699999999835</v>
+        <v>13.680180705999987</v>
       </c>
       <c r="E13">
-        <v>2.5204299999999762</v>
+        <v>15.626727395999978</v>
       </c>
       <c r="F13">
-        <v>2.2784899999999766</v>
+        <v>16.067004306999991</v>
       </c>
       <c r="G13">
-        <v>2.0989999999999895</v>
+        <v>20.157999999999959</v>
       </c>
       <c r="H13">
-        <v>2.3410000000000082</v>
+        <v>16.200000000000102</v>
       </c>
       <c r="I13">
-        <v>2.3760000000000048</v>
+        <v>16.293700000000172</v>
       </c>
       <c r="J13">
-        <v>2.3919999999999675</v>
+        <v>15.819999999999993</v>
       </c>
       <c r="K13">
-        <v>2.3590000000000089</v>
+        <v>17.383199999999988</v>
       </c>
       <c r="L13">
-        <v>2.2609999999999673</v>
+        <v>17.748000000000047</v>
       </c>
       <c r="M13">
-        <v>2.25</v>
+        <v>17.399000000000001</v>
       </c>
       <c r="N13">
-        <v>2.2889999999999304</v>
+        <v>17.463999999999942</v>
       </c>
       <c r="O13">
-        <v>2.0480000000000587</v>
+        <v>18.590000000000089</v>
       </c>
       <c r="P13">
-        <v>2.1570000000000107</v>
+        <v>19.300000000000182</v>
       </c>
       <c r="Q13">
-        <v>2.0870000000000175</v>
+        <v>21.274250000000052</v>
       </c>
       <c r="R13">
-        <v>1.9700000000000273</v>
+        <v>21.279499999999928</v>
       </c>
       <c r="S13">
-        <v>1.7800000000000011</v>
+        <v>18.6262499999998</v>
       </c>
       <c r="T13">
-        <v>1.6519999999999868</v>
+        <v>20.305999999999926</v>
       </c>
       <c r="U13">
-        <v>1.6999999999999886</v>
+        <v>21.226799999999912</v>
       </c>
       <c r="V13">
-        <v>1.674000000000035</v>
+        <v>24.146799999999985</v>
       </c>
       <c r="W13">
-        <v>1.0839999999999748</v>
+        <v>25.400600000000111</v>
       </c>
       <c r="X13">
-        <v>0.68000000000003524</v>
+        <v>26.558599999999899</v>
       </c>
       <c r="Y13">
-        <v>0.68139999999999645</v>
+        <v>24.712400000000002</v>
       </c>
       <c r="Z13">
-        <v>0.65869999999998186</v>
+        <v>21.125199999999893</v>
       </c>
       <c r="AA13">
-        <v>0.69650000000001455</v>
+        <v>26.429300000000012</v>
       </c>
       <c r="AB13">
-        <v>0.56499999999999773</v>
+        <v>25.306199999999876</v>
       </c>
       <c r="AC13">
-        <v>0.53860000000000241</v>
+        <v>26.109599999999887</v>
       </c>
       <c r="AD13">
-        <v>0.6804000000000201</v>
+        <v>26.180000000000064</v>
       </c>
       <c r="AE13">
-        <v>0.73999999999995225</v>
+        <v>26.912999999999954</v>
       </c>
       <c r="AF13">
-        <v>0.79400000000003956</v>
+        <v>27.135208690000013</v>
       </c>
       <c r="AG13">
-        <v>0.76000000000001933</v>
+        <v>27.543000000000006</v>
       </c>
       <c r="AH13">
-        <v>0.47400000000001796</v>
+        <v>26.743799999999965</v>
       </c>
       <c r="AI13">
-        <v>0.69574859244801246</v>
+        <v>26.848000003000038</v>
       </c>
       <c r="AJ13">
-        <v>0.95996622625932559</v>
+        <v>25.731343394999953</v>
       </c>
       <c r="AK13">
-        <v>0.37976021321387865</v>
+        <v>-4.1591798565081439E-2</v>
       </c>
       <c r="AL13">
-        <v>2.0860600125429674E-3</v>
+        <v>8.3230645488212573E-3</v>
       </c>
       <c r="AM13">
-        <v>4.1088062359272834E-3</v>
+        <v>0.11013419150394309</v>
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>1.7539468000000085</v>
+        <v>3.5029999999999859</v>
       </c>
       <c r="C14">
-        <v>0.9336308000000173</v>
+        <v>3.6169999999999902</v>
       </c>
       <c r="D14">
-        <v>0.7924515999999997</v>
+        <v>3.29200000000003</v>
       </c>
       <c r="E14">
-        <v>1.0010474000000116</v>
+        <v>3.0790000000000077</v>
       </c>
       <c r="F14">
-        <v>0.82445600000001207</v>
+        <v>5.4329797979797831</v>
       </c>
       <c r="G14">
-        <v>0.9000000000000199</v>
+        <v>4.5930808080807992</v>
       </c>
       <c r="H14">
-        <v>1.1409999999999911</v>
+        <v>4.3341212121212038</v>
       </c>
       <c r="I14">
-        <v>2.1499999999999915</v>
+        <v>4.4740808080807994</v>
       </c>
       <c r="J14">
-        <v>1.5290000000000106</v>
+        <v>5.6771616161616123</v>
       </c>
       <c r="K14">
-        <v>1.1800000000000068</v>
+        <v>3.9642828282827907</v>
       </c>
       <c r="L14">
-        <v>1.769999999999996</v>
+        <v>5.2153636363636338</v>
       </c>
       <c r="M14">
-        <v>1.5049999999999955</v>
+        <v>6.1333333333333258</v>
       </c>
       <c r="N14">
-        <v>1.849000000000018</v>
+        <v>6.5260000000000389</v>
       </c>
       <c r="O14">
-        <v>2.4359999999999928</v>
+        <v>7.9389999999999645</v>
       </c>
       <c r="P14">
-        <v>3.3119999999999976</v>
+        <v>8.5209999999999582</v>
       </c>
       <c r="Q14">
-        <v>2.8439999999999941</v>
+        <v>7.9870000000000232</v>
       </c>
       <c r="R14">
-        <v>3.1699999999999733</v>
+        <v>8.6770000000000209</v>
       </c>
       <c r="S14">
-        <v>3.6329999999999529</v>
+        <v>8.4389999999999645</v>
       </c>
       <c r="T14">
-        <v>3.1730000000000302</v>
+        <v>9.5940000000000225</v>
       </c>
       <c r="U14">
-        <v>3.0539999999999736</v>
+        <v>9.8870000000000005</v>
       </c>
       <c r="V14">
-        <v>5.603999999999985</v>
+        <v>9.4070000000000391</v>
       </c>
       <c r="W14">
-        <v>4.5420000000000016</v>
+        <v>9.0432999999999595</v>
       </c>
       <c r="X14">
-        <v>4.025999999999982</v>
+        <v>8.3729999999999336</v>
       </c>
       <c r="Y14">
-        <v>3.3940000000000339</v>
+        <v>8.19399999999996</v>
       </c>
       <c r="Z14">
-        <v>3.2980661764706269</v>
+        <v>6.6492999999999824</v>
       </c>
       <c r="AA14">
-        <v>3.689419117647077</v>
+        <v>6.1816000000000315</v>
       </c>
       <c r="AB14">
-        <v>3.1891601018242</v>
+        <v>5.016099999999966</v>
       </c>
       <c r="AC14">
-        <v>4.5070099999999229</v>
+        <v>4.9645000000000721</v>
       </c>
       <c r="AD14">
-        <v>5.0583550451948582</v>
+        <v>4.9063000000000159</v>
       </c>
       <c r="AE14">
-        <v>4.487040944725976</v>
+        <v>4.7911000000000286</v>
       </c>
       <c r="AF14">
-        <v>4.2121673344025083</v>
+        <v>5.8569000000000244</v>
       </c>
       <c r="AG14">
-        <v>4.4295174204918339</v>
+        <v>6.8522000000000389</v>
       </c>
       <c r="AH14">
-        <v>3.3764898730469213</v>
+        <v>6.753565999999978</v>
       </c>
       <c r="AI14">
-        <v>2.8595831839843839</v>
+        <v>6.4533070000000237</v>
       </c>
       <c r="AJ14">
-        <v>2.1425004740591049</v>
+        <v>4.7051501208199227</v>
       </c>
       <c r="AK14">
-        <v>-0.25076476667698677</v>
+        <v>-0.27089318378625016</v>
       </c>
       <c r="AL14">
-        <v>-1.6987388433826633E-2</v>
+        <v>-2.3598053241767003E-2</v>
       </c>
       <c r="AM14">
-        <v>9.1702385641149985E-3</v>
+        <v>2.0138781582693315E-2</v>
       </c>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2.3279999999999959</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2.3010000000000019</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2.2880000000000109</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>2.6470000000000056</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>2.708999999999989</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.48699999999999477</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.45000000000000284</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.57799999999998875</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.51900000000000546</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.55398999999999887</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.77500000000000568</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.88700000000000045</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.3730000000000331</v>
       </c>
       <c r="O15">
-        <v>1.3599999999996726E-2</v>
+        <v>4.9295150000000092</v>
       </c>
       <c r="P15">
-        <v>7.169999999999277E-2</v>
+        <v>5.0880599999999987</v>
       </c>
       <c r="Q15">
-        <v>5.4200000000008686E-2</v>
+        <v>4.7072170000000284</v>
       </c>
       <c r="R15">
-        <v>4.5900000000017371E-2</v>
+        <v>4.8218889999999988</v>
       </c>
       <c r="S15">
-        <v>4.3699999999986971E-2</v>
+        <v>4.7405340000000109</v>
       </c>
       <c r="T15">
-        <v>3.6899999999974398E-2</v>
+        <v>5.6069410000000062</v>
       </c>
       <c r="U15">
-        <v>2.7999999999991587E-2</v>
+        <v>5.6522559999999942</v>
       </c>
       <c r="V15">
-        <v>8.840000000000714E-2</v>
+        <v>5.7763990000000121</v>
       </c>
       <c r="W15">
-        <v>9.6149999999994407E-2</v>
+        <v>5.0010790000000043</v>
       </c>
       <c r="X15">
-        <v>0.11878740900002072</v>
+        <v>5.6508090000000095</v>
       </c>
       <c r="Y15">
-        <v>7.9604999999986603E-2</v>
+        <v>5.3856430000000017</v>
       </c>
       <c r="Z15">
-        <v>8.8448999999997113E-2</v>
+        <v>5.0025190000000066</v>
       </c>
       <c r="AA15">
-        <v>0.12459599999999682</v>
+        <v>6.2308879999999789</v>
       </c>
       <c r="AB15">
-        <v>0.12635899999997946</v>
+        <v>6.3653469999999857</v>
       </c>
       <c r="AC15">
-        <v>0.12876799999997957</v>
+        <v>6.7077859999999987</v>
       </c>
       <c r="AD15">
-        <v>0.29258300000000759</v>
+        <v>5.9812480000000079</v>
       </c>
       <c r="AE15">
-        <v>0.35005900000001589</v>
+        <v>5.9612929999999977</v>
       </c>
       <c r="AF15">
-        <v>0.5171370000000195</v>
+        <v>5.4673169999999942</v>
       </c>
       <c r="AG15">
-        <v>0.73687000000001035</v>
+        <v>5.9088590000000067</v>
       </c>
       <c r="AH15">
-        <v>0.84820000000001983</v>
+        <v>6.0806710000000095</v>
       </c>
       <c r="AI15">
-        <v>0.97338500000003592</v>
+        <v>5.576123999999993</v>
       </c>
       <c r="AJ15">
-        <v>1.1253303630459754</v>
+        <v>4.9877222660407057</v>
       </c>
       <c r="AK15">
-        <v>0.156099963576523</v>
+        <v>-0.10552163724466812</v>
       </c>
       <c r="AL15">
-        <v>0.28450095139757137</v>
+        <v>3.4817675335094833E-3</v>
       </c>
       <c r="AM15">
-        <v>4.8165907160910397E-3</v>
+        <v>2.1348234749505937E-2</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>2.1830499999999802</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.4110100000000045</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.5288699999999835</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.5204299999999762</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2.2784899999999766</v>
       </c>
       <c r="G16">
-        <v>0.20900000000000318</v>
+        <v>2.0989999999999895</v>
       </c>
       <c r="H16">
-        <v>0.21600000000000819</v>
+        <v>2.3410000000000082</v>
       </c>
       <c r="I16">
-        <v>0.20699999999999363</v>
+        <v>2.3760000000000048</v>
       </c>
       <c r="J16">
-        <v>0.1980000000000075</v>
+        <v>2.3919999999999675</v>
       </c>
       <c r="K16">
-        <v>0.20899999999998897</v>
+        <v>2.3590000000000089</v>
       </c>
       <c r="L16">
-        <v>0.19700000000000273</v>
+        <v>2.2609999999999673</v>
       </c>
       <c r="M16">
-        <v>0.20099999999999341</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>0.17600000000000193</v>
+        <v>2.2889999999999304</v>
       </c>
       <c r="O16">
-        <v>0.17599999999998772</v>
+        <v>2.0480000000000587</v>
       </c>
       <c r="P16">
-        <v>0.17600000000000193</v>
+        <v>2.1570000000000107</v>
       </c>
       <c r="Q16">
-        <v>0.17600000000000193</v>
+        <v>2.0870000000000175</v>
       </c>
       <c r="R16">
-        <v>0.16899999999998272</v>
+        <v>1.9700000000000273</v>
       </c>
       <c r="S16">
-        <v>0.16200000000002035</v>
+        <v>1.7800000000000011</v>
       </c>
       <c r="T16">
-        <v>0.15199999999998681</v>
+        <v>1.6519999999999868</v>
       </c>
       <c r="U16">
-        <v>0.13499999999997669</v>
+        <v>1.6999999999999886</v>
       </c>
       <c r="V16">
-        <v>0.14200000000001012</v>
+        <v>1.674000000000035</v>
       </c>
       <c r="W16">
-        <v>0.14799999999998192</v>
+        <v>1.0839999999999748</v>
       </c>
       <c r="X16">
-        <v>0.11599999999998545</v>
+        <v>0.68000000000003524</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>0.68139999999999645</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.65869999999998186</v>
       </c>
       <c r="AA16">
-        <v>9.9999999999056399E-4</v>
+        <v>0.69650000000001455</v>
       </c>
       <c r="AB16">
-        <v>1.6699999999900683E-3</v>
+        <v>0.56499999999999773</v>
       </c>
       <c r="AC16">
-        <v>0.51417000000000712</v>
+        <v>0.53860000000000241</v>
       </c>
       <c r="AD16">
-        <v>0.66788999999997145</v>
+        <v>0.6804000000000201</v>
       </c>
       <c r="AE16">
-        <v>0.83982999999999208</v>
+        <v>0.73999999999995225</v>
       </c>
       <c r="AF16">
-        <v>2.0426800000000043</v>
+        <v>0.79400000000003956</v>
       </c>
       <c r="AG16">
-        <v>1.7079999999999984</v>
+        <v>0.76000000000001933</v>
       </c>
       <c r="AH16">
-        <v>1.6305897199999961</v>
+        <v>0.47400000000001796</v>
       </c>
       <c r="AI16">
-        <v>0.66436061261990176</v>
+        <v>0.69574859244801246</v>
       </c>
       <c r="AJ16">
-        <v>1.8788032905357213</v>
+        <v>0.95996622625932559</v>
       </c>
       <c r="AK16">
-        <v>1.8279871726992853</v>
+        <v>0.37976021321387865</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>2.0860600125429674E-3</v>
       </c>
       <c r="AM16">
-        <v>8.0415731981684172E-3</v>
+        <v>4.1088062359272834E-3</v>
       </c>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17">
-        <v>4.6727898989899188</v>
+        <v>1.7539468000000085</v>
       </c>
       <c r="C17">
-        <v>2.8836898989899282</v>
+        <v>0.9336308000000173</v>
       </c>
       <c r="D17">
-        <v>1.9632000000000005</v>
+        <v>0.7924515999999997</v>
       </c>
       <c r="E17">
-        <v>3.9383898989898967</v>
+        <v>1.0010474000000116</v>
       </c>
       <c r="F17">
-        <v>3.7446999999999377</v>
+        <v>0.82445600000001207</v>
       </c>
       <c r="G17">
-        <v>2.1560000000000343</v>
+        <v>0.9000000000000199</v>
       </c>
       <c r="H17">
-        <v>1.7013999999999783</v>
+        <v>1.1409999999999911</v>
       </c>
       <c r="I17">
-        <v>1.8890000000000384</v>
+        <v>2.1499999999999915</v>
       </c>
       <c r="J17">
-        <v>1.6029000000000337</v>
+        <v>1.5290000000000106</v>
       </c>
       <c r="K17">
-        <v>1.8602999999999952</v>
+        <v>1.1800000000000068</v>
       </c>
       <c r="L17">
-        <v>5.5323999999999955</v>
+        <v>1.769999999999996</v>
       </c>
       <c r="M17">
-        <v>1.9674399999999821</v>
+        <v>1.5049999999999955</v>
       </c>
       <c r="N17">
-        <v>1.743060000000014</v>
+        <v>1.849000000000018</v>
       </c>
       <c r="O17">
-        <v>5.614556505116866</v>
+        <v>2.4359999999999928</v>
       </c>
       <c r="P17">
-        <v>7.7730231731869708</v>
+        <v>3.3119999999999976</v>
       </c>
       <c r="Q17">
-        <v>7.5402911960429719</v>
+        <v>2.8439999999999941</v>
       </c>
       <c r="R17">
-        <v>6.5186087775692272</v>
+        <v>3.1699999999999733</v>
       </c>
       <c r="S17">
-        <v>6.9132576496176057</v>
+        <v>3.6329999999999529</v>
       </c>
       <c r="T17">
-        <v>6.8949459141575744</v>
+        <v>3.1730000000000302</v>
       </c>
       <c r="U17">
-        <v>6.2830783594081936</v>
+        <v>3.0539999999999736</v>
       </c>
       <c r="V17">
-        <v>7.1809423614000139</v>
+        <v>5.603999999999985</v>
       </c>
       <c r="W17">
-        <v>7.863095299136944</v>
+        <v>4.5420000000000016</v>
       </c>
       <c r="X17">
-        <v>7.3266796595302708</v>
+        <v>4.025999999999982</v>
       </c>
       <c r="Y17">
-        <v>7.2184248840129044</v>
+        <v>3.3940000000000339</v>
       </c>
       <c r="Z17">
-        <v>6.8810504653094426</v>
+        <v>3.2980661764706269</v>
       </c>
       <c r="AA17">
-        <v>5.6952316244080521</v>
+        <v>3.689419117647077</v>
       </c>
       <c r="AB17">
-        <v>5.7289904741505779</v>
+        <v>3.1891601018242</v>
       </c>
       <c r="AC17">
-        <v>6.3671729951440739</v>
+        <v>4.5070099999999229</v>
       </c>
       <c r="AD17">
-        <v>6.2959676022974804</v>
+        <v>5.0583550451948582</v>
       </c>
       <c r="AE17">
-        <v>6.7746255013634595</v>
+        <v>4.487040944725976</v>
       </c>
       <c r="AF17">
-        <v>7.3758514323278348</v>
+        <v>4.2121673344025083</v>
       </c>
       <c r="AG17">
-        <v>8.5368640232484552</v>
+        <v>4.4295174204918339</v>
       </c>
       <c r="AH17">
-        <v>8.0373645220623189</v>
+        <v>3.3764898730469213</v>
       </c>
       <c r="AI17">
-        <v>7.8353606541903957</v>
+        <v>2.8595831839843839</v>
       </c>
       <c r="AJ17">
-        <v>7.8115667865881449</v>
+        <v>2.1425004740591049</v>
       </c>
       <c r="AK17">
-        <v>-3.0367290865578322E-3</v>
+        <v>-0.25076476667698677</v>
       </c>
       <c r="AL17">
-        <v>8.234734122311238E-3</v>
+        <v>-1.6987388433826633E-2</v>
       </c>
       <c r="AM17">
-        <v>3.3434732855304995E-2</v>
+        <v>9.1702385641149985E-3</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B18">
-        <v>11.474818806291438</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>11.654432155126795</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>11.14536997922297</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>12.190042399477592</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>12.813475884107156</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>10.870370674340293</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>11.441958740040421</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>12.034538087991377</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>10.659954480274067</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>10.801450971515834</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>12.044408817848046</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>13.523539930931593</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>14.733546168059496</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.714561328095726</v>
+        <v>1.3599999999996726E-2</v>
       </c>
       <c r="P18">
-        <v>15.398975846503237</v>
+        <v>7.169999999999277E-2</v>
       </c>
       <c r="Q18">
-        <v>18.726881572856833</v>
+        <v>5.4200000000008686E-2</v>
       </c>
       <c r="R18">
-        <v>17.934927901139787</v>
+        <v>4.5900000000017371E-2</v>
       </c>
       <c r="S18">
-        <v>20.343251970225129</v>
+        <v>4.3699999999986971E-2</v>
       </c>
       <c r="T18">
-        <v>21.739950848972796</v>
+        <v>3.6899999999974398E-2</v>
       </c>
       <c r="U18">
-        <v>22.245731549266242</v>
+        <v>2.7999999999991587E-2</v>
       </c>
       <c r="V18">
-        <v>22.493804062777304</v>
+        <v>8.840000000000714E-2</v>
       </c>
       <c r="W18">
-        <v>23.331966202584514</v>
+        <v>9.6149999999994407E-2</v>
       </c>
       <c r="X18">
-        <v>24.25278968333652</v>
+        <v>0.11878740900002072</v>
       </c>
       <c r="Y18">
-        <v>24.607324917657937</v>
+        <v>7.9604999999986603E-2</v>
       </c>
       <c r="Z18">
-        <v>25.865273883488339</v>
+        <v>8.8448999999997113E-2</v>
       </c>
       <c r="AA18">
-        <v>26.506676922564846</v>
+        <v>0.12459599999999682</v>
       </c>
       <c r="AB18">
-        <v>27.924011556384137</v>
+        <v>0.12635899999997946</v>
       </c>
       <c r="AC18">
-        <v>28.681912415500413</v>
+        <v>0.12876799999997957</v>
       </c>
       <c r="AD18">
-        <v>29.071977812008637</v>
+        <v>0.29258300000000759</v>
       </c>
       <c r="AE18">
-        <v>29.527532794236024</v>
+        <v>0.35005900000001589</v>
       </c>
       <c r="AF18">
-        <v>30.359415606850046</v>
+        <v>0.5171370000000195</v>
       </c>
       <c r="AG18">
-        <v>31.083047256732542</v>
+        <v>0.73687000000001035</v>
       </c>
       <c r="AH18">
-        <v>32.423630144703601</v>
+        <v>0.84820000000001983</v>
       </c>
       <c r="AI18">
-        <v>35.241652386463727</v>
+        <v>0.97338500000003592</v>
       </c>
       <c r="AJ18">
-        <v>27.890952409296712</v>
+        <v>1.1253303630459754</v>
       </c>
       <c r="AK18">
-        <v>-0.20857988997106192</v>
+        <v>0.156099963576523</v>
       </c>
       <c r="AL18">
-        <v>3.6571313761867508E-2</v>
+        <v>0.28450095139757137</v>
       </c>
       <c r="AM18">
-        <v>0.11937765730761422</v>
+        <v>4.8165907160910397E-3</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B19">
-        <v>40.303926167281347</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>37.934211498116746</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>35.690072285222982</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>41.002637094467474</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>43.870105989086845</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>41.472451482421093</v>
+        <v>0.20900000000000318</v>
       </c>
       <c r="H19">
-        <v>37.825479952161707</v>
+        <v>0.21600000000000819</v>
       </c>
       <c r="I19">
-        <v>40.002318896072367</v>
+        <v>0.20699999999999363</v>
       </c>
       <c r="J19">
-        <v>38.398016096435697</v>
+        <v>0.1980000000000075</v>
       </c>
       <c r="K19">
-        <v>38.311223799798611</v>
+        <v>0.20899999999998897</v>
       </c>
       <c r="L19">
-        <v>45.5431724542117</v>
+        <v>0.19700000000000273</v>
       </c>
       <c r="M19">
-        <v>43.866313264264889</v>
+        <v>0.20099999999999341</v>
       </c>
       <c r="N19">
-        <v>46.153606168059483</v>
+        <v>0.17600000000000193</v>
       </c>
       <c r="O19">
-        <v>57.461232833212691</v>
+        <v>0.17599999999998772</v>
       </c>
       <c r="P19">
-        <v>61.797759019690346</v>
+        <v>0.17600000000000193</v>
       </c>
       <c r="Q19">
-        <v>65.396839768899937</v>
+        <v>0.17600000000000193</v>
       </c>
       <c r="R19">
-        <v>64.586825678708962</v>
+        <v>0.16899999999998272</v>
       </c>
       <c r="S19">
-        <v>64.680993619842482</v>
+        <v>0.16200000000002035</v>
       </c>
       <c r="T19">
-        <v>69.155737763130318</v>
+        <v>0.15199999999998681</v>
       </c>
       <c r="U19">
-        <v>70.21186590867427</v>
+        <v>0.13499999999997669</v>
       </c>
       <c r="V19">
-        <v>76.513345424177388</v>
+        <v>0.14200000000001012</v>
       </c>
       <c r="W19">
-        <v>76.510190501721468</v>
+        <v>0.14799999999998192</v>
       </c>
       <c r="X19">
-        <v>77.102665751866695</v>
+        <v>0.11599999999998545</v>
       </c>
       <c r="Y19">
-        <v>74.272797801670819</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>69.568558525268259</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>75.555211664619975</v>
+        <v>9.9999999999056399E-4</v>
       </c>
       <c r="AB19">
-        <v>74.222838132358717</v>
+        <v>1.6699999999900683E-3</v>
       </c>
       <c r="AC19">
-        <v>78.519519410644364</v>
+        <v>0.51417000000000712</v>
       </c>
       <c r="AD19">
-        <v>79.134721459501066</v>
+        <v>0.66788999999997145</v>
       </c>
       <c r="AE19">
-        <v>80.3844812403254</v>
+        <v>0.83982999999999208</v>
       </c>
       <c r="AF19">
-        <v>83.760677063580502</v>
+        <v>2.0426800000000043</v>
       </c>
       <c r="AG19">
-        <v>87.558357700472911</v>
+        <v>1.7079999999999984</v>
       </c>
       <c r="AH19">
-        <v>86.368311259812813</v>
+        <v>1.6305897199999961</v>
       </c>
       <c r="AI19">
-        <v>87.147521432706526</v>
+        <v>0.66436061261990176</v>
       </c>
       <c r="AJ19">
-        <v>77.233335331645549</v>
+        <v>1.8788032905357213</v>
       </c>
       <c r="AK19">
-        <v>-0.11376325956345756</v>
+        <v>1.8279871726992853</v>
       </c>
       <c r="AL19">
-        <v>1.6114211737835449E-2</v>
+        <v>0</v>
       </c>
       <c r="AM19">
-        <v>0.3305708067133632</v>
+        <v>8.0415731981684172E-3</v>
       </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>4.6727898989899188</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>2.8836898989899282</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1.9632000000000005</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>3.9383898989898967</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>3.7446999999999377</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.1560000000000343</v>
       </c>
       <c r="H20">
-        <v>-7.9740000001038425E-4</v>
+        <v>1.7013999999999783</v>
       </c>
       <c r="I20">
-        <v>-2.6718000000016673E-3</v>
+        <v>1.8890000000000384</v>
       </c>
       <c r="J20">
-        <v>-1.1156000000056565E-3</v>
+        <v>1.6029000000000337</v>
       </c>
       <c r="K20">
-        <v>-4.3256000000013728E-3</v>
+        <v>1.8602999999999952</v>
       </c>
       <c r="L20">
-        <v>-4.8504000000093583E-3</v>
+        <v>5.5323999999999955</v>
       </c>
       <c r="M20">
-        <v>-3.6348000000003822E-3</v>
+        <v>1.9674399999999821</v>
       </c>
       <c r="N20">
-        <v>1.9374000000027536E-3</v>
+        <v>1.743060000000014</v>
       </c>
       <c r="O20">
-        <v>-2.4533999999860612E-3</v>
+        <v>5.614556505116866</v>
       </c>
       <c r="P20">
-        <v>2.127200000010987E-3</v>
+        <v>7.7730231731869708</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>7.5402911960429719</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>6.5186087775692272</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>6.9132576496176057</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>6.8949459141575744</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>6.2830783594081936</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>7.1809423614000139</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>7.863095299136944</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>7.3266796595302708</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>7.2184248840129044</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>6.8810504653094426</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>5.6952316244080521</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>5.7289904741505779</v>
       </c>
       <c r="AC20">
-        <v>-2.0999999975401806E-5</v>
+        <v>6.3671729951440739</v>
       </c>
       <c r="AD20">
-        <v>-7.8740000000721011E-4</v>
+        <v>6.2959676022974804</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>6.7746255013634595</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>7.3758514323278348</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>8.5368640232484552</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>8.0373645220623189</v>
       </c>
       <c r="AI20">
-        <v>-4.7185534505685922</v>
+        <v>7.8353606541903957</v>
       </c>
       <c r="AJ20">
-        <v>-2.0795684977934314</v>
+        <v>7.8115667865881449</v>
       </c>
       <c r="AK20">
-        <v>-0.55927838487389803</v>
+        <v>-3.0367290865578322E-3</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>8.234734122311238E-3</v>
       </c>
       <c r="AM20">
-        <v>-8.9008798206025204E-3</v>
+        <v>3.3434732855304995E-2</v>
       </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>11.474818806291438</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>11.654432155126795</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>11.14536997922297</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>12.190042399477592</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>12.813475884107156</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>10.870370674340293</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>11.441958740040421</v>
       </c>
       <c r="I21">
-        <v>1.8160955729944135</v>
+        <v>12.034538087991377</v>
       </c>
       <c r="J21">
-        <v>2.6066859304703485</v>
+        <v>10.659954480274067</v>
       </c>
       <c r="K21">
-        <v>2.6095135593050145</v>
+        <v>10.801450971515834</v>
       </c>
       <c r="L21">
-        <v>2.548759492760496</v>
+        <v>12.044408817848046</v>
       </c>
       <c r="M21">
-        <v>2.5414338772256997</v>
+        <v>13.523539930931593</v>
       </c>
       <c r="N21">
-        <v>2.4597467867296245</v>
+        <v>14.733546168059496</v>
       </c>
       <c r="O21">
-        <v>2.4642451210534091</v>
+        <v>15.714561328095726</v>
       </c>
       <c r="P21">
-        <v>2.9240036328365022</v>
+        <v>15.398975846503237</v>
       </c>
       <c r="Q21">
-        <v>3.8140000000000782</v>
+        <v>18.726881572856833</v>
       </c>
       <c r="R21">
-        <v>4.7959990162210033</v>
+        <v>17.934927901139787</v>
       </c>
       <c r="S21">
-        <v>4.7572069138727784</v>
+        <v>20.343251970225129</v>
       </c>
       <c r="T21">
-        <v>3.7242690332629991</v>
+        <v>21.739950848972796</v>
       </c>
       <c r="U21">
-        <v>3.7265110156783976</v>
+        <v>22.245731549266242</v>
       </c>
       <c r="V21">
-        <v>4.5284616583780917</v>
+        <v>22.493804062777304</v>
       </c>
       <c r="W21">
-        <v>4.6102723619726476</v>
+        <v>23.331966202584514</v>
       </c>
       <c r="X21">
-        <v>3.9268779401189704</v>
+        <v>24.25278968333652</v>
       </c>
       <c r="Y21">
-        <v>4.4665982038869743</v>
+        <v>24.607324917657937</v>
       </c>
       <c r="Z21">
-        <v>4.5494261043273809</v>
+        <v>25.865273883488339</v>
       </c>
       <c r="AA21">
-        <v>4.6518250806885817</v>
+        <v>26.506676922564846</v>
       </c>
       <c r="AB21">
-        <v>4.5174609197172231</v>
+        <v>27.924011556384137</v>
       </c>
       <c r="AC21">
-        <v>4.4135745200516112</v>
+        <v>28.681912415500413</v>
       </c>
       <c r="AD21">
-        <v>4.3914261007272444</v>
+        <v>29.071977812008637</v>
       </c>
       <c r="AE21">
-        <v>4.9527033164922614</v>
+        <v>29.527532794236024</v>
       </c>
       <c r="AF21">
-        <v>4.7063626285757891</v>
+        <v>30.359415606850046</v>
       </c>
       <c r="AG21">
-        <v>4.4539190610098558</v>
+        <v>31.083047256732542</v>
       </c>
       <c r="AH21">
-        <v>4.4437440781666737</v>
+        <v>32.423630144703601</v>
       </c>
       <c r="AI21">
-        <v>4.3885367121117724</v>
+        <v>35.241652386463727</v>
       </c>
       <c r="AJ21">
-        <v>4.3063167121116521</v>
+        <v>27.890952409296712</v>
       </c>
       <c r="AK21">
-        <v>-1.8735174249130515E-2</v>
+        <v>-0.20857988997106192</v>
       </c>
       <c r="AL21">
-        <v>-1.7615708237812555E-3</v>
+        <v>3.6571313761867508E-2</v>
       </c>
       <c r="AM21">
-        <v>1.8431711946314263E-2</v>
+        <v>0.11937765730761422</v>
       </c>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22">
-        <v>2.0969999999849165E-3</v>
+        <v>40.303926167281347</v>
       </c>
       <c r="C22">
-        <v>2.0969999999920219E-3</v>
+        <v>37.934211498116746</v>
       </c>
       <c r="D22">
-        <v>2.0969999999991273E-3</v>
+        <v>35.690072285222982</v>
       </c>
       <c r="E22">
-        <v>2.0969999999920219E-3</v>
+        <v>41.002637094467474</v>
       </c>
       <c r="F22">
-        <v>2.0969999999920219E-3</v>
+        <v>43.870105989086845</v>
       </c>
       <c r="G22">
-        <v>-0.97863399999999778</v>
+        <v>41.472451482421093</v>
       </c>
       <c r="H22">
-        <v>1.3443999999998013E-3</v>
+        <v>37.825479952161707</v>
       </c>
       <c r="I22">
-        <v>9.6659999999992863E-4</v>
+        <v>40.002318896072367</v>
       </c>
       <c r="J22">
-        <v>-1.7626000000001696E-3</v>
+        <v>38.398016096435697</v>
       </c>
       <c r="K22">
-        <v>-5.7700000000027174E-4</v>
+        <v>38.311223799798611</v>
       </c>
       <c r="L22">
-        <v>-4.461200000000165E-3</v>
+        <v>45.5431724542117</v>
       </c>
       <c r="M22">
-        <v>-2.5085999999996389E-3</v>
+        <v>43.866313264264889</v>
       </c>
       <c r="N22">
-        <v>-1.3905000000000278E-2</v>
+        <v>46.153606168059483</v>
       </c>
       <c r="O22">
-        <v>-1.4842000000006017E-3</v>
+        <v>57.461232833212691</v>
       </c>
       <c r="P22">
-        <v>-3.2245999999989117E-3</v>
+        <v>61.797759019690346</v>
       </c>
       <c r="Q22">
-        <v>-6.3400000000157775E-5</v>
+        <v>65.396839768899937</v>
       </c>
       <c r="R22">
-        <v>1.5786000000002076E-3</v>
+        <v>64.586825678708962</v>
       </c>
       <c r="S22">
-        <v>-2.3146000000000555E-3</v>
+        <v>64.680993619842482</v>
       </c>
       <c r="T22">
-        <v>6.2988000000001598E-3</v>
+        <v>69.155737763130318</v>
       </c>
       <c r="U22">
-        <v>1.8236298989900535E-2</v>
+        <v>70.21186590867427</v>
       </c>
       <c r="V22">
-        <v>1.1103999999990677E-3</v>
+        <v>76.513345424177388</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>76.510190501721468</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>77.102665751866695</v>
       </c>
       <c r="Y22">
-        <v>5.0000000000061107E-3</v>
+        <v>74.272797801670819</v>
       </c>
       <c r="Z22">
-        <v>3.4499999999997755E-2</v>
+        <v>69.568558525268259</v>
       </c>
       <c r="AA22">
-        <v>3.7000000000073641E-3</v>
+        <v>75.555211664619975</v>
       </c>
       <c r="AB22">
-        <v>1.0000000000005116E-2</v>
+        <v>74.222838132358717</v>
       </c>
       <c r="AC22">
-        <v>2.5099999999998346E-2</v>
+        <v>78.519519410644364</v>
       </c>
       <c r="AD22">
-        <v>0.27089999999999392</v>
+        <v>79.134721459501066</v>
       </c>
       <c r="AE22">
-        <v>0.31379999999999342</v>
+        <v>80.3844812403254</v>
       </c>
       <c r="AF22">
-        <v>0.3130999999999986</v>
+        <v>83.760677063580502</v>
       </c>
       <c r="AG22">
-        <v>0.26024999999998855</v>
+        <v>87.558357700472911</v>
       </c>
       <c r="AH22">
-        <v>0.29504999999999937</v>
+        <v>86.368311259812813</v>
       </c>
       <c r="AI22">
-        <v>0.28490000000001525</v>
+        <v>87.147521432706526</v>
       </c>
       <c r="AJ22">
-        <v>8.1100003881221738E-2</v>
+        <v>77.233335331645549</v>
       </c>
       <c r="AK22">
-        <v>-0.71533870171562863</v>
+        <v>-0.11376325956345756</v>
       </c>
       <c r="AL22">
-        <v>0.49820845792501944</v>
+        <v>1.6114211737835449E-2</v>
       </c>
       <c r="AM22">
-        <v>3.4712075546590476E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>2.0969999999849165E-3</v>
-      </c>
-      <c r="C23">
-        <v>2.0969999999920219E-3</v>
-      </c>
-      <c r="D23">
-        <v>2.0969999999991273E-3</v>
-      </c>
-      <c r="E23">
-        <v>2.0969999999920219E-3</v>
-      </c>
-      <c r="F23">
-        <v>2.0969999999920219E-3</v>
-      </c>
-      <c r="G23">
-        <v>-0.97863399999999778</v>
-      </c>
-      <c r="H23">
-        <v>5.4699999998941706E-4</v>
-      </c>
-      <c r="I23">
-        <v>1.8143903729944117</v>
-      </c>
-      <c r="J23">
-        <v>2.6038077304703426</v>
-      </c>
-      <c r="K23">
-        <v>2.6046109593050129</v>
-      </c>
-      <c r="L23">
-        <v>2.5394478927604864</v>
-      </c>
-      <c r="M23">
-        <v>2.5352904772256997</v>
-      </c>
-      <c r="N23">
-        <v>2.447779186729627</v>
-      </c>
-      <c r="O23">
-        <v>2.4603075210534224</v>
-      </c>
-      <c r="P23">
-        <v>2.9229062328365143</v>
-      </c>
-      <c r="Q23">
-        <v>3.8139366000000781</v>
-      </c>
-      <c r="R23">
-        <v>4.7975776162210035</v>
-      </c>
-      <c r="S23">
-        <v>4.7548923138727783</v>
-      </c>
-      <c r="T23">
-        <v>3.7305678332629992</v>
-      </c>
-      <c r="U23">
-        <v>3.7447473146682979</v>
-      </c>
-      <c r="V23">
-        <v>4.5295720583780907</v>
-      </c>
-      <c r="W23">
-        <v>4.6102723619726476</v>
-      </c>
-      <c r="X23">
-        <v>3.9268779401189704</v>
-      </c>
-      <c r="Y23">
-        <v>4.4715982038869804</v>
-      </c>
-      <c r="Z23">
-        <v>4.5839261043273787</v>
-      </c>
-      <c r="AA23">
-        <v>4.6555250806885891</v>
-      </c>
-      <c r="AB23">
-        <v>4.5274609197172282</v>
-      </c>
-      <c r="AC23">
-        <v>4.4386535200516342</v>
-      </c>
-      <c r="AD23">
-        <v>4.6615387007272311</v>
-      </c>
-      <c r="AE23">
-        <v>5.2665033164922548</v>
-      </c>
-      <c r="AF23">
-        <v>5.0194626285757877</v>
-      </c>
-      <c r="AG23">
-        <v>4.7141690610098443</v>
-      </c>
-      <c r="AH23">
-        <v>4.7387940781666735</v>
-      </c>
-      <c r="AI23">
-        <v>-4.5116738456804306E-2</v>
-      </c>
-      <c r="AJ23">
-        <v>2.3078482181994424</v>
-      </c>
-      <c r="AK23">
-        <v>-52.152815942336431</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>9.8779528811776471E-3</v>
+        <v>0.3305708067133632</v>
       </c>
     </row>
     <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -65926,31 +65446,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>-7.9740000001038425E-4</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>-2.6718000000016673E-3</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>-1.1156000000056565E-3</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>-4.3256000000013728E-3</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-4.8504000000093583E-3</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-3.6348000000003822E-3</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.9374000000027536E-3</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>-2.4533999999860612E-3</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>2.127200000010987E-3</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -65989,42 +65509,42 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>-2.0999999975401806E-5</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>-7.8740000000721011E-4</v>
       </c>
       <c r="AE24">
-        <v>-2.0791000000000395</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>-0.75800000000009504</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>0.10382149362476412</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>-0.11167768371944931</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>0</v>
+        <v>-4.7185534505685922</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>-2.0795684977934314</v>
       </c>
       <c r="AK24">
-        <v>0</v>
+        <v>-0.55927838487389803</v>
       </c>
       <c r="AL24">
         <v>0</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>-8.9008798206025204E-3</v>
       </c>
     </row>
     <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -66048,165 +65568,165 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.8160955729944135</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>2.6066859304703485</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.6095135593050145</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>2.548759492760496</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.5414338772256997</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>2.4597467867296245</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.4642451210534091</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>2.9240036328365022</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3.8140000000000782</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>4.7959990162210033</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>4.7572069138727784</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>3.7242690332629991</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>3.7265110156783976</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>4.5284616583780917</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>4.6102723619726476</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>3.9268779401189704</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>4.4665982038869743</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>4.5494261043273809</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>4.6518250806885817</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>4.5174609197172231</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>4.4135745200516112</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>4.3914261007272444</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>4.9527033164922614</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>4.7063626285757891</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>4.4539190610098558</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>4.4437440781666737</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>4.3885367121117724</v>
       </c>
       <c r="AJ25">
-        <v>0</v>
+        <v>4.3063167121116521</v>
       </c>
       <c r="AK25">
-        <v>0</v>
+        <v>-1.8735174249130515E-2</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>-1.7615708237812555E-3</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1.8431711946314263E-2</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>2.0969999999849165E-3</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>2.0969999999920219E-3</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2.0969999999991273E-3</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2.0969999999920219E-3</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.0969999999920219E-3</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>-0.97863399999999778</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1.3443999999998013E-3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>9.6659999999992863E-4</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>-1.7626000000001696E-3</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>-5.7700000000027174E-4</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-4.461200000000165E-3</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-2.5085999999996389E-3</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>-1.3905000000000278E-2</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>-1.4842000000006017E-3</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>-3.2245999999989117E-3</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-6.3400000000157775E-5</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>1.5786000000002076E-3</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>-2.3146000000000555E-3</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>6.2988000000001598E-3</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1.8236298989900535E-2</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1.1103999999990677E-3</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -66215,292 +65735,173 @@
         <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>5.0000000000061107E-3</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>3.4499999999997755E-2</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>3.7000000000073641E-3</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>2.5099999999998346E-2</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>0.27089999999999392</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>0.31379999999999342</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>0.3130999999999986</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>0.26024999999998855</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>0.29504999999999937</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>0.28490000000001525</v>
       </c>
       <c r="AJ26">
-        <v>0</v>
+        <v>8.1100003881221738E-2</v>
       </c>
       <c r="AK26">
-        <v>0</v>
+        <v>-0.71533870171562863</v>
       </c>
       <c r="AL26">
-        <v>0</v>
+        <v>0.49820845792501944</v>
       </c>
       <c r="AM26">
-        <v>0</v>
+        <v>3.4712075546590476E-4</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B27">
-        <v>5.3000000000000047E-2</v>
+        <v>2.0969999999849165E-3</v>
       </c>
       <c r="C27">
-        <v>0.13619999999999943</v>
+        <v>2.0969999999920219E-3</v>
       </c>
       <c r="D27">
-        <v>0.14809699999999992</v>
+        <v>2.0969999999991273E-3</v>
       </c>
       <c r="E27">
-        <v>5.6596999999998676E-2</v>
+        <v>2.0969999999920219E-3</v>
       </c>
       <c r="F27">
-        <v>0.18955819999999601</v>
+        <v>2.0969999999920219E-3</v>
       </c>
       <c r="G27">
-        <v>2.258199999999988E-3</v>
+        <v>-0.97863399999999778</v>
       </c>
       <c r="H27">
-        <v>6.2581999999999915E-3</v>
+        <v>5.4699999998941706E-4</v>
       </c>
       <c r="I27">
-        <v>-1.7418000000004596E-3</v>
+        <v>1.8143903729944117</v>
       </c>
       <c r="J27">
-        <v>9.6999999999347608E-5</v>
+        <v>2.6038077304703426</v>
       </c>
       <c r="K27">
-        <v>-7.4179999999923751E-4</v>
+        <v>2.6046109593050129</v>
       </c>
       <c r="L27">
-        <v>4.0970000000006834E-3</v>
+        <v>2.5394478927604864</v>
       </c>
       <c r="M27">
-        <v>9.6999999999347608E-5</v>
+        <v>2.5352904772256997</v>
       </c>
       <c r="N27">
-        <v>-3.7418000000002394E-3</v>
+        <v>2.447779186729627</v>
       </c>
       <c r="O27">
-        <v>4.0258200000005573E-2</v>
+        <v>2.4603075210534224</v>
       </c>
       <c r="P27">
-        <v>0.11225819999999942</v>
+        <v>2.9229062328365143</v>
       </c>
       <c r="Q27">
-        <v>0.11577460000000572</v>
+        <v>3.8139366000000781</v>
       </c>
       <c r="R27">
-        <v>6.3194000000003303E-2</v>
+        <v>4.7975776162210035</v>
       </c>
       <c r="S27">
-        <v>7.7032800000006674E-2</v>
+        <v>4.7548923138727783</v>
       </c>
       <c r="T27">
-        <v>6.7774600000005236E-2</v>
+        <v>3.7305678332629992</v>
       </c>
       <c r="U27">
-        <v>0.10203279999999637</v>
+        <v>3.7447473146682979</v>
       </c>
       <c r="V27">
-        <v>0.11245219999999989</v>
+        <v>4.5295720583780907</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>4.6102723619726476</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>3.9268779401189704</v>
       </c>
       <c r="Y27">
-        <v>0</v>
+        <v>4.4715982038869804</v>
       </c>
       <c r="Z27">
-        <v>2.0000000000024443E-3</v>
+        <v>4.5839261043273787</v>
       </c>
       <c r="AA27">
-        <v>5.4000000000002046E-2</v>
+        <v>4.6555250806885891</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>4.5274609197172282</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>4.4386535200516342</v>
       </c>
       <c r="AD27">
-        <v>1.7999999997186933E-5</v>
+        <v>4.6615387007272311</v>
       </c>
       <c r="AE27">
-        <v>2.2200000000793807E-4</v>
+        <v>5.2665033164922548</v>
       </c>
       <c r="AF27">
-        <v>2.2099999999909414E-3</v>
+        <v>5.0194626285757877</v>
       </c>
       <c r="AG27">
-        <v>3.0000000000001137E-3</v>
+        <v>4.7141690610098443</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>4.7387940781666735</v>
       </c>
       <c r="AI27">
-        <v>0</v>
+        <v>-4.5116738456804306E-2</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>2.3078482181994424</v>
       </c>
       <c r="AK27">
-        <v>0</v>
+        <v>-52.152815942336431</v>
       </c>
       <c r="AL27">
         <v>0</v>
       </c>
       <c r="AM27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28">
-        <v>5.3000000000000047E-2</v>
-      </c>
-      <c r="C28">
-        <v>0.13619999999999943</v>
-      </c>
-      <c r="D28">
-        <v>0.14809699999999992</v>
-      </c>
-      <c r="E28">
-        <v>5.6596999999998676E-2</v>
-      </c>
-      <c r="F28">
-        <v>0.18955819999999601</v>
-      </c>
-      <c r="G28">
-        <v>2.258199999999988E-3</v>
-      </c>
-      <c r="H28">
-        <v>6.2581999999999915E-3</v>
-      </c>
-      <c r="I28">
-        <v>-1.7418000000004596E-3</v>
-      </c>
-      <c r="J28">
-        <v>9.6999999999347608E-5</v>
-      </c>
-      <c r="K28">
-        <v>-7.4179999999923751E-4</v>
-      </c>
-      <c r="L28">
-        <v>4.0970000000006834E-3</v>
-      </c>
-      <c r="M28">
-        <v>9.6999999999347608E-5</v>
-      </c>
-      <c r="N28">
-        <v>-3.7418000000002394E-3</v>
-      </c>
-      <c r="O28">
-        <v>4.0258200000005573E-2</v>
-      </c>
-      <c r="P28">
-        <v>0.11225819999999942</v>
-      </c>
-      <c r="Q28">
-        <v>0.11577460000000572</v>
-      </c>
-      <c r="R28">
-        <v>6.3194000000003303E-2</v>
-      </c>
-      <c r="S28">
-        <v>7.7032800000006674E-2</v>
-      </c>
-      <c r="T28">
-        <v>6.7774600000005236E-2</v>
-      </c>
-      <c r="U28">
-        <v>0.10203279999999637</v>
-      </c>
-      <c r="V28">
-        <v>0.11245219999999989</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>2.0000000000024443E-3</v>
-      </c>
-      <c r="AA28">
-        <v>5.4000000000002046E-2</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>1.7999999997186933E-5</v>
-      </c>
-      <c r="AE28">
-        <v>-2.0788780000000315</v>
-      </c>
-      <c r="AF28">
-        <v>-0.7557900000001041</v>
-      </c>
-      <c r="AG28">
-        <v>0.10682149362476423</v>
-      </c>
-      <c r="AH28">
-        <v>-0.11167768371944931</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
+        <v>9.8779528811776471E-3</v>
       </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -66590,16 +65991,16 @@
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>-2.0791000000000395</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>-0.75800000000009504</v>
       </c>
       <c r="AG29">
-        <v>-0.30507699999998295</v>
+        <v>0.10382149362476412</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>-0.11167768371944931</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -66619,602 +66020,483 @@
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B30">
-        <v>2.1070000000000277</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1.785000000000025</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.7740000000000009</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1.4029999999999916</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1.0390000000000157</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1.8409999999999798</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1.804000000000002</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1.3329999999999984</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1.3450000000000273</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>1.5169999999999959</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>1.2739999999999725</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>2.2199999999999989</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>2.6080000000000041</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>2.4199999999999875</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>2.5900000000000034</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>2.83299999999997</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.9269999999999925</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>2.0109999999999957</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>2.9809999999999661</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>3.6750000000000398</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>2.8669999999999902</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>2.9470000000000027</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>2.9790000000000134</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>2.7720000000000766</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>2.7420000000000186</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>2.953000000000003</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>2.9620000000000175</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>3.0059999999999434</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>2.8810000000000286</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>3.1070000000000562</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>2.9189999999999827</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>3.2940000000000111</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>4.4790000000000703</v>
+        <v>0</v>
       </c>
       <c r="AI30">
-        <v>4.5900000000000034</v>
+        <v>0</v>
       </c>
       <c r="AJ30">
-        <v>4.5900000000000603</v>
+        <v>0</v>
       </c>
       <c r="AK30">
         <v>0</v>
       </c>
       <c r="AL30">
-        <v>5.1724391025938843E-2</v>
+        <v>0</v>
       </c>
       <c r="AM30">
-        <v>1.9645920978278029E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B31">
-        <v>0.10873684210526312</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.10589473684210601</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.10899999999999997</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.10905263157894712</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.12910526315789539</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0.16521052631578928</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1.0410526315789675E-2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>7.1105263157889287E-3</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>4.2105263157894701E-3</v>
+        <v>0</v>
       </c>
       <c r="K31">
-        <v>4.2105263157894701E-3</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>4.3157894736842034E-3</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>4.3157894736842034E-3</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>4.3157894736842034E-3</v>
+        <v>0</v>
       </c>
       <c r="O31">
-        <v>3.00000000000053E-3</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>4.2105263157894701E-3</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-1.3693225315789475</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>-2.4350221052631578</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>-3.1460000258904839</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>-3.3665712376021948</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>-4.2952264088904792</v>
+        <v>0</v>
       </c>
       <c r="V31">
-        <v>-3.5806794538565305</v>
+        <v>0</v>
       </c>
       <c r="W31">
-        <v>-3.4363511779957481</v>
+        <v>0</v>
       </c>
       <c r="X31">
-        <v>-3.8238888179957469</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>-2.815299531379305</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>-1.4371316429957497</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0.34680883200425461</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>2.3244508320042558</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>0.41102003369370482</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>0.50394612600425404</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.53941076860425263</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>0.4091818421052581</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>0.46483454030280885</v>
+        <v>0</v>
       </c>
       <c r="AH31">
-        <v>0.43569317020974213</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.34021941629465779</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>-1.8020469883011683</v>
+        <v>0</v>
       </c>
       <c r="AK31">
-        <v>-6.2967200047761187</v>
+        <v>0</v>
       </c>
       <c r="AL31">
         <v>0</v>
       </c>
       <c r="AM31">
-        <v>-7.7130441680410026E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>2.215736842105291</v>
+        <v>5.3000000000000047E-2</v>
       </c>
       <c r="C32">
-        <v>1.8908947368421309</v>
+        <v>0.13619999999999943</v>
       </c>
       <c r="D32">
-        <v>1.8830000000000009</v>
+        <v>0.14809699999999992</v>
       </c>
       <c r="E32">
-        <v>1.5120526315789387</v>
+        <v>5.6596999999998676E-2</v>
       </c>
       <c r="F32">
-        <v>1.1681052631579112</v>
+        <v>0.18955819999999601</v>
       </c>
       <c r="G32">
-        <v>2.006210526315769</v>
+        <v>2.258199999999988E-3</v>
       </c>
       <c r="H32">
-        <v>1.8144105263157917</v>
+        <v>6.2581999999999915E-3</v>
       </c>
       <c r="I32">
-        <v>1.3401105263157873</v>
+        <v>-1.7418000000004596E-3</v>
       </c>
       <c r="J32">
-        <v>1.3492105263158167</v>
+        <v>9.6999999999347608E-5</v>
       </c>
       <c r="K32">
-        <v>1.5212105263157853</v>
+        <v>-7.4179999999923751E-4</v>
       </c>
       <c r="L32">
-        <v>1.2783157894736568</v>
+        <v>4.0970000000006834E-3</v>
       </c>
       <c r="M32">
-        <v>2.2243157894736831</v>
+        <v>9.6999999999347608E-5</v>
       </c>
       <c r="N32">
-        <v>2.6123157894736884</v>
+        <v>-3.7418000000002394E-3</v>
       </c>
       <c r="O32">
-        <v>2.4229999999999881</v>
+        <v>4.0258200000005573E-2</v>
       </c>
       <c r="P32">
-        <v>2.5942105263157931</v>
+        <v>0.11225819999999942</v>
       </c>
       <c r="Q32">
-        <v>1.4636774684210223</v>
+        <v>0.11577460000000572</v>
       </c>
       <c r="R32">
-        <v>-0.50802210526316527</v>
+        <v>6.3194000000003303E-2</v>
       </c>
       <c r="S32">
-        <v>-1.1350000258904878</v>
+        <v>7.7032800000006674E-2</v>
       </c>
       <c r="T32">
-        <v>-0.38557123760222867</v>
+        <v>6.7774600000005236E-2</v>
       </c>
       <c r="U32">
-        <v>-0.62022640889043945</v>
+        <v>0.10203279999999637</v>
       </c>
       <c r="V32">
-        <v>-0.7136794538565403</v>
+        <v>0.11245219999999989</v>
       </c>
       <c r="W32">
-        <v>-0.48935117799574535</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>-0.84488881799573345</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>-4.3299531379228373E-2</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>1.3048683570042685</v>
+        <v>2.0000000000024443E-3</v>
       </c>
       <c r="AA32">
-        <v>3.2998088320042576</v>
+        <v>5.4000000000002046E-2</v>
       </c>
       <c r="AB32">
-        <v>5.2864508320042738</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>3.4170200336936483</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>3.3849461260042832</v>
+        <v>1.7999999997186933E-5</v>
       </c>
       <c r="AE32">
-        <v>3.646410768604309</v>
+        <v>2.2200000000793807E-4</v>
       </c>
       <c r="AF32">
-        <v>3.3281818421052405</v>
+        <v>2.2099999999909414E-3</v>
       </c>
       <c r="AG32">
-        <v>3.4537575403028371</v>
+        <v>3.0000000000001137E-3</v>
       </c>
       <c r="AH32">
-        <v>4.9146931702098122</v>
+        <v>0</v>
       </c>
       <c r="AI32">
-        <v>4.9302194162946611</v>
+        <v>0</v>
       </c>
       <c r="AJ32">
-        <v>2.787953011698892</v>
+        <v>0</v>
       </c>
       <c r="AK32">
-        <v>-0.43451745727897106</v>
+        <v>0</v>
       </c>
       <c r="AL32">
         <v>0</v>
       </c>
       <c r="AM32">
-        <v>1.1932876810237027E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>3.7344894000000011</v>
+        <v>5.3000000000000047E-2</v>
       </c>
       <c r="C33">
-        <v>4.8992012000000216</v>
+        <v>0.13619999999999943</v>
       </c>
       <c r="D33">
-        <v>4.5952039999999954</v>
+        <v>0.14809699999999992</v>
       </c>
       <c r="E33">
-        <v>5.1485563999999755</v>
+        <v>5.6596999999998676E-2</v>
       </c>
       <c r="F33">
-        <v>4.6573309999999992</v>
+        <v>0.18955819999999601</v>
       </c>
       <c r="G33">
-        <v>0.73199999999999932</v>
+        <v>2.258199999999988E-3</v>
       </c>
       <c r="H33">
-        <v>0.28200000000003911</v>
+        <v>6.2581999999999915E-3</v>
       </c>
       <c r="I33">
-        <v>0.41900000000001114</v>
+        <v>-1.7418000000004596E-3</v>
       </c>
       <c r="J33">
-        <v>0.41399999999998727</v>
+        <v>9.6999999999347608E-5</v>
       </c>
       <c r="K33">
-        <v>0.29399999999998272</v>
+        <v>-7.4179999999923751E-4</v>
       </c>
       <c r="L33">
-        <v>0.35399999999998499</v>
+        <v>4.0970000000006834E-3</v>
       </c>
       <c r="M33">
-        <v>0.32300000000003593</v>
+        <v>9.6999999999347608E-5</v>
       </c>
       <c r="N33">
-        <v>0.34000000000000341</v>
+        <v>-3.7418000000002394E-3</v>
       </c>
       <c r="O33">
-        <v>0.35000000000002274</v>
+        <v>4.0258200000005573E-2</v>
       </c>
       <c r="P33">
-        <v>0.36000000000004206</v>
+        <v>0.11225819999999942</v>
       </c>
       <c r="Q33">
-        <v>0.36000000000001364</v>
+        <v>0.11577460000000572</v>
       </c>
       <c r="R33">
-        <v>0.36999999999997613</v>
+        <v>6.3194000000003303E-2</v>
       </c>
       <c r="S33">
-        <v>1.073099999999954</v>
+        <v>7.7032800000006674E-2</v>
       </c>
       <c r="T33">
-        <v>2.0046000000000106</v>
+        <v>6.7774600000005236E-2</v>
       </c>
       <c r="U33">
-        <v>1.4105000000000132</v>
+        <v>0.10203279999999637</v>
       </c>
       <c r="V33">
-        <v>0.83049999999997226</v>
+        <v>0.11245219999999989</v>
       </c>
       <c r="W33">
-        <v>0.82600000000005025</v>
+        <v>0</v>
       </c>
       <c r="X33">
-        <v>0.53049999999996089</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>1.990949999999998</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>3.3524579699178219</v>
+        <v>2.0000000000024443E-3</v>
       </c>
       <c r="AA33">
-        <v>2.9005517201790383</v>
+        <v>5.4000000000002046E-2</v>
       </c>
       <c r="AB33">
-        <v>2.0151034299012451</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>1.6207000000000278</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>1.1266500000000121</v>
+        <v>1.7999999997186933E-5</v>
       </c>
       <c r="AE33">
-        <v>8.2999999999969987E-2</v>
+        <v>-2.0788780000000315</v>
       </c>
       <c r="AF33">
-        <v>0.1209999999999809</v>
+        <v>-0.7557900000001041</v>
       </c>
       <c r="AG33">
-        <v>0.29700000000002547</v>
+        <v>0.10682149362476423</v>
       </c>
       <c r="AH33">
-        <v>0.24799999999999045</v>
+        <v>-0.11167768371944931</v>
       </c>
       <c r="AI33">
-        <v>0.13602900695801168</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>0.13602900695806852</v>
+        <v>0</v>
       </c>
       <c r="AK33">
         <v>0</v>
       </c>
       <c r="AL33">
-        <v>-0.23535981646861792</v>
+        <v>0</v>
       </c>
       <c r="AM33">
-        <v>5.8222551665616806E-4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>2.4220000000241271E-4</v>
-      </c>
-      <c r="K34">
-        <v>4.7960000001694425E-3</v>
-      </c>
-      <c r="L34">
-        <v>9.3760000004294852E-4</v>
-      </c>
-      <c r="M34">
-        <v>2.9529999999340362E-3</v>
-      </c>
-      <c r="N34">
-        <v>2.5021999998671163E-3</v>
-      </c>
-      <c r="O34">
-        <v>2.3053999998410291E-3</v>
-      </c>
-      <c r="P34">
-        <v>1.8302000000858243E-3</v>
-      </c>
-      <c r="Q34">
-        <v>3.6872000000585103E-3</v>
-      </c>
-      <c r="R34">
-        <v>2.3075999999946362E-3</v>
-      </c>
-      <c r="S34">
-        <v>6.127800000285788E-3</v>
-      </c>
-      <c r="T34">
-        <v>7.8945999998722982E-3</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>19.85185999999976</v>
-      </c>
-      <c r="AB34">
-        <v>21.668999999999869</v>
-      </c>
-      <c r="AC34">
-        <v>20.279889999999796</v>
-      </c>
-      <c r="AD34">
-        <v>22.982726600001115</v>
-      </c>
-      <c r="AE34">
-        <v>26.14632999999958</v>
-      </c>
-      <c r="AF34">
-        <v>26.783590000001823</v>
-      </c>
-      <c r="AG34">
-        <v>42.193499999999403</v>
-      </c>
-      <c r="AH34">
-        <v>46.185795999999755</v>
-      </c>
-      <c r="AI34">
-        <v>49.791633445657681</v>
-      </c>
-      <c r="AJ34">
-        <v>56.526132637099181</v>
-      </c>
-      <c r="AK34">
-        <v>0.1352536304877705</v>
-      </c>
-      <c r="AL34">
-        <v>0</v>
-      </c>
-      <c r="AM34">
-        <v>0.24194072657867072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -67304,634 +66586,515 @@
         <v>0</v>
       </c>
       <c r="AE35">
-        <v>0.20679999999970278</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>0.13768499999946471</v>
+        <v>0</v>
       </c>
       <c r="AG35">
-        <v>0.10410499999989042</v>
+        <v>-0.30507699999998295</v>
       </c>
       <c r="AH35">
-        <v>0.17456500000002961</v>
+        <v>0</v>
       </c>
       <c r="AI35">
-        <v>0.20623000000023239</v>
+        <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0.1915049999997791</v>
+        <v>0</v>
       </c>
       <c r="AK35">
-        <v>-7.1400863116116486E-2</v>
+        <v>0</v>
       </c>
       <c r="AL35">
         <v>0</v>
       </c>
       <c r="AM35">
-        <v>8.1967148081497714E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>2.1070000000000277</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1.785000000000025</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1.7740000000000009</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1.4029999999999916</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1.0390000000000157</v>
       </c>
       <c r="G36">
-        <v>2.0000000000024443E-3</v>
+        <v>1.8409999999999798</v>
       </c>
       <c r="H36">
-        <v>1.9999999999917861E-3</v>
+        <v>1.804000000000002</v>
       </c>
       <c r="I36">
-        <v>2.0000000000024443E-3</v>
+        <v>1.3329999999999984</v>
       </c>
       <c r="J36">
-        <v>1.9999999999953388E-3</v>
+        <v>1.3450000000000273</v>
       </c>
       <c r="K36">
-        <v>2.1500000000074238E-3</v>
+        <v>1.5169999999999959</v>
       </c>
       <c r="L36">
-        <v>2.5000000000048317E-3</v>
+        <v>1.2739999999999725</v>
       </c>
       <c r="M36">
-        <v>2.4999999999906208E-3</v>
+        <v>2.2199999999999989</v>
       </c>
       <c r="N36">
-        <v>2.4999999999977263E-3</v>
+        <v>2.6080000000000041</v>
       </c>
       <c r="O36">
-        <v>2.4999999999977263E-3</v>
+        <v>2.4199999999999875</v>
       </c>
       <c r="P36">
-        <v>2.4999999999977263E-3</v>
+        <v>2.5900000000000034</v>
       </c>
       <c r="Q36">
-        <v>2.9999999999859028E-3</v>
+        <v>2.83299999999997</v>
       </c>
       <c r="R36">
-        <v>3.9999999999764668E-3</v>
+        <v>1.9269999999999925</v>
       </c>
       <c r="S36">
-        <v>5.5000000000120508E-3</v>
+        <v>2.0109999999999957</v>
       </c>
       <c r="T36">
-        <v>7.4999999999931788E-3</v>
+        <v>2.9809999999999661</v>
       </c>
       <c r="U36">
-        <v>1.0000000000005116E-2</v>
+        <v>3.6750000000000398</v>
       </c>
       <c r="V36">
-        <v>1.099999999999568E-2</v>
+        <v>2.8669999999999902</v>
       </c>
       <c r="W36">
-        <v>1.6000000000005343E-2</v>
+        <v>2.9470000000000027</v>
       </c>
       <c r="X36">
-        <v>1.8000000000014893E-2</v>
+        <v>2.9790000000000134</v>
       </c>
       <c r="Y36">
-        <v>2.756499999998141E-2</v>
+        <v>2.7720000000000766</v>
       </c>
       <c r="Z36">
-        <v>3.1295000000000073E-2</v>
+        <v>2.7420000000000186</v>
       </c>
       <c r="AA36">
-        <v>4.7359999999969205E-2</v>
+        <v>2.953000000000003</v>
       </c>
       <c r="AB36">
-        <v>0.10842999999999847</v>
+        <v>2.9620000000000175</v>
       </c>
       <c r="AC36">
-        <v>0.13431500000001506</v>
+        <v>3.0059999999999434</v>
       </c>
       <c r="AD36">
-        <v>9.2149999999975307E-2</v>
+        <v>2.8810000000000286</v>
       </c>
       <c r="AE36">
-        <v>0.12038499999999885</v>
+        <v>3.1070000000000562</v>
       </c>
       <c r="AF36">
-        <v>0.24022499999998104</v>
+        <v>2.9189999999999827</v>
       </c>
       <c r="AG36">
-        <v>0.29500500000000329</v>
+        <v>3.2940000000000111</v>
       </c>
       <c r="AH36">
-        <v>0.29522000000000048</v>
+        <v>4.4790000000000703</v>
       </c>
       <c r="AI36">
-        <v>0.31123000000002321</v>
+        <v>4.5900000000000034</v>
       </c>
       <c r="AJ36">
-        <v>0.31139917984742738</v>
+        <v>4.5900000000000603</v>
       </c>
       <c r="AK36">
-        <v>5.4358463966885928E-4</v>
+        <v>0</v>
       </c>
       <c r="AL36">
-        <v>0.27430194385494011</v>
+        <v>5.1724391025938843E-2</v>
       </c>
       <c r="AM36">
-        <v>1.3328374030464197E-3</v>
+        <v>1.9645920978278029E-2</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B37">
-        <v>5.5640000000000214</v>
+        <v>0.10873684210526312</v>
       </c>
       <c r="C37">
-        <v>5.921000000000106</v>
+        <v>0.10589473684210601</v>
       </c>
       <c r="D37">
-        <v>6.7360000000000468</v>
+        <v>0.10899999999999997</v>
       </c>
       <c r="E37">
-        <v>6.3740000000000805</v>
+        <v>0.10905263157894712</v>
       </c>
       <c r="F37">
-        <v>6.9159999999999968</v>
+        <v>0.12910526315789539</v>
       </c>
       <c r="G37">
-        <v>8.9400000000001683</v>
+        <v>0.16521052631578928</v>
       </c>
       <c r="H37">
-        <v>11.17899999999986</v>
+        <v>1.0410526315789675E-2</v>
       </c>
       <c r="I37">
-        <v>9.57000000000005</v>
+        <v>7.1105263157889287E-3</v>
       </c>
       <c r="J37">
-        <v>12.889999999999986</v>
+        <v>4.2105263157894701E-3</v>
       </c>
       <c r="K37">
-        <v>11.197000000000116</v>
+        <v>4.2105263157894701E-3</v>
       </c>
       <c r="L37">
-        <v>12.423000000000116</v>
+        <v>4.3157894736842034E-3</v>
       </c>
       <c r="M37">
-        <v>12.259999999999991</v>
+        <v>4.3157894736842034E-3</v>
       </c>
       <c r="N37">
-        <v>13.976999999999975</v>
+        <v>4.3157894736842034E-3</v>
       </c>
       <c r="O37">
-        <v>13.550999999999817</v>
+        <v>3.00000000000053E-3</v>
       </c>
       <c r="P37">
-        <v>11.836000000000126</v>
+        <v>4.2105263157894701E-3</v>
       </c>
       <c r="Q37">
-        <v>12.444000000000074</v>
+        <v>-1.3693225315789475</v>
       </c>
       <c r="R37">
-        <v>12.371999999999957</v>
+        <v>-2.4350221052631578</v>
       </c>
       <c r="S37">
-        <v>11.237000000000194</v>
+        <v>-3.1460000258904839</v>
       </c>
       <c r="T37">
-        <v>10.536999999999807</v>
+        <v>-3.3665712376021948</v>
       </c>
       <c r="U37">
-        <v>10.52599999999984</v>
+        <v>-4.2952264088904792</v>
       </c>
       <c r="V37">
-        <v>9.6359999999998536</v>
+        <v>-3.5806794538565305</v>
       </c>
       <c r="W37">
-        <v>9.2129999999998518</v>
+        <v>-3.4363511779957481</v>
       </c>
       <c r="X37">
-        <v>10.833999999999833</v>
+        <v>-3.8238888179957469</v>
       </c>
       <c r="Y37">
-        <v>6.8000000000000682</v>
+        <v>-2.815299531379305</v>
       </c>
       <c r="Z37">
-        <v>5.8599999999999</v>
+        <v>-1.4371316429957497</v>
       </c>
       <c r="AA37">
-        <v>9.6650000000000773</v>
+        <v>0.34680883200425461</v>
       </c>
       <c r="AB37">
-        <v>10.132999999999925</v>
+        <v>2.3244508320042558</v>
       </c>
       <c r="AC37">
-        <v>10.23928350000017</v>
+        <v>0.41102003369370482</v>
       </c>
       <c r="AD37">
-        <v>8.6840888493001103</v>
+        <v>0.50394612600425404</v>
       </c>
       <c r="AE37">
-        <v>6.5716687477499818</v>
+        <v>0.53941076860425263</v>
       </c>
       <c r="AF37">
-        <v>7.3560000804501442</v>
+        <v>0.4091818421052581</v>
       </c>
       <c r="AG37">
-        <v>46.756246765790365</v>
+        <v>0.46483454030280885</v>
       </c>
       <c r="AH37">
-        <v>49.589577540086793</v>
+        <v>0.43569317020974213</v>
       </c>
       <c r="AI37">
-        <v>53.250163475845056</v>
+        <v>0.34021941629465779</v>
       </c>
       <c r="AJ37">
-        <v>42.342043633619824</v>
+        <v>-1.8020469883011683</v>
       </c>
       <c r="AK37">
-        <v>-0.20484669210777717</v>
+        <v>-6.2967200047761187</v>
       </c>
       <c r="AL37">
-        <v>0.22851709255644592</v>
+        <v>0</v>
       </c>
       <c r="AM37">
-        <v>0.18123059766555216</v>
+        <v>-7.7130441680410026E-3</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-3.5417508417506127E-2</v>
+        <v>2.215736842105291</v>
       </c>
       <c r="C38">
-        <v>-3.8606060606060311E-2</v>
+        <v>1.8908947368421309</v>
       </c>
       <c r="D38">
-        <v>-4.6858585858588597E-2</v>
+        <v>1.8830000000000009</v>
       </c>
       <c r="E38">
-        <v>-5.393378226711576E-2</v>
+        <v>1.5120526315789387</v>
       </c>
       <c r="F38">
-        <v>-4.9567901234567557E-2</v>
+        <v>1.1681052631579112</v>
       </c>
       <c r="G38">
-        <v>-3.768911335577485E-2</v>
+        <v>2.006210526315769</v>
       </c>
       <c r="H38">
-        <v>-4.1315375982041047E-2</v>
+        <v>1.8144105263157917</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1.3401105263157873</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1.3492105263158167</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.5212105263157853</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>1.2783157894736568</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>2.2243157894736831</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>2.6123157894736884</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>2.4229999999999881</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>2.5942105263157931</v>
       </c>
       <c r="Q38">
-        <v>-0.57090300000000127</v>
+        <v>1.4636774684210223</v>
       </c>
       <c r="R38">
-        <v>-0.57409399999998811</v>
+        <v>-0.50802210526316527</v>
       </c>
       <c r="S38">
-        <v>0.27763999999999101</v>
+        <v>-1.1350000258904878</v>
       </c>
       <c r="T38">
-        <v>0.55069999999999197</v>
+        <v>-0.38557123760222867</v>
       </c>
       <c r="U38">
-        <v>0.61800000000000921</v>
+        <v>-0.62022640889043945</v>
       </c>
       <c r="V38">
-        <v>0.36199999999998056</v>
+        <v>-0.7136794538565403</v>
       </c>
       <c r="W38">
-        <v>0.74505599999997685</v>
+        <v>-0.48935117799574535</v>
       </c>
       <c r="X38">
-        <v>0.30733800000000144</v>
+        <v>-0.84488881799573345</v>
       </c>
       <c r="Y38">
-        <v>0.2052890000000076</v>
+        <v>-4.3299531379228373E-2</v>
       </c>
       <c r="Z38">
-        <v>0.16989000000000942</v>
+        <v>1.3048683570042685</v>
       </c>
       <c r="AA38">
-        <v>0.25815999999998951</v>
+        <v>3.2998088320042576</v>
       </c>
       <c r="AB38">
-        <v>3.7895700000021293E-2</v>
+        <v>5.2864508320042738</v>
       </c>
       <c r="AC38">
-        <v>8.7306499999982634E-2</v>
+        <v>3.4170200336936483</v>
       </c>
       <c r="AD38">
-        <v>7.3140000000009309E-2</v>
+        <v>3.3849461260042832</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>3.646410768604309</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>3.3281818421052405</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>3.4537575403028371</v>
       </c>
       <c r="AH38">
-        <v>1.0000000000047748E-3</v>
+        <v>4.9146931702098122</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>4.9302194162946611</v>
       </c>
       <c r="AJ38">
-        <v>0</v>
+        <v>2.787953011698892</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>-0.43451745727897106</v>
       </c>
       <c r="AL38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AM38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39">
-        <v>0.47411400000000015</v>
-      </c>
-      <c r="C39">
-        <v>0.90950099999998457</v>
-      </c>
-      <c r="D39">
-        <v>1.378824999999992</v>
-      </c>
-      <c r="E39">
-        <v>1.5788440000000108</v>
-      </c>
-      <c r="F39">
-        <v>1.5939800000000091</v>
-      </c>
-      <c r="G39">
-        <v>1.6792854399185373</v>
-      </c>
-      <c r="H39">
-        <v>1.5671492249773564</v>
-      </c>
-      <c r="I39">
-        <v>1.7738540191295868</v>
-      </c>
-      <c r="J39">
-        <v>1.784234883476671</v>
-      </c>
-      <c r="K39">
-        <v>1.758273280146895</v>
-      </c>
-      <c r="L39">
-        <v>3.2252377796159521</v>
-      </c>
-      <c r="M39">
-        <v>3.6284748762122092</v>
-      </c>
-      <c r="N39">
-        <v>2.7356268807651531</v>
-      </c>
-      <c r="O39">
-        <v>1.9772564610917982</v>
-      </c>
-      <c r="P39">
-        <v>2.1886570476830229</v>
-      </c>
-      <c r="Q39">
-        <v>1.7241287198242787</v>
-      </c>
-      <c r="R39">
-        <v>1.9601194444752537</v>
-      </c>
-      <c r="S39">
-        <v>2.302741203681137</v>
-      </c>
-      <c r="T39">
-        <v>2.2377623539607043</v>
-      </c>
-      <c r="U39">
-        <v>1.888712402217493</v>
-      </c>
-      <c r="V39">
-        <v>1.791790616124473</v>
-      </c>
-      <c r="W39">
-        <v>2.0776738321472124</v>
-      </c>
-      <c r="X39">
-        <v>1.7640982102879548</v>
-      </c>
-      <c r="Y39">
-        <v>2.7248584898629815</v>
-      </c>
-      <c r="Z39">
-        <v>2.502729203622323</v>
-      </c>
-      <c r="AA39">
-        <v>4.8169353777818742</v>
-      </c>
-      <c r="AB39">
-        <v>8.4470862452802749</v>
-      </c>
-      <c r="AC39">
-        <v>9.6237054239937834</v>
-      </c>
-      <c r="AD39">
-        <v>11.845472539218179</v>
-      </c>
-      <c r="AE39">
-        <v>13.917208176846884</v>
-      </c>
-      <c r="AF39">
-        <v>12.38455392891467</v>
-      </c>
-      <c r="AG39">
-        <v>11.737573598320751</v>
-      </c>
-      <c r="AH39">
-        <v>11.960851679139239</v>
-      </c>
-      <c r="AI39">
-        <v>10.721208522156189</v>
-      </c>
-      <c r="AJ39">
-        <v>9.7220348233717573</v>
-      </c>
-      <c r="AK39">
-        <v>-9.3195995276051602E-2</v>
-      </c>
-      <c r="AL39">
-        <v>0.14680605946090197</v>
-      </c>
-      <c r="AM39">
-        <v>4.161183614118219E-2</v>
+        <v>1.1932876810237027E-2</v>
       </c>
     </row>
     <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.92500899999999575</v>
+        <v>3.7344894000000011</v>
       </c>
       <c r="C40">
-        <v>1.288842000000006</v>
+        <v>4.8992012000000216</v>
       </c>
       <c r="D40">
-        <v>1.609290000000005</v>
+        <v>4.5952039999999954</v>
       </c>
       <c r="E40">
-        <v>1.4795540000000074</v>
+        <v>5.1485563999999755</v>
       </c>
       <c r="F40">
-        <v>1.8188709999999872</v>
+        <v>4.6573309999999992</v>
       </c>
       <c r="G40">
-        <v>1.8068069999999992</v>
+        <v>0.73199999999999932</v>
       </c>
       <c r="H40">
-        <v>1.6592289999999892</v>
+        <v>0.28200000000003911</v>
       </c>
       <c r="I40">
-        <v>1.8106901799999804</v>
+        <v>0.41900000000001114</v>
       </c>
       <c r="J40">
-        <v>2.6256291199999851</v>
+        <v>0.41399999999998727</v>
       </c>
       <c r="K40">
-        <v>3.871658700000026</v>
+        <v>0.29399999999998272</v>
       </c>
       <c r="L40">
-        <v>4.1596745150000203</v>
+        <v>0.35399999999998499</v>
       </c>
       <c r="M40">
-        <v>4.5220025610000505</v>
+        <v>0.32300000000003593</v>
       </c>
       <c r="N40">
-        <v>4.5781967080000072</v>
+        <v>0.34000000000000341</v>
       </c>
       <c r="O40">
-        <v>4.7665293984999835</v>
+        <v>0.35000000000002274</v>
       </c>
       <c r="P40">
-        <v>4.3774913799999524</v>
+        <v>0.36000000000004206</v>
       </c>
       <c r="Q40">
-        <v>5.0614207594999812</v>
+        <v>0.36000000000001364</v>
       </c>
       <c r="R40">
-        <v>5.0704577799999981</v>
+        <v>0.36999999999997613</v>
       </c>
       <c r="S40">
-        <v>4.8679079325000032</v>
+        <v>1.073099999999954</v>
       </c>
       <c r="T40">
-        <v>5.2490710954999997</v>
+        <v>2.0046000000000106</v>
       </c>
       <c r="U40">
-        <v>4.8458331670000234</v>
+        <v>1.4105000000000132</v>
       </c>
       <c r="V40">
-        <v>5.3637996699999348</v>
+        <v>0.83049999999997226</v>
       </c>
       <c r="W40">
-        <v>5.4386105080000391</v>
+        <v>0.82600000000005025</v>
       </c>
       <c r="X40">
-        <v>5.5128052155000091</v>
+        <v>0.53049999999996089</v>
       </c>
       <c r="Y40">
-        <v>5.010343974000051</v>
+        <v>1.990949999999998</v>
       </c>
       <c r="Z40">
-        <v>4.8224614824999605</v>
+        <v>3.3524579699178219</v>
       </c>
       <c r="AA40">
-        <v>4.6239013929999828</v>
+        <v>2.9005517201790383</v>
       </c>
       <c r="AB40">
-        <v>4.5002379664999808</v>
+        <v>2.0151034299012451</v>
       </c>
       <c r="AC40">
-        <v>4.5299776089999568</v>
+        <v>1.6207000000000278</v>
       </c>
       <c r="AD40">
-        <v>4.8089619285000254</v>
+        <v>1.1266500000000121</v>
       </c>
       <c r="AE40">
-        <v>4.7832836349999752</v>
+        <v>8.2999999999969987E-2</v>
       </c>
       <c r="AF40">
-        <v>4.7270517821499993</v>
+        <v>0.1209999999999809</v>
       </c>
       <c r="AG40">
-        <v>4.9919408860000374</v>
+        <v>0.29700000000002547</v>
       </c>
       <c r="AH40">
-        <v>5.0041773479999847</v>
+        <v>0.24799999999999045</v>
       </c>
       <c r="AI40">
-        <v>5.1541919285000404</v>
+        <v>0.13602900695801168</v>
       </c>
       <c r="AJ40">
-        <v>5.0254874105000908</v>
+        <v>0.13602900695806852</v>
       </c>
       <c r="AK40">
-        <v>-2.4970843108941931E-2</v>
+        <v>0</v>
       </c>
       <c r="AL40">
-        <v>2.8345878742905839E-3</v>
+        <v>-0.23535981646861792</v>
       </c>
       <c r="AM40">
-        <v>2.1509875499785312E-2</v>
+        <v>5.8222551665616806E-4</v>
       </c>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>8.0378000000003169E-3</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -67949,105 +67112,105 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>3.0000000066365828E-6</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>2.4220000000241271E-4</v>
       </c>
       <c r="K41">
-        <v>1.4600000071141039E-6</v>
+        <v>4.7960000001694425E-3</v>
       </c>
       <c r="L41">
-        <v>5.0499999986186594E-6</v>
+        <v>9.3760000004294852E-4</v>
       </c>
       <c r="M41">
-        <v>-3.050000003668174E-6</v>
+        <v>2.9529999999340362E-3</v>
       </c>
       <c r="N41">
-        <v>-4.8038699996766354E-4</v>
+        <v>2.5021999998671163E-3</v>
       </c>
       <c r="O41">
-        <v>-2.2880000187797123E-6</v>
+        <v>2.3053999998410291E-3</v>
       </c>
       <c r="P41">
-        <v>3.3975551999972708E-2</v>
+        <v>1.8302000000858243E-3</v>
       </c>
       <c r="Q41">
-        <v>9.1664952999991556E-2</v>
+        <v>3.6872000000585103E-3</v>
       </c>
       <c r="R41">
-        <v>-1.0752640000077918E-3</v>
+        <v>2.3075999999946362E-3</v>
       </c>
       <c r="S41">
-        <v>2.3267500000656582E-4</v>
+        <v>6.127800000285788E-3</v>
       </c>
       <c r="T41">
-        <v>-3.4097260000294227E-3</v>
+        <v>7.8945999998722982E-3</v>
       </c>
       <c r="U41">
-        <v>2.9696000000001277E-4</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>8.3840999963058493E-5</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>-1.7268069999971658E-3</v>
+        <v>0</v>
       </c>
       <c r="X41">
-        <v>-1.8328339999698073E-3</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>-1.3041000000271197E-3</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-1.4091960000541803E-3</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>-1.6393909999408152E-3</v>
+        <v>19.85185999999976</v>
       </c>
       <c r="AB41">
-        <v>-1.8238600001438954E-3</v>
+        <v>21.668999999999869</v>
       </c>
       <c r="AC41">
-        <v>-8.6483350000321479E-4</v>
+        <v>20.279889999999796</v>
       </c>
       <c r="AD41">
-        <v>-1.2587779401087573E-3</v>
+        <v>22.982726600001115</v>
       </c>
       <c r="AE41">
-        <v>-1.4345330199603268E-3</v>
+        <v>26.14632999999958</v>
       </c>
       <c r="AF41">
-        <v>-1.3585070800274934E-3</v>
+        <v>26.783590000001823</v>
       </c>
       <c r="AG41">
-        <v>-1.3968428300756841E-3</v>
+        <v>42.193499999999403</v>
       </c>
       <c r="AH41">
-        <v>-1.5616709999051182E-3</v>
+        <v>46.185795999999755</v>
       </c>
       <c r="AI41">
-        <v>-1.4825680000285502E-3</v>
+        <v>49.791633445657681</v>
       </c>
       <c r="AJ41">
-        <v>-1.2503030000345916E-3</v>
+        <v>56.526132637099181</v>
       </c>
       <c r="AK41">
-        <v>-0.15666397763170781</v>
+        <v>0.1352536304877705</v>
       </c>
       <c r="AL41">
-        <v>1.2908866409814479E-2</v>
+        <v>0</v>
       </c>
       <c r="AM41">
-        <v>-5.3514932325889364E-6</v>
+        <v>0.24194072657867072</v>
       </c>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -68125,756 +67288,1589 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>3.4000000013634235E-5</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>3.3999999992317953E-5</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>3.3999999992317953E-5</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>5.8000000009883479E-5</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>5.7999999981461769E-5</v>
+        <v>0.20679999999970278</v>
       </c>
       <c r="AF42">
-        <v>5.999999999062311E-6</v>
+        <v>0.13768499999946471</v>
       </c>
       <c r="AG42">
-        <v>1.8999999994662176E-5</v>
+        <v>0.10410499999989042</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>0.17456500000002961</v>
       </c>
       <c r="AI42">
-        <v>0</v>
+        <v>0.20623000000023239</v>
       </c>
       <c r="AJ42">
-        <v>0</v>
+        <v>0.1915049999997791</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>-7.1400863116116486E-2</v>
       </c>
       <c r="AL42">
         <v>0</v>
       </c>
       <c r="AM42">
-        <v>0</v>
+        <v>8.1967148081497714E-4</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B43">
-        <v>0.15442573209566524</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.23072496579014112</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.23082973014030664</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>0.28936788289958748</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.27567149800463109</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.2297643752144414</v>
+        <v>2.0000000000024443E-3</v>
       </c>
       <c r="H43">
-        <v>0.44609504000881467</v>
+        <v>1.9999999999917861E-3</v>
       </c>
       <c r="I43">
-        <v>0.51289915430599786</v>
+        <v>2.0000000000024443E-3</v>
       </c>
       <c r="J43">
-        <v>0.37696318836933845</v>
+        <v>1.9999999999953388E-3</v>
       </c>
       <c r="K43">
-        <v>0.49462049841877481</v>
+        <v>2.1500000000074238E-3</v>
       </c>
       <c r="L43">
-        <v>0.54379401125858617</v>
+        <v>2.5000000000048317E-3</v>
       </c>
       <c r="M43">
-        <v>0.89487301533306729</v>
+        <v>2.4999999999906208E-3</v>
       </c>
       <c r="N43">
-        <v>0.9662954166905815</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="O43">
-        <v>0.5024102057708888</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="P43">
-        <v>0.56120761086404758</v>
+        <v>2.4999999999977263E-3</v>
       </c>
       <c r="Q43">
-        <v>1.1081707524580084</v>
+        <v>2.9999999999859028E-3</v>
       </c>
       <c r="R43">
-        <v>1.3010123047697526</v>
+        <v>3.9999999999764668E-3</v>
       </c>
       <c r="S43">
-        <v>1.8586344563942707</v>
+        <v>5.5000000000120508E-3</v>
       </c>
       <c r="T43">
-        <v>0.93618375164695544</v>
+        <v>7.4999999999931788E-3</v>
       </c>
       <c r="U43">
-        <v>1.2154093669717352</v>
+        <v>1.0000000000005116E-2</v>
       </c>
       <c r="V43">
-        <v>0.53398932263963295</v>
+        <v>1.099999999999568E-2</v>
       </c>
       <c r="W43">
-        <v>0.56179953550443162</v>
+        <v>1.6000000000005343E-2</v>
       </c>
       <c r="X43">
-        <v>0.49050938327071064</v>
+        <v>1.8000000000014893E-2</v>
       </c>
       <c r="Y43">
-        <v>0.43223964557406719</v>
+        <v>2.756499999998141E-2</v>
       </c>
       <c r="Z43">
-        <v>0.49053230231332862</v>
+        <v>3.1295000000000073E-2</v>
       </c>
       <c r="AA43">
-        <v>0.54576548366612876</v>
+        <v>4.7359999999969205E-2</v>
       </c>
       <c r="AB43">
-        <v>0.70260119245494701</v>
+        <v>0.10842999999999847</v>
       </c>
       <c r="AC43">
-        <v>0.79825496910013549</v>
+        <v>0.13431500000001506</v>
       </c>
       <c r="AD43">
-        <v>0.61087740666276735</v>
+        <v>9.2149999999975307E-2</v>
       </c>
       <c r="AE43">
-        <v>0.98986627056788845</v>
+        <v>0.12038499999999885</v>
       </c>
       <c r="AF43">
-        <v>0.7825816441686162</v>
+        <v>0.24022499999998104</v>
       </c>
       <c r="AG43">
-        <v>0.71196476769219308</v>
+        <v>0.29500500000000329</v>
       </c>
       <c r="AH43">
-        <v>1.0607998097809732</v>
+        <v>0.29522000000000048</v>
       </c>
       <c r="AI43">
-        <v>1.8898470121872268</v>
+        <v>0.31123000000002321</v>
       </c>
       <c r="AJ43">
-        <v>0.51182118950672872</v>
+        <v>0.31139917984742738</v>
       </c>
       <c r="AK43">
-        <v>-0.72917321550046044</v>
+        <v>5.4358463966885928E-4</v>
       </c>
       <c r="AL43">
-        <v>0.15896469110540368</v>
+        <v>0.27430194385494011</v>
       </c>
       <c r="AM43">
-        <v>2.1906750858512692E-3</v>
+        <v>1.3328374030464197E-3</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>10.824658423678176</v>
+        <v>5.5640000000000214</v>
       </c>
       <c r="C44">
-        <v>13.210663105184199</v>
+        <v>5.921000000000106</v>
       </c>
       <c r="D44">
-        <v>14.503290144281758</v>
+        <v>6.7360000000000468</v>
       </c>
       <c r="E44">
-        <v>14.816388500632543</v>
+        <v>6.3740000000000805</v>
       </c>
       <c r="F44">
-        <v>15.212285596770059</v>
+        <v>6.9159999999999968</v>
       </c>
       <c r="G44">
-        <v>13.352167701777375</v>
+        <v>8.9400000000001683</v>
       </c>
       <c r="H44">
-        <v>15.094160889004018</v>
+        <v>11.17899999999986</v>
       </c>
       <c r="I44">
-        <v>14.088443353435627</v>
+        <v>9.57000000000005</v>
       </c>
       <c r="J44">
-        <v>18.093069391845965</v>
+        <v>12.889999999999986</v>
       </c>
       <c r="K44">
-        <v>17.62249993856598</v>
+        <v>11.197000000000116</v>
       </c>
       <c r="L44">
-        <v>20.709148955874706</v>
+        <v>12.423000000000116</v>
       </c>
       <c r="M44">
-        <v>21.633800402545276</v>
+        <v>12.259999999999991</v>
       </c>
       <c r="N44">
-        <v>22.601640818455618</v>
+        <v>13.976999999999975</v>
       </c>
       <c r="O44">
-        <v>21.151999177362327</v>
+        <v>13.550999999999817</v>
       </c>
       <c r="P44">
-        <v>19.361661790547249</v>
+        <v>11.836000000000126</v>
       </c>
       <c r="Q44">
-        <v>20.22516938478239</v>
+        <v>12.444000000000074</v>
       </c>
       <c r="R44">
-        <v>20.504727865244913</v>
+        <v>12.371999999999957</v>
       </c>
       <c r="S44">
-        <v>21.628884067575854</v>
+        <v>11.237000000000194</v>
       </c>
       <c r="T44">
-        <v>21.527302075107304</v>
+        <v>10.536999999999807</v>
       </c>
       <c r="U44">
-        <v>20.514751896189122</v>
+        <v>10.52599999999984</v>
       </c>
       <c r="V44">
-        <v>18.529163449763804</v>
+        <v>9.6359999999998536</v>
       </c>
       <c r="W44">
-        <v>18.876413068651569</v>
+        <v>9.2129999999998518</v>
       </c>
       <c r="X44">
-        <v>19.455417975058513</v>
+        <v>10.833999999999833</v>
       </c>
       <c r="Y44">
-        <v>17.189942009437125</v>
+        <v>6.8000000000000682</v>
       </c>
       <c r="Z44">
-        <v>17.227956762353291</v>
+        <v>5.8599999999999</v>
       </c>
       <c r="AA44">
-        <v>42.707928583626895</v>
+        <v>9.6650000000000773</v>
       </c>
       <c r="AB44">
-        <v>47.611564674136105</v>
+        <v>10.132999999999925</v>
       </c>
       <c r="AC44">
-        <v>47.312602168593855</v>
+        <v>10.23928350000017</v>
       </c>
       <c r="AD44">
-        <v>50.222866545742086</v>
+        <v>8.6840888493001103</v>
       </c>
       <c r="AE44">
-        <v>52.817165297144001</v>
+        <v>6.5716687477499818</v>
       </c>
       <c r="AF44">
-        <v>52.531334928604664</v>
+        <v>7.3560000804501442</v>
       </c>
       <c r="AG44">
-        <v>107.08595817497257</v>
+        <v>46.756246765790365</v>
       </c>
       <c r="AH44">
-        <v>114.51842570600685</v>
+        <v>49.589577540086793</v>
       </c>
       <c r="AI44">
-        <v>121.45905082330444</v>
+        <v>53.250163475845056</v>
       </c>
       <c r="AJ44">
-        <v>114.76520257790284</v>
+        <v>42.342043633619824</v>
       </c>
       <c r="AK44">
-        <v>-5.5111975600234508E-2</v>
+        <v>-0.20484669210777717</v>
       </c>
       <c r="AL44">
-        <v>0.21594952420536662</v>
+        <v>0.22851709255644592</v>
       </c>
       <c r="AM44">
-        <v>0.49121309387832673</v>
+        <v>0.18123059766555216</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B45">
-        <v>53.909270372850067</v>
+        <v>-3.5417508417506127E-2</v>
       </c>
       <c r="C45">
-        <v>53.714874716486769</v>
+        <v>-3.8606060606060311E-2</v>
       </c>
       <c r="D45">
-        <v>52.819213188645037</v>
+        <v>-4.6858585858588597E-2</v>
       </c>
       <c r="E45">
-        <v>58.837476929905108</v>
+        <v>-5.393378226711576E-2</v>
       </c>
       <c r="F45">
-        <v>65.901691382345263</v>
+        <v>-4.9567901234567557E-2</v>
       </c>
       <c r="G45">
-        <v>66.994721490867676</v>
+        <v>-3.768911335577485E-2</v>
       </c>
       <c r="H45">
-        <v>68.150592752530855</v>
+        <v>-4.1315375982041047E-2</v>
       </c>
       <c r="I45">
-        <v>71.464385223487454</v>
+        <v>0</v>
       </c>
       <c r="J45">
-        <v>74.872657412725289</v>
+        <v>0</v>
       </c>
       <c r="K45">
-        <v>74.28315988951276</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>85.573654512638441</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>86.47830696218621</v>
+        <v>0</v>
       </c>
       <c r="N45">
-        <v>91.632118726245125</v>
+        <v>0</v>
       </c>
       <c r="O45">
-        <v>102.27330925100128</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>107.24395097555417</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>110.97143468463625</v>
+        <v>-0.57090300000000127</v>
       </c>
       <c r="R45">
-        <v>103.53834395879129</v>
+        <v>-0.57409399999998811</v>
       </c>
       <c r="S45">
-        <v>105.94447345706934</v>
+        <v>0.27763999999999101</v>
       </c>
       <c r="T45">
-        <v>115.73164127323325</v>
+        <v>0.55069999999999197</v>
       </c>
       <c r="U45">
-        <v>114.37096779514778</v>
+        <v>0.61800000000000921</v>
       </c>
       <c r="V45">
-        <v>123.83600291142506</v>
+        <v>0.36199999999998056</v>
       </c>
       <c r="W45">
-        <v>121.31131639816471</v>
+        <v>0.74505599999997685</v>
       </c>
       <c r="X45">
-        <v>120.67681632202904</v>
+        <v>0.30733800000000144</v>
       </c>
       <c r="Y45">
-        <v>118.89247000962182</v>
+        <v>0.2052890000000076</v>
       </c>
       <c r="Z45">
-        <v>115.50477998981412</v>
+        <v>0.16989000000000942</v>
       </c>
       <c r="AA45">
-        <v>156.35342378344166</v>
+        <v>0.25815999999998951</v>
       </c>
       <c r="AB45">
-        <v>153.45290965211447</v>
+        <v>3.7895700000021293E-2</v>
       </c>
       <c r="AC45">
-        <v>154.48065130583248</v>
+        <v>8.7306499999982634E-2</v>
       </c>
       <c r="AD45">
-        <v>156.92606549247677</v>
+        <v>7.3140000000009309E-2</v>
       </c>
       <c r="AE45">
-        <v>164.52797769855354</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>161.6324921876996</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>219.54445948910188</v>
+        <v>0</v>
       </c>
       <c r="AH45">
-        <v>228.3434367577579</v>
+        <v>1.0000000000047748E-3</v>
       </c>
       <c r="AI45">
-        <v>248.86819666857036</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
-        <v>233.63628536809756</v>
+        <v>0</v>
       </c>
       <c r="AK45">
-        <v>-6.1204732080563318E-2</v>
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>7.66672554704797E-2</v>
+        <v>-1</v>
       </c>
       <c r="AM45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>50.833212911889561</v>
+        <v>0.47411400000000015</v>
       </c>
       <c r="C46">
-        <v>50.234957171563835</v>
+        <v>0.90950099999998457</v>
       </c>
       <c r="D46">
-        <v>48.992319081574344</v>
+        <v>1.378824999999992</v>
       </c>
       <c r="E46">
-        <v>54.774696699633147</v>
+        <v>1.5788440000000108</v>
       </c>
       <c r="F46">
-        <v>62.83038319439688</v>
+        <v>1.5939800000000091</v>
       </c>
       <c r="G46">
-        <v>63.490372595967912</v>
+        <v>1.6792854399185373</v>
       </c>
       <c r="H46">
-        <v>63.841525972628432</v>
+        <v>1.5671492249773564</v>
       </c>
       <c r="I46">
-        <v>65.325624737187397</v>
+        <v>1.7738540191295868</v>
       </c>
       <c r="J46">
-        <v>67.254511343613984</v>
+        <v>1.784234883476671</v>
       </c>
       <c r="K46">
-        <v>65.16548475725422</v>
+        <v>1.758273280146895</v>
       </c>
       <c r="L46">
-        <v>76.480948556791489</v>
+        <v>3.2252377796159521</v>
       </c>
       <c r="M46">
-        <v>75.601773611865966</v>
+        <v>3.6284748762122092</v>
       </c>
       <c r="N46">
-        <v>79.890264375680545</v>
+        <v>2.7356268807651531</v>
       </c>
       <c r="O46">
-        <v>90.858198607515661</v>
+        <v>1.9772564610917982</v>
       </c>
       <c r="P46">
-        <v>95.722615026310706</v>
+        <v>2.1886570476830229</v>
       </c>
       <c r="Q46">
-        <v>99.11429311199079</v>
+        <v>1.7241287198242787</v>
       </c>
       <c r="R46">
-        <v>92.479847614032408</v>
+        <v>1.9601194444752537</v>
       </c>
       <c r="S46">
-        <v>94.283511458593594</v>
+        <v>2.302741203681137</v>
       </c>
       <c r="T46">
-        <v>104.88111668544558</v>
+        <v>2.2377623539607043</v>
       </c>
       <c r="U46">
-        <v>104.06564678799073</v>
+        <v>1.888712402217493</v>
       </c>
       <c r="V46">
-        <v>112.85127673030691</v>
+        <v>1.791790616124473</v>
       </c>
       <c r="W46">
-        <v>109.45110796751567</v>
+        <v>2.0776738321472124</v>
       </c>
       <c r="X46">
-        <v>110.24892844865374</v>
+        <v>1.7640982102879548</v>
       </c>
       <c r="Y46">
-        <v>107.36845614910406</v>
+        <v>2.7248584898629815</v>
       </c>
       <c r="Z46">
-        <v>101.81323572959107</v>
+        <v>2.502729203622323</v>
       </c>
       <c r="AA46">
-        <v>112.68355965046892</v>
+        <v>4.8169353777818742</v>
       </c>
       <c r="AB46">
-        <v>114.59113427850248</v>
+        <v>8.4470862452802749</v>
       </c>
       <c r="AC46">
-        <v>117.4059490803876</v>
+        <v>9.6237054239937834</v>
       </c>
       <c r="AD46">
-        <v>117.03170159195601</v>
+        <v>11.845472539218179</v>
       </c>
       <c r="AE46">
-        <v>113.84036526790162</v>
+        <v>13.917208176846884</v>
       </c>
       <c r="AF46">
-        <v>115.2572188478706</v>
+        <v>12.38455392891467</v>
       </c>
       <c r="AG46">
-        <v>158.36327257637268</v>
+        <v>11.737573598320751</v>
       </c>
       <c r="AH46">
-        <v>162.40834089652799</v>
+        <v>11.960851679139239</v>
       </c>
       <c r="AI46">
-        <v>183.87784896244435</v>
+        <v>10.721208522156189</v>
       </c>
       <c r="AJ46">
-        <v>162.60794222486876</v>
+        <v>9.7220348233717573</v>
       </c>
       <c r="AK46">
-        <v>-0.11567411114277171</v>
+        <v>-9.3195995276051602E-2</v>
       </c>
       <c r="AL46">
-        <v>5.5274079123661002E-2</v>
+        <v>0.14680605946090197</v>
       </c>
       <c r="AM46">
-        <v>0.69598753450765338</v>
+        <v>4.161183614118219E-2</v>
       </c>
     </row>
     <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>3.0760574609605023</v>
+        <v>0.92500899999999575</v>
       </c>
       <c r="C47">
-        <v>3.479917544922928</v>
+        <v>1.288842000000006</v>
       </c>
       <c r="D47">
-        <v>3.8268941070706939</v>
+        <v>1.609290000000005</v>
       </c>
       <c r="E47">
-        <v>4.0627802302719687</v>
+        <v>1.4795540000000074</v>
       </c>
       <c r="F47">
-        <v>3.071308187948405</v>
+        <v>1.8188709999999872</v>
       </c>
       <c r="G47">
-        <v>3.5043488948997545</v>
+        <v>1.8068069999999992</v>
       </c>
       <c r="H47">
-        <v>4.3090667799024107</v>
+        <v>1.6592289999999892</v>
       </c>
       <c r="I47">
-        <v>6.1387604863000638</v>
+        <v>1.8106901799999804</v>
       </c>
       <c r="J47">
-        <v>7.6181460691113312</v>
+        <v>2.6256291199999851</v>
       </c>
       <c r="K47">
-        <v>9.1176751322585421</v>
+        <v>3.871658700000026</v>
       </c>
       <c r="L47">
-        <v>9.0927059558469541</v>
+        <v>4.1596745150000203</v>
       </c>
       <c r="M47">
-        <v>10.876533350320232</v>
+        <v>4.5220025610000505</v>
       </c>
       <c r="N47">
-        <v>11.741854350564584</v>
+        <v>4.5781967080000072</v>
       </c>
       <c r="O47">
-        <v>11.415110643485622</v>
+        <v>4.7665293984999835</v>
       </c>
       <c r="P47">
-        <v>11.52133594924349</v>
+        <v>4.3774913799999524</v>
       </c>
       <c r="Q47">
-        <v>11.857141572645482</v>
+        <v>5.0614207594999812</v>
       </c>
       <c r="R47">
-        <v>11.05849634475889</v>
+        <v>5.0704577799999981</v>
       </c>
       <c r="S47">
-        <v>11.660961998475738</v>
+        <v>4.8679079325000032</v>
       </c>
       <c r="T47">
-        <v>10.850524587787627</v>
+        <v>5.2490710954999997</v>
       </c>
       <c r="U47">
-        <v>10.305321007157016</v>
+        <v>4.8458331670000234</v>
       </c>
       <c r="V47">
-        <v>10.984726181118139</v>
+        <v>5.3637996699999348</v>
       </c>
       <c r="W47">
-        <v>11.860208430648997</v>
+        <v>5.4386105080000391</v>
       </c>
       <c r="X47">
-        <v>10.427887873375314</v>
+        <v>5.5128052155000091</v>
       </c>
       <c r="Y47">
-        <v>11.524013860517789</v>
+        <v>5.010343974000051</v>
       </c>
       <c r="Z47">
-        <v>13.691544260223033</v>
+        <v>4.8224614824999605</v>
       </c>
       <c r="AA47">
-        <v>43.669864132972741</v>
+        <v>4.6239013929999828</v>
       </c>
       <c r="AB47">
-        <v>38.86177537361197</v>
+        <v>4.5002379664999808</v>
       </c>
       <c r="AC47">
-        <v>37.074702225444881</v>
+        <v>4.5299776089999568</v>
       </c>
       <c r="AD47">
-        <v>39.894363900520808</v>
+        <v>4.8089619285000254</v>
       </c>
       <c r="AE47">
-        <v>50.687612430651875</v>
+        <v>4.7832836349999752</v>
       </c>
       <c r="AF47">
-        <v>46.375273339828965</v>
+        <v>4.7270517821499993</v>
       </c>
       <c r="AG47">
-        <v>61.181186912729281</v>
+        <v>4.9919408860000374</v>
       </c>
       <c r="AH47">
-        <v>65.935095861229939</v>
+        <v>5.0041773479999847</v>
       </c>
       <c r="AI47">
-        <v>64.990347706126045</v>
+        <v>5.1541919285000404</v>
       </c>
       <c r="AJ47">
-        <v>71.028343143228753</v>
+        <v>5.0254874105000908</v>
       </c>
       <c r="AK47">
-        <v>9.2906033745278283E-2</v>
+        <v>-2.4970843108941931E-2</v>
       </c>
       <c r="AL47">
-        <v>0.18884301064103037</v>
+        <v>2.8345878742905839E-3</v>
       </c>
       <c r="AM47">
-        <v>0.3040124654923464</v>
+        <v>2.1509875499785312E-2</v>
       </c>
     </row>
     <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>8.0378000000003169E-3</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>3.0000000066365828E-6</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1.4600000071141039E-6</v>
+      </c>
+      <c r="L48">
+        <v>5.0499999986186594E-6</v>
+      </c>
+      <c r="M48">
+        <v>-3.050000003668174E-6</v>
+      </c>
+      <c r="N48">
+        <v>-4.8038699996766354E-4</v>
+      </c>
+      <c r="O48">
+        <v>-2.2880000187797123E-6</v>
+      </c>
+      <c r="P48">
+        <v>3.3975551999972708E-2</v>
+      </c>
+      <c r="Q48">
+        <v>9.1664952999991556E-2</v>
+      </c>
+      <c r="R48">
+        <v>-1.0752640000077918E-3</v>
+      </c>
+      <c r="S48">
+        <v>2.3267500000656582E-4</v>
+      </c>
+      <c r="T48">
+        <v>-3.4097260000294227E-3</v>
+      </c>
+      <c r="U48">
+        <v>2.9696000000001277E-4</v>
+      </c>
+      <c r="V48">
+        <v>8.3840999963058493E-5</v>
+      </c>
+      <c r="W48">
+        <v>-1.7268069999971658E-3</v>
+      </c>
+      <c r="X48">
+        <v>-1.8328339999698073E-3</v>
+      </c>
+      <c r="Y48">
+        <v>-1.3041000000271197E-3</v>
+      </c>
+      <c r="Z48">
+        <v>-1.4091960000541803E-3</v>
+      </c>
+      <c r="AA48">
+        <v>-1.6393909999408152E-3</v>
+      </c>
+      <c r="AB48">
+        <v>-1.8238600001438954E-3</v>
+      </c>
+      <c r="AC48">
+        <v>-8.6483350000321479E-4</v>
+      </c>
+      <c r="AD48">
+        <v>-1.2587779401087573E-3</v>
+      </c>
+      <c r="AE48">
+        <v>-1.4345330199603268E-3</v>
+      </c>
+      <c r="AF48">
+        <v>-1.3585070800274934E-3</v>
+      </c>
+      <c r="AG48">
+        <v>-1.3968428300756841E-3</v>
+      </c>
+      <c r="AH48">
+        <v>-1.5616709999051182E-3</v>
+      </c>
+      <c r="AI48">
+        <v>-1.4825680000285502E-3</v>
+      </c>
+      <c r="AJ48">
+        <v>-1.2503030000345916E-3</v>
+      </c>
+      <c r="AK48">
+        <v>-0.15666397763170781</v>
+      </c>
+      <c r="AL48">
+        <v>1.2908866409814479E-2</v>
+      </c>
+      <c r="AM48">
+        <v>-5.3514932325889364E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>0</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>3.4000000013634235E-5</v>
+      </c>
+      <c r="AB49">
+        <v>3.3999999992317953E-5</v>
+      </c>
+      <c r="AC49">
+        <v>3.3999999992317953E-5</v>
+      </c>
+      <c r="AD49">
+        <v>5.8000000009883479E-5</v>
+      </c>
+      <c r="AE49">
+        <v>5.7999999981461769E-5</v>
+      </c>
+      <c r="AF49">
+        <v>5.999999999062311E-6</v>
+      </c>
+      <c r="AG49">
+        <v>1.8999999994662176E-5</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>0.15442573209566524</v>
+      </c>
+      <c r="C50">
+        <v>0.23072496579014112</v>
+      </c>
+      <c r="D50">
+        <v>0.23082973014030664</v>
+      </c>
+      <c r="E50">
+        <v>0.28936788289958748</v>
+      </c>
+      <c r="F50">
+        <v>0.27567149800463109</v>
+      </c>
+      <c r="G50">
+        <v>0.2297643752144414</v>
+      </c>
+      <c r="H50">
+        <v>0.44609504000881467</v>
+      </c>
+      <c r="I50">
+        <v>0.51289915430599786</v>
+      </c>
+      <c r="J50">
+        <v>0.37696318836933845</v>
+      </c>
+      <c r="K50">
+        <v>0.49462049841877481</v>
+      </c>
+      <c r="L50">
+        <v>0.54379401125858617</v>
+      </c>
+      <c r="M50">
+        <v>0.89487301533306729</v>
+      </c>
+      <c r="N50">
+        <v>0.9662954166905815</v>
+      </c>
+      <c r="O50">
+        <v>0.5024102057708888</v>
+      </c>
+      <c r="P50">
+        <v>0.56120761086404758</v>
+      </c>
+      <c r="Q50">
+        <v>1.1081707524580084</v>
+      </c>
+      <c r="R50">
+        <v>1.3010123047697526</v>
+      </c>
+      <c r="S50">
+        <v>1.8586344563942707</v>
+      </c>
+      <c r="T50">
+        <v>0.93618375164695544</v>
+      </c>
+      <c r="U50">
+        <v>1.2154093669717352</v>
+      </c>
+      <c r="V50">
+        <v>0.53398932263963295</v>
+      </c>
+      <c r="W50">
+        <v>0.56179953550443162</v>
+      </c>
+      <c r="X50">
+        <v>0.49050938327071064</v>
+      </c>
+      <c r="Y50">
+        <v>0.43223964557406719</v>
+      </c>
+      <c r="Z50">
+        <v>0.49053230231332862</v>
+      </c>
+      <c r="AA50">
+        <v>0.54576548366612876</v>
+      </c>
+      <c r="AB50">
+        <v>0.70260119245494701</v>
+      </c>
+      <c r="AC50">
+        <v>0.79825496910013549</v>
+      </c>
+      <c r="AD50">
+        <v>0.61087740666276735</v>
+      </c>
+      <c r="AE50">
+        <v>0.98986627056788845</v>
+      </c>
+      <c r="AF50">
+        <v>0.7825816441686162</v>
+      </c>
+      <c r="AG50">
+        <v>0.71196476769219308</v>
+      </c>
+      <c r="AH50">
+        <v>1.0607998097809732</v>
+      </c>
+      <c r="AI50">
+        <v>1.8898470121872268</v>
+      </c>
+      <c r="AJ50">
+        <v>0.51182118950672872</v>
+      </c>
+      <c r="AK50">
+        <v>-0.72917321550046044</v>
+      </c>
+      <c r="AL50">
+        <v>0.15896469110540368</v>
+      </c>
+      <c r="AM50">
+        <v>2.1906750858512692E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>10.824658423678176</v>
+      </c>
+      <c r="C51">
+        <v>13.210663105184199</v>
+      </c>
+      <c r="D51">
+        <v>14.503290144281758</v>
+      </c>
+      <c r="E51">
+        <v>14.816388500632543</v>
+      </c>
+      <c r="F51">
+        <v>15.212285596770059</v>
+      </c>
+      <c r="G51">
+        <v>13.352167701777375</v>
+      </c>
+      <c r="H51">
+        <v>15.094160889004018</v>
+      </c>
+      <c r="I51">
+        <v>14.088443353435627</v>
+      </c>
+      <c r="J51">
+        <v>18.093069391845965</v>
+      </c>
+      <c r="K51">
+        <v>17.62249993856598</v>
+      </c>
+      <c r="L51">
+        <v>20.709148955874706</v>
+      </c>
+      <c r="M51">
+        <v>21.633800402545276</v>
+      </c>
+      <c r="N51">
+        <v>22.601640818455618</v>
+      </c>
+      <c r="O51">
+        <v>21.151999177362327</v>
+      </c>
+      <c r="P51">
+        <v>19.361661790547249</v>
+      </c>
+      <c r="Q51">
+        <v>20.22516938478239</v>
+      </c>
+      <c r="R51">
+        <v>20.504727865244913</v>
+      </c>
+      <c r="S51">
+        <v>21.628884067575854</v>
+      </c>
+      <c r="T51">
+        <v>21.527302075107304</v>
+      </c>
+      <c r="U51">
+        <v>20.514751896189122</v>
+      </c>
+      <c r="V51">
+        <v>18.529163449763804</v>
+      </c>
+      <c r="W51">
+        <v>18.876413068651569</v>
+      </c>
+      <c r="X51">
+        <v>19.455417975058513</v>
+      </c>
+      <c r="Y51">
+        <v>17.189942009437125</v>
+      </c>
+      <c r="Z51">
+        <v>17.227956762353291</v>
+      </c>
+      <c r="AA51">
+        <v>42.707928583626895</v>
+      </c>
+      <c r="AB51">
+        <v>47.611564674136105</v>
+      </c>
+      <c r="AC51">
+        <v>47.312602168593855</v>
+      </c>
+      <c r="AD51">
+        <v>50.222866545742086</v>
+      </c>
+      <c r="AE51">
+        <v>52.817165297144001</v>
+      </c>
+      <c r="AF51">
+        <v>52.531334928604664</v>
+      </c>
+      <c r="AG51">
+        <v>107.08595817497257</v>
+      </c>
+      <c r="AH51">
+        <v>114.51842570600685</v>
+      </c>
+      <c r="AI51">
+        <v>121.45905082330444</v>
+      </c>
+      <c r="AJ51">
+        <v>114.76520257790284</v>
+      </c>
+      <c r="AK51">
+        <v>-5.5111975600234508E-2</v>
+      </c>
+      <c r="AL51">
+        <v>0.21594952420536662</v>
+      </c>
+      <c r="AM51">
+        <v>0.49121309387832673</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>53.909270372850067</v>
+      </c>
+      <c r="C53">
+        <v>53.714874716486769</v>
+      </c>
+      <c r="D53">
+        <v>52.819213188645037</v>
+      </c>
+      <c r="E53">
+        <v>58.837476929905108</v>
+      </c>
+      <c r="F53">
+        <v>65.901691382345263</v>
+      </c>
+      <c r="G53">
+        <v>66.994721490867676</v>
+      </c>
+      <c r="H53">
+        <v>68.150592752530855</v>
+      </c>
+      <c r="I53">
+        <v>71.464385223487454</v>
+      </c>
+      <c r="J53">
+        <v>74.872657412725289</v>
+      </c>
+      <c r="K53">
+        <v>74.28315988951276</v>
+      </c>
+      <c r="L53">
+        <v>85.573654512638441</v>
+      </c>
+      <c r="M53">
+        <v>86.47830696218621</v>
+      </c>
+      <c r="N53">
+        <v>91.632118726245125</v>
+      </c>
+      <c r="O53">
+        <v>102.27330925100128</v>
+      </c>
+      <c r="P53">
+        <v>107.24395097555417</v>
+      </c>
+      <c r="Q53">
+        <v>110.97143468463625</v>
+      </c>
+      <c r="R53">
+        <v>103.53834395879129</v>
+      </c>
+      <c r="S53">
+        <v>105.94447345706934</v>
+      </c>
+      <c r="T53">
+        <v>115.73164127323325</v>
+      </c>
+      <c r="U53">
+        <v>114.37096779514778</v>
+      </c>
+      <c r="V53">
+        <v>123.83600291142506</v>
+      </c>
+      <c r="W53">
+        <v>121.31131639816471</v>
+      </c>
+      <c r="X53">
+        <v>120.67681632202904</v>
+      </c>
+      <c r="Y53">
+        <v>118.89247000962182</v>
+      </c>
+      <c r="Z53">
+        <v>115.50477998981412</v>
+      </c>
+      <c r="AA53">
+        <v>156.35342378344166</v>
+      </c>
+      <c r="AB53">
+        <v>153.45290965211447</v>
+      </c>
+      <c r="AC53">
+        <v>154.48065130583248</v>
+      </c>
+      <c r="AD53">
+        <v>156.92606549247677</v>
+      </c>
+      <c r="AE53">
+        <v>164.52797769855354</v>
+      </c>
+      <c r="AF53">
+        <v>161.6324921876996</v>
+      </c>
+      <c r="AG53">
+        <v>219.54445948910188</v>
+      </c>
+      <c r="AH53">
+        <v>228.3434367577579</v>
+      </c>
+      <c r="AI53">
+        <v>248.86819666857036</v>
+      </c>
+      <c r="AJ53">
+        <v>233.63628536809756</v>
+      </c>
+      <c r="AK53">
+        <v>-6.1204732080563318E-2</v>
+      </c>
+      <c r="AL53">
+        <v>7.66672554704797E-2</v>
+      </c>
+      <c r="AM53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54">
+        <v>50.833212911889561</v>
+      </c>
+      <c r="C54">
+        <v>50.234957171563835</v>
+      </c>
+      <c r="D54">
+        <v>48.992319081574344</v>
+      </c>
+      <c r="E54">
+        <v>54.774696699633147</v>
+      </c>
+      <c r="F54">
+        <v>62.83038319439688</v>
+      </c>
+      <c r="G54">
+        <v>63.490372595967912</v>
+      </c>
+      <c r="H54">
+        <v>63.841525972628432</v>
+      </c>
+      <c r="I54">
+        <v>65.325624737187397</v>
+      </c>
+      <c r="J54">
+        <v>67.254511343613984</v>
+      </c>
+      <c r="K54">
+        <v>65.16548475725422</v>
+      </c>
+      <c r="L54">
+        <v>76.480948556791489</v>
+      </c>
+      <c r="M54">
+        <v>75.601773611865966</v>
+      </c>
+      <c r="N54">
+        <v>79.890264375680545</v>
+      </c>
+      <c r="O54">
+        <v>90.858198607515661</v>
+      </c>
+      <c r="P54">
+        <v>95.722615026310706</v>
+      </c>
+      <c r="Q54">
+        <v>99.11429311199079</v>
+      </c>
+      <c r="R54">
+        <v>92.479847614032408</v>
+      </c>
+      <c r="S54">
+        <v>94.283511458593594</v>
+      </c>
+      <c r="T54">
+        <v>104.88111668544558</v>
+      </c>
+      <c r="U54">
+        <v>104.06564678799073</v>
+      </c>
+      <c r="V54">
+        <v>112.85127673030691</v>
+      </c>
+      <c r="W54">
+        <v>109.45110796751567</v>
+      </c>
+      <c r="X54">
+        <v>110.24892844865374</v>
+      </c>
+      <c r="Y54">
+        <v>107.36845614910406</v>
+      </c>
+      <c r="Z54">
+        <v>101.81323572959107</v>
+      </c>
+      <c r="AA54">
+        <v>112.68355965046892</v>
+      </c>
+      <c r="AB54">
+        <v>114.59113427850248</v>
+      </c>
+      <c r="AC54">
+        <v>117.4059490803876</v>
+      </c>
+      <c r="AD54">
+        <v>117.03170159195601</v>
+      </c>
+      <c r="AE54">
+        <v>113.84036526790162</v>
+      </c>
+      <c r="AF54">
+        <v>115.2572188478706</v>
+      </c>
+      <c r="AG54">
+        <v>158.36327257637268</v>
+      </c>
+      <c r="AH54">
+        <v>162.40834089652799</v>
+      </c>
+      <c r="AI54">
+        <v>183.87784896244435</v>
+      </c>
+      <c r="AJ54">
+        <v>162.60794222486876</v>
+      </c>
+      <c r="AK54">
+        <v>-0.11567411114277171</v>
+      </c>
+      <c r="AL54">
+        <v>5.5274079123661002E-2</v>
+      </c>
+      <c r="AM54">
+        <v>0.69598753450765338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55">
+        <v>3.0760574609605023</v>
+      </c>
+      <c r="C55">
+        <v>3.479917544922928</v>
+      </c>
+      <c r="D55">
+        <v>3.8268941070706939</v>
+      </c>
+      <c r="E55">
+        <v>4.0627802302719687</v>
+      </c>
+      <c r="F55">
+        <v>3.071308187948405</v>
+      </c>
+      <c r="G55">
+        <v>3.5043488948997545</v>
+      </c>
+      <c r="H55">
+        <v>4.3090667799024107</v>
+      </c>
+      <c r="I55">
+        <v>6.1387604863000638</v>
+      </c>
+      <c r="J55">
+        <v>7.6181460691113312</v>
+      </c>
+      <c r="K55">
+        <v>9.1176751322585421</v>
+      </c>
+      <c r="L55">
+        <v>9.0927059558469541</v>
+      </c>
+      <c r="M55">
+        <v>10.876533350320232</v>
+      </c>
+      <c r="N55">
+        <v>11.741854350564584</v>
+      </c>
+      <c r="O55">
+        <v>11.415110643485622</v>
+      </c>
+      <c r="P55">
+        <v>11.52133594924349</v>
+      </c>
+      <c r="Q55">
+        <v>11.857141572645482</v>
+      </c>
+      <c r="R55">
+        <v>11.05849634475889</v>
+      </c>
+      <c r="S55">
+        <v>11.660961998475738</v>
+      </c>
+      <c r="T55">
+        <v>10.850524587787627</v>
+      </c>
+      <c r="U55">
+        <v>10.305321007157016</v>
+      </c>
+      <c r="V55">
+        <v>10.984726181118139</v>
+      </c>
+      <c r="W55">
+        <v>11.860208430648997</v>
+      </c>
+      <c r="X55">
+        <v>10.427887873375314</v>
+      </c>
+      <c r="Y55">
+        <v>11.524013860517789</v>
+      </c>
+      <c r="Z55">
+        <v>13.691544260223033</v>
+      </c>
+      <c r="AA55">
+        <v>43.669864132972741</v>
+      </c>
+      <c r="AB55">
+        <v>38.86177537361197</v>
+      </c>
+      <c r="AC55">
+        <v>37.074702225444881</v>
+      </c>
+      <c r="AD55">
+        <v>39.894363900520808</v>
+      </c>
+      <c r="AE55">
+        <v>50.687612430651875</v>
+      </c>
+      <c r="AF55">
+        <v>46.375273339828965</v>
+      </c>
+      <c r="AG55">
+        <v>61.181186912729281</v>
+      </c>
+      <c r="AH55">
+        <v>65.935095861229939</v>
+      </c>
+      <c r="AI55">
+        <v>64.990347706126045</v>
+      </c>
+      <c r="AJ55">
+        <v>71.028343143228753</v>
+      </c>
+      <c r="AK55">
+        <v>9.2906033745278283E-2</v>
+      </c>
+      <c r="AL55">
+        <v>0.18884301064103037</v>
+      </c>
+      <c r="AM55">
+        <v>0.3040124654923464</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>122</v>
       </c>
-      <c r="B48">
+      <c r="B56">
         <v>38.982649167281316</v>
       </c>
-      <c r="C48">
+      <c r="C56">
         <v>36.269508498116735</v>
       </c>
-      <c r="D48">
+      <c r="D56">
         <v>34.095175285222965</v>
       </c>
-      <c r="E48">
+      <c r="E56">
         <v>39.276300094467459</v>
       </c>
-      <c r="F48">
+      <c r="F56">
         <v>43.220587989086823</v>
       </c>
-      <c r="G48">
+      <c r="G56">
         <v>39.305835482421081</v>
       </c>
-      <c r="H48">
+      <c r="H56">
         <v>35.313986952161692</v>
       </c>
-      <c r="I48">
+      <c r="I56">
         <v>37.477318896072369</v>
       </c>
-      <c r="J48">
+      <c r="J56">
         <v>36.401076096435688</v>
       </c>
-      <c r="K48">
+      <c r="K56">
         <v>35.400954799798612</v>
       </c>
-      <c r="L48">
+      <c r="L56">
         <v>42.942111454211712</v>
       </c>
-      <c r="M48">
+      <c r="M56">
         <v>41.620215052264896</v>
       </c>
-      <c r="N48">
+      <c r="N56">
         <v>42.858567578059485</v>
       </c>
-      <c r="O48">
+      <c r="O56">
         <v>54.582044400212702</v>
       </c>
-      <c r="P48">
+      <c r="P56">
         <v>59.100227019690337</v>
       </c>
-      <c r="Q48">
+      <c r="Q56">
         <v>62.273540768899927</v>
       </c>
-      <c r="R48">
+      <c r="R56">
         <v>61.222482178708951</v>
       </c>
-      <c r="S48">
+      <c r="S56">
         <v>61.205018635144476</v>
       </c>
-      <c r="T48">
+      <c r="T56">
         <v>65.177442538769867</v>
       </c>
-      <c r="U48">
+      <c r="U56">
         <v>66.617212683698611</v>
       </c>
-      <c r="V48">
+      <c r="V56">
         <v>72.319795043177322</v>
       </c>
-      <c r="W48">
+      <c r="W56">
         <v>72.55095840128152</v>
       </c>
-      <c r="X48">
+      <c r="X56">
         <v>72.961008606024535</v>
       </c>
-      <c r="Y48">
+      <c r="Y56">
         <v>69.441849244249767</v>
       </c>
-      <c r="Z48">
+      <c r="Z56">
         <v>64.798042525268272</v>
       </c>
-      <c r="AA48">
+      <c r="AA56">
         <v>71.25101062656114</v>
       </c>
-      <c r="AB48">
+      <c r="AB56">
         <v>69.145163681594724</v>
       </c>
-      <c r="AC48">
+      <c r="AC56">
         <v>73.000286597925452</v>
       </c>
-      <c r="AD48">
+      <c r="AD56">
         <v>73.881979819357369</v>
       </c>
-      <c r="AE48">
+      <c r="AE56">
         <v>74.337315476084868</v>
       </c>
-      <c r="AF48">
+      <c r="AF56">
         <v>76.000708833252986</v>
       </c>
-      <c r="AG48">
+      <c r="AG56">
         <v>79.639611589229261</v>
       </c>
-      <c r="AH48">
+      <c r="AH56">
         <v>77.50167060433084</v>
       </c>
-      <c r="AI48">
+      <c r="AI56">
         <v>77.896174016848846</v>
       </c>
-      <c r="AJ48">
+      <c r="AJ56">
         <v>67.165901010519534</v>
       </c>
-      <c r="AK48">
+      <c r="AK56">
         <v>-0.13775096327591607</v>
       </c>
-      <c r="AL48">
+      <c r="AL56">
         <v>1.1554962414065173E-2</v>
       </c>
-      <c r="AM48">
+      <c r="AM56">
         <v>0.28748060646786361</v>
       </c>
     </row>
